--- a/cips_data.xlsx
+++ b/cips_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhubb/Documents/ar_excel_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F152CF0-2CB2-6442-A72F-A513C025149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82973E7-4527-F548-BDF8-3197BD152100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16160" yWindow="500" windowWidth="12640" windowHeight="16540" xr2:uid="{11FC0157-601E-C148-A29B-2D6A01395A3D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="711">
   <si>
     <t>Invoice Amount</t>
   </si>
@@ -2157,6 +2157,18 @@
   </si>
   <si>
     <t>1199290</t>
+  </si>
+  <si>
+    <t>V0410250838</t>
+  </si>
+  <si>
+    <t>04/10/2025</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>61030838</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2186,16 +2198,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2218,11 +2242,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -2238,6 +2275,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2598,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82F5A9E-41A9-824A-9FC6-90FD0613E4B7}">
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2671,8 +2724,8 @@
       <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
+      <c r="E2" s="5">
+        <v>45142</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -2684,7 +2737,7 @@
       <c r="I2" s="2">
         <v>13230.78</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="6">
         <v>13230.78</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -2720,7 +2773,7 @@
       <c r="I3" s="2">
         <v>559.79999999999995</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="7">
         <v>559.79999999999995</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -2756,7 +2809,7 @@
       <c r="I4" s="2">
         <v>46261.02</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="8">
         <v>46261.02</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -2792,7 +2845,7 @@
       <c r="I5" s="2">
         <v>680</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="7">
         <v>680</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -2828,7 +2881,7 @@
       <c r="I6" s="2">
         <v>30840.68</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="8">
         <v>30840.68</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -2864,7 +2917,7 @@
       <c r="I7" s="2">
         <v>94402.559999999998</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>94402.559999999998</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -2900,7 +2953,7 @@
       <c r="I8" s="2">
         <v>116905.92</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="8">
         <v>116905.92</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -2936,7 +2989,7 @@
       <c r="I9" s="2">
         <v>660</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="7">
         <v>660</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2972,7 +3025,7 @@
       <c r="I10" s="2">
         <v>2750</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="8">
         <v>2750</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -3008,7 +3061,7 @@
       <c r="I11" s="2">
         <v>1038</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="7">
         <v>1038</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -3044,7 +3097,7 @@
       <c r="I12" s="2">
         <v>14156.45</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="8">
         <v>14156.45</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -3080,7 +3133,7 @@
       <c r="I13" s="2">
         <v>484</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="7">
         <v>484</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -3116,7 +3169,7 @@
       <c r="I14" s="2">
         <v>742</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="8">
         <v>742</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -3152,7 +3205,7 @@
       <c r="I15" s="2">
         <v>1581</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="7">
         <v>1581</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -3188,7 +3241,7 @@
       <c r="I16" s="2">
         <v>2525</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="8">
         <v>2525</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -3224,7 +3277,7 @@
       <c r="I17" s="2">
         <v>1104</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="7">
         <v>1104</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -3260,7 +3313,7 @@
       <c r="I18" s="2">
         <v>11762</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="8">
         <v>11762</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -3296,7 +3349,7 @@
       <c r="I19" s="2">
         <v>4523.84</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="7">
         <v>4523.84</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -3332,7 +3385,7 @@
       <c r="I20" s="2">
         <v>53656</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="8">
         <v>53656</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -3368,7 +3421,7 @@
       <c r="I21" s="2">
         <v>21085</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="7">
         <v>21085</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -3404,7 +3457,7 @@
       <c r="I22" s="2">
         <v>94402.559999999998</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="8">
         <v>94402.559999999998</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -3440,7 +3493,7 @@
       <c r="I23" s="2">
         <v>12213.64</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="7">
         <v>12213.64</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -3476,7 +3529,7 @@
       <c r="I24" s="2">
         <v>94402.559999999998</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="8">
         <v>94402.559999999998</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -3512,7 +3565,7 @@
       <c r="I25" s="2">
         <v>116905.92</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="7">
         <v>116905.92</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -3548,7 +3601,7 @@
       <c r="I26" s="2">
         <v>116905.92</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="8">
         <v>116905.92</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -3584,7 +3637,7 @@
       <c r="I27" s="2">
         <v>77101.7</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="7">
         <v>77101.7</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -3620,7 +3673,7 @@
       <c r="I28" s="2">
         <v>9385</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="8">
         <v>9385</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -3656,7 +3709,7 @@
       <c r="I29" s="2">
         <v>11432.94</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="7">
         <v>11432.94</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -3692,7 +3745,7 @@
       <c r="I30" s="2">
         <v>1959.8</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="8">
         <v>1959.8</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -3728,7 +3781,7 @@
       <c r="I31" s="2">
         <v>14247.62</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="7">
         <v>14247.62</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -3764,7 +3817,7 @@
       <c r="I32" s="2">
         <v>248874.86</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="8">
         <v>248874.86</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -3800,7 +3853,7 @@
       <c r="I33" s="2">
         <v>51740.43</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="7">
         <v>51740.43</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -3836,7 +3889,7 @@
       <c r="I34" s="2">
         <v>11791.2</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="8">
         <v>11791.2</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -3872,7 +3925,7 @@
       <c r="I35" s="2">
         <v>23378</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="7">
         <v>23378</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -3908,7 +3961,7 @@
       <c r="I36" s="2">
         <v>9487.2000000000007</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="8">
         <v>9487.2000000000007</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -3944,7 +3997,7 @@
       <c r="I37" s="2">
         <v>105234</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="7">
         <v>105234</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -3980,7 +4033,7 @@
       <c r="I38" s="2">
         <v>45013.8</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="8">
         <v>45013.8</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -4016,7 +4069,7 @@
       <c r="I39" s="2">
         <v>19395.52</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="7">
         <v>19395.52</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -4052,7 +4105,7 @@
       <c r="I40" s="2">
         <v>17715.419999999998</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="8">
         <v>17715.419999999998</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -4088,7 +4141,7 @@
       <c r="I41" s="2">
         <v>101789.04</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="7">
         <v>101789.04</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -4124,7 +4177,7 @@
       <c r="I42" s="2">
         <v>427.52</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="8">
         <v>427.52</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -4160,7 +4213,7 @@
       <c r="I43" s="2">
         <v>49564.84</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="7">
         <v>49564.84</v>
       </c>
       <c r="K43" s="1" t="s">
@@ -4196,7 +4249,7 @@
       <c r="I44" s="2">
         <v>48241.440000000002</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="8">
         <v>48241.440000000002</v>
       </c>
       <c r="K44" s="1" t="s">
@@ -4232,7 +4285,7 @@
       <c r="I45" s="2">
         <v>3099.33</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="7">
         <v>3099.33</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -4268,7 +4321,7 @@
       <c r="I46" s="2">
         <v>112743.52</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="8">
         <v>112743.52</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -4304,7 +4357,7 @@
       <c r="I47" s="2">
         <v>289230.83</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="7">
         <v>289230.83</v>
       </c>
       <c r="K47" s="1" t="s">
@@ -4340,7 +4393,7 @@
       <c r="I48" s="2">
         <v>54009.16</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="8">
         <v>54009.16</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -4376,7 +4429,7 @@
       <c r="I49" s="2">
         <v>8807.52</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="7">
         <v>8807.52</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -4412,7 +4465,7 @@
       <c r="I50" s="2">
         <v>6354.53</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="8">
         <v>6354.53</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -4448,7 +4501,7 @@
       <c r="I51" s="2">
         <v>84451.4</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="7">
         <v>84451.4</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -4484,7 +4537,7 @@
       <c r="I52" s="2">
         <v>4928.5600000000004</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="8">
         <v>4928.5600000000004</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -4520,7 +4573,7 @@
       <c r="I53" s="2">
         <v>11099.8</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="7">
         <v>11099.8</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -4556,7 +4609,7 @@
       <c r="I54" s="2">
         <v>233811.84</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="8">
         <v>233811.84</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -4592,7 +4645,7 @@
       <c r="I55" s="2">
         <v>93735.07</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="7">
         <v>93735.07</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -4628,7 +4681,7 @@
       <c r="I56" s="2">
         <v>32457.48</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="8">
         <v>32457.48</v>
       </c>
       <c r="K56" s="1" t="s">
@@ -4664,7 +4717,7 @@
       <c r="I57" s="2">
         <v>1782.5</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="7">
         <v>1782.5</v>
       </c>
       <c r="K57" s="1" t="s">
@@ -4700,7 +4753,7 @@
       <c r="I58" s="2">
         <v>1113.75</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="8">
         <v>1113.75</v>
       </c>
       <c r="K58" s="1" t="s">
@@ -4736,7 +4789,7 @@
       <c r="I59" s="2">
         <v>19486.5</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="7">
         <v>19486.5</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -4772,7 +4825,7 @@
       <c r="I60" s="2">
         <v>296.44</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="8">
         <v>296.44</v>
       </c>
       <c r="K60" s="1" t="s">
@@ -4808,7 +4861,7 @@
       <c r="I61" s="2">
         <v>2259.92</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="7">
         <v>2259.92</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -4844,7 +4897,7 @@
       <c r="I62" s="2">
         <v>1882.98</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="8">
         <v>1882.98</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -4880,7 +4933,7 @@
       <c r="I63" s="2">
         <v>173.88</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="7">
         <v>173.88</v>
       </c>
       <c r="K63" s="1" t="s">
@@ -4916,7 +4969,7 @@
       <c r="I64" s="2">
         <v>543.20000000000005</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="8">
         <v>543.20000000000005</v>
       </c>
       <c r="K64" s="1" t="s">
@@ -4952,7 +5005,7 @@
       <c r="I65" s="2">
         <v>9586.7199999999993</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="7">
         <v>9586.7199999999993</v>
       </c>
       <c r="K65" s="1" t="s">
@@ -4988,7 +5041,7 @@
       <c r="I66" s="2">
         <v>4882</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="8">
         <v>4882</v>
       </c>
       <c r="K66" s="1" t="s">
@@ -5024,7 +5077,7 @@
       <c r="I67" s="2">
         <v>23222.7</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="7">
         <v>23222.7</v>
       </c>
       <c r="K67" s="1" t="s">
@@ -5060,7 +5113,7 @@
       <c r="I68" s="2">
         <v>152.37</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="8">
         <v>152.37</v>
       </c>
       <c r="K68" s="1" t="s">
@@ -5096,7 +5149,7 @@
       <c r="I69" s="2">
         <v>10671.94</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="7">
         <v>10671.94</v>
       </c>
       <c r="K69" s="1" t="s">
@@ -5132,7 +5185,7 @@
       <c r="I70" s="2">
         <v>4158.72</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="8">
         <v>4158.72</v>
       </c>
       <c r="K70" s="1" t="s">
@@ -5168,7 +5221,7 @@
       <c r="I71" s="2">
         <v>3306.17</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="7">
         <v>3306.17</v>
       </c>
       <c r="K71" s="1" t="s">
@@ -5204,7 +5257,7 @@
       <c r="I72" s="2">
         <v>9351.36</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="8">
         <v>9351.36</v>
       </c>
       <c r="K72" s="1" t="s">
@@ -5240,7 +5293,7 @@
       <c r="I73" s="2">
         <v>11726.08</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="7">
         <v>11726.08</v>
       </c>
       <c r="K73" s="1" t="s">
@@ -5276,7 +5329,7 @@
       <c r="I74" s="2">
         <v>2864.2</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="8">
         <v>2864.2</v>
       </c>
       <c r="K74" s="1" t="s">
@@ -5312,7 +5365,7 @@
       <c r="I75" s="2">
         <v>684</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="7">
         <v>684</v>
       </c>
       <c r="K75" s="1" t="s">
@@ -5348,7 +5401,7 @@
       <c r="I76" s="2">
         <v>5840.52</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="8">
         <v>5840.52</v>
       </c>
       <c r="K76" s="1" t="s">
@@ -5384,7 +5437,7 @@
       <c r="I77" s="2">
         <v>1698.55</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="7">
         <v>1698.55</v>
       </c>
       <c r="K77" s="1" t="s">
@@ -5420,7 +5473,7 @@
       <c r="I78" s="2">
         <v>4110.16</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="8">
         <v>4110.16</v>
       </c>
       <c r="K78" s="1" t="s">
@@ -5456,7 +5509,7 @@
       <c r="I79" s="2">
         <v>76995.820000000007</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="7">
         <v>76995.820000000007</v>
       </c>
       <c r="K79" s="1" t="s">
@@ -5492,7 +5545,7 @@
       <c r="I80" s="2">
         <v>20435</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="8">
         <v>20435</v>
       </c>
       <c r="K80" s="1" t="s">
@@ -5528,7 +5581,7 @@
       <c r="I81" s="2">
         <v>19325</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="7">
         <v>19325</v>
       </c>
       <c r="K81" s="1" t="s">
@@ -5564,7 +5617,7 @@
       <c r="I82" s="2">
         <v>525.64</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="8">
         <v>525.64</v>
       </c>
       <c r="K82" s="1" t="s">
@@ -5600,7 +5653,7 @@
       <c r="I83" s="2">
         <v>1374.32</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="7">
         <v>1374.32</v>
       </c>
       <c r="K83" s="1" t="s">
@@ -5636,7 +5689,7 @@
       <c r="I84" s="2">
         <v>21738.23</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="8">
         <v>21738.23</v>
       </c>
       <c r="K84" s="1" t="s">
@@ -5672,7 +5725,7 @@
       <c r="I85" s="2">
         <v>1445.87</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="7">
         <v>1445.87</v>
       </c>
       <c r="K85" s="1" t="s">
@@ -5708,7 +5761,7 @@
       <c r="I86" s="2">
         <v>127378</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="8">
         <v>127378</v>
       </c>
       <c r="K86" s="1" t="s">
@@ -5744,7 +5797,7 @@
       <c r="I87" s="2">
         <v>143885.5</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="7">
         <v>143885.5</v>
       </c>
       <c r="K87" s="1" t="s">
@@ -5780,7 +5833,7 @@
       <c r="I88" s="2">
         <v>120</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="8">
         <v>120</v>
       </c>
       <c r="K88" s="1" t="s">
@@ -5816,7 +5869,7 @@
       <c r="I89" s="2">
         <v>972.46</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="7">
         <v>972.46</v>
       </c>
       <c r="K89" s="1" t="s">
@@ -5852,7 +5905,7 @@
       <c r="I90" s="2">
         <v>158.4</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="8">
         <v>158.4</v>
       </c>
       <c r="K90" s="1" t="s">
@@ -5888,7 +5941,7 @@
       <c r="I91" s="2">
         <v>541.6</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="7">
         <v>541.6</v>
       </c>
       <c r="K91" s="1" t="s">
@@ -5924,7 +5977,7 @@
       <c r="I92" s="2">
         <v>1489.6</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92" s="8">
         <v>1489.6</v>
       </c>
       <c r="K92" s="1" t="s">
@@ -5960,7 +6013,7 @@
       <c r="I93" s="2">
         <v>166996.15</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="7">
         <v>166996.15</v>
       </c>
       <c r="K93" s="1" t="s">
@@ -5996,7 +6049,7 @@
       <c r="I94" s="2">
         <v>33657.599999999999</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="8">
         <v>33657.599999999999</v>
       </c>
       <c r="K94" s="1" t="s">
@@ -6032,7 +6085,7 @@
       <c r="I95" s="2">
         <v>4763.47</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J95" s="7">
         <v>4763.47</v>
       </c>
       <c r="K95" s="1" t="s">
@@ -6068,7 +6121,7 @@
       <c r="I96" s="2">
         <v>2286</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96" s="8">
         <v>2286</v>
       </c>
       <c r="K96" s="1" t="s">
@@ -6104,7 +6157,7 @@
       <c r="I97" s="2">
         <v>5665.94</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J97" s="7">
         <v>5665.94</v>
       </c>
       <c r="K97" s="1" t="s">
@@ -6140,7 +6193,7 @@
       <c r="I98" s="2">
         <v>1579.8</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" s="8">
         <v>1579.8</v>
       </c>
       <c r="K98" s="1" t="s">
@@ -6176,7 +6229,7 @@
       <c r="I99" s="2">
         <v>319.75</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="7">
         <v>319.75</v>
       </c>
       <c r="K99" s="1" t="s">
@@ -6212,7 +6265,7 @@
       <c r="I100" s="2">
         <v>1624.18</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J100" s="8">
         <v>1624.18</v>
       </c>
       <c r="K100" s="1" t="s">
@@ -6248,7 +6301,7 @@
       <c r="I101" s="2">
         <v>17932.14</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J101" s="7">
         <v>17932.14</v>
       </c>
       <c r="K101" s="1" t="s">
@@ -6284,7 +6337,7 @@
       <c r="I102" s="2">
         <v>52203</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102" s="8">
         <v>52203</v>
       </c>
       <c r="K102" s="1" t="s">
@@ -6320,7 +6373,7 @@
       <c r="I103" s="2">
         <v>15239.63</v>
       </c>
-      <c r="J103" s="2">
+      <c r="J103" s="7">
         <v>15239.63</v>
       </c>
       <c r="K103" s="1" t="s">
@@ -6356,7 +6409,7 @@
       <c r="I104" s="2">
         <v>53956.52</v>
       </c>
-      <c r="J104" s="2">
+      <c r="J104" s="8">
         <v>53956.52</v>
       </c>
       <c r="K104" s="1" t="s">
@@ -6392,7 +6445,7 @@
       <c r="I105" s="2">
         <v>34103.730000000003</v>
       </c>
-      <c r="J105" s="2">
+      <c r="J105" s="7">
         <v>34103.730000000003</v>
       </c>
       <c r="K105" s="1" t="s">
@@ -6428,7 +6481,7 @@
       <c r="I106" s="2">
         <v>1500.49</v>
       </c>
-      <c r="J106" s="2">
+      <c r="J106" s="8">
         <v>1500.49</v>
       </c>
       <c r="K106" s="1" t="s">
@@ -6464,7 +6517,7 @@
       <c r="I107" s="2">
         <v>1873.29</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J107" s="7">
         <v>1873.29</v>
       </c>
       <c r="K107" s="1" t="s">
@@ -6500,7 +6553,7 @@
       <c r="I108" s="2">
         <v>60403.95</v>
       </c>
-      <c r="J108" s="2">
+      <c r="J108" s="8">
         <v>60403.95</v>
       </c>
       <c r="K108" s="1" t="s">
@@ -6536,7 +6589,7 @@
       <c r="I109" s="2">
         <v>3626.48</v>
       </c>
-      <c r="J109" s="2">
+      <c r="J109" s="7">
         <v>3626.48</v>
       </c>
       <c r="K109" s="1" t="s">
@@ -6572,7 +6625,7 @@
       <c r="I110" s="2">
         <v>125550</v>
       </c>
-      <c r="J110" s="2">
+      <c r="J110" s="8">
         <v>125550</v>
       </c>
       <c r="K110" s="1" t="s">
@@ -6608,7 +6661,7 @@
       <c r="I111" s="2">
         <v>7296.4</v>
       </c>
-      <c r="J111" s="2">
+      <c r="J111" s="7">
         <v>7296.4</v>
       </c>
       <c r="K111" s="1" t="s">
@@ -6644,7 +6697,7 @@
       <c r="I112" s="2">
         <v>87403.66</v>
       </c>
-      <c r="J112" s="2">
+      <c r="J112" s="8">
         <v>87403.66</v>
       </c>
       <c r="K112" s="1" t="s">
@@ -6680,7 +6733,7 @@
       <c r="I113" s="2">
         <v>41617.57</v>
       </c>
-      <c r="J113" s="2">
+      <c r="J113" s="7">
         <v>41617.57</v>
       </c>
       <c r="K113" s="1" t="s">
@@ -6716,7 +6769,7 @@
       <c r="I114" s="2">
         <v>25406.7</v>
       </c>
-      <c r="J114" s="2">
+      <c r="J114" s="8">
         <v>25406.7</v>
       </c>
       <c r="K114" s="1" t="s">
@@ -6752,7 +6805,7 @@
       <c r="I115" s="2">
         <v>9735.69</v>
       </c>
-      <c r="J115" s="2">
+      <c r="J115" s="7">
         <v>9735.69</v>
       </c>
       <c r="K115" s="1" t="s">
@@ -6788,7 +6841,7 @@
       <c r="I116" s="2">
         <v>1380</v>
       </c>
-      <c r="J116" s="2">
+      <c r="J116" s="8">
         <v>1380</v>
       </c>
       <c r="K116" s="1" t="s">
@@ -6824,7 +6877,7 @@
       <c r="I117" s="2">
         <v>188805.12</v>
       </c>
-      <c r="J117" s="2">
+      <c r="J117" s="7">
         <v>188805.12</v>
       </c>
       <c r="K117" s="1" t="s">
@@ -6860,7 +6913,7 @@
       <c r="I118" s="2">
         <v>45124.54</v>
       </c>
-      <c r="J118" s="2">
+      <c r="J118" s="8">
         <v>45124.54</v>
       </c>
       <c r="K118" s="1" t="s">
@@ -6896,7 +6949,7 @@
       <c r="I119" s="2">
         <v>104.98</v>
       </c>
-      <c r="J119" s="2">
+      <c r="J119" s="7">
         <v>104.98</v>
       </c>
       <c r="K119" s="1" t="s">
@@ -6932,7 +6985,7 @@
       <c r="I120" s="2">
         <v>104.98</v>
       </c>
-      <c r="J120" s="2">
+      <c r="J120" s="8">
         <v>104.98</v>
       </c>
       <c r="K120" s="1" t="s">
@@ -6968,7 +7021,7 @@
       <c r="I121" s="2">
         <v>799.9</v>
       </c>
-      <c r="J121" s="2">
+      <c r="J121" s="7">
         <v>799.9</v>
       </c>
       <c r="K121" s="1" t="s">
@@ -7004,7 +7057,7 @@
       <c r="I122" s="2">
         <v>671</v>
       </c>
-      <c r="J122" s="2">
+      <c r="J122" s="8">
         <v>671</v>
       </c>
       <c r="K122" s="1" t="s">
@@ -7040,7 +7093,7 @@
       <c r="I123" s="2">
         <v>1267</v>
       </c>
-      <c r="J123" s="2">
+      <c r="J123" s="7">
         <v>1267</v>
       </c>
       <c r="K123" s="1" t="s">
@@ -7076,7 +7129,7 @@
       <c r="I124" s="2">
         <v>4467.6000000000004</v>
       </c>
-      <c r="J124" s="2">
+      <c r="J124" s="8">
         <v>4467.6000000000004</v>
       </c>
       <c r="K124" s="1" t="s">
@@ -7112,7 +7165,7 @@
       <c r="I125" s="2">
         <v>1131</v>
       </c>
-      <c r="J125" s="2">
+      <c r="J125" s="7">
         <v>1131</v>
       </c>
       <c r="K125" s="1" t="s">
@@ -7148,7 +7201,7 @@
       <c r="I126" s="2">
         <v>371.3</v>
       </c>
-      <c r="J126" s="2">
+      <c r="J126" s="8">
         <v>371.3</v>
       </c>
       <c r="K126" s="1" t="s">
@@ -7184,7 +7237,7 @@
       <c r="I127" s="2">
         <v>1342</v>
       </c>
-      <c r="J127" s="2">
+      <c r="J127" s="7">
         <v>1342</v>
       </c>
       <c r="K127" s="1" t="s">
@@ -7220,7 +7273,7 @@
       <c r="I128" s="2">
         <v>18334.8</v>
       </c>
-      <c r="J128" s="2">
+      <c r="J128" s="8">
         <v>18334.8</v>
       </c>
       <c r="K128" s="1" t="s">
@@ -7256,7 +7309,7 @@
       <c r="I129" s="2">
         <v>125.6</v>
       </c>
-      <c r="J129" s="2">
+      <c r="J129" s="7">
         <v>125.6</v>
       </c>
       <c r="K129" s="1" t="s">
@@ -7292,7 +7345,7 @@
       <c r="I130" s="2">
         <v>38700</v>
       </c>
-      <c r="J130" s="2">
+      <c r="J130" s="8">
         <v>38700</v>
       </c>
       <c r="K130" s="1" t="s">
@@ -7328,7 +7381,7 @@
       <c r="I131" s="2">
         <v>39240.550000000003</v>
       </c>
-      <c r="J131" s="2">
+      <c r="J131" s="7">
         <v>39240.550000000003</v>
       </c>
       <c r="K131" s="1" t="s">
@@ -7364,7 +7417,7 @@
       <c r="I132" s="2">
         <v>7079.59</v>
       </c>
-      <c r="J132" s="2">
+      <c r="J132" s="8">
         <v>7079.59</v>
       </c>
       <c r="K132" s="1" t="s">
@@ -7400,7 +7453,7 @@
       <c r="I133" s="2">
         <v>1229</v>
       </c>
-      <c r="J133" s="2">
+      <c r="J133" s="7">
         <v>1229</v>
       </c>
       <c r="K133" s="1" t="s">
@@ -7436,7 +7489,7 @@
       <c r="I134" s="2">
         <v>1145.7</v>
       </c>
-      <c r="J134" s="2">
+      <c r="J134" s="8">
         <v>1145.7</v>
       </c>
       <c r="K134" s="1" t="s">
@@ -7472,7 +7525,7 @@
       <c r="I135" s="2">
         <v>2794.09</v>
       </c>
-      <c r="J135" s="2">
+      <c r="J135" s="7">
         <v>2794.09</v>
       </c>
       <c r="K135" s="1" t="s">
@@ -7508,7 +7561,7 @@
       <c r="I136" s="2">
         <v>1144.1199999999999</v>
       </c>
-      <c r="J136" s="2">
+      <c r="J136" s="8">
         <v>1144.1199999999999</v>
       </c>
       <c r="K136" s="1" t="s">
@@ -7544,7 +7597,7 @@
       <c r="I137" s="2">
         <v>2169.6799999999998</v>
       </c>
-      <c r="J137" s="2">
+      <c r="J137" s="7">
         <v>2169.6799999999998</v>
       </c>
       <c r="K137" s="1" t="s">
@@ -7580,7 +7633,7 @@
       <c r="I138" s="2">
         <v>6210.76</v>
       </c>
-      <c r="J138" s="2">
+      <c r="J138" s="8">
         <v>6210.76</v>
       </c>
       <c r="K138" s="1" t="s">
@@ -7616,7 +7669,7 @@
       <c r="I139" s="2">
         <v>111751.67999999999</v>
       </c>
-      <c r="J139" s="2">
+      <c r="J139" s="7">
         <v>111751.67999999999</v>
       </c>
       <c r="K139" s="1" t="s">
@@ -7652,7 +7705,7 @@
       <c r="I140" s="2">
         <v>1052.0999999999999</v>
       </c>
-      <c r="J140" s="2">
+      <c r="J140" s="8">
         <v>1052.0999999999999</v>
       </c>
       <c r="K140" s="1" t="s">
@@ -7688,7 +7741,7 @@
       <c r="I141" s="2">
         <v>530.52</v>
       </c>
-      <c r="J141" s="2">
+      <c r="J141" s="7">
         <v>530.52</v>
       </c>
       <c r="K141" s="1" t="s">
@@ -7724,7 +7777,7 @@
       <c r="I142" s="2">
         <v>9182.98</v>
       </c>
-      <c r="J142" s="2">
+      <c r="J142" s="8">
         <v>9182.98</v>
       </c>
       <c r="K142" s="1" t="s">
@@ -7760,7 +7813,7 @@
       <c r="I143" s="2">
         <v>197640</v>
       </c>
-      <c r="J143" s="2">
+      <c r="J143" s="7">
         <v>197640</v>
       </c>
       <c r="K143" s="1" t="s">
@@ -7796,7 +7849,7 @@
       <c r="I144" s="2">
         <v>2639.34</v>
       </c>
-      <c r="J144" s="2">
+      <c r="J144" s="8">
         <v>2639.34</v>
       </c>
       <c r="K144" s="1" t="s">
@@ -7832,7 +7885,7 @@
       <c r="I145" s="2">
         <v>7697.82</v>
       </c>
-      <c r="J145" s="2">
+      <c r="J145" s="7">
         <v>7697.82</v>
       </c>
       <c r="K145" s="1" t="s">
@@ -7868,7 +7921,7 @@
       <c r="I146" s="2">
         <v>217.15</v>
       </c>
-      <c r="J146" s="2">
+      <c r="J146" s="8">
         <v>217.15</v>
       </c>
       <c r="K146" s="1" t="s">
@@ -7904,7 +7957,7 @@
       <c r="I147" s="2">
         <v>7049.03</v>
       </c>
-      <c r="J147" s="2">
+      <c r="J147" s="7">
         <v>7049.03</v>
       </c>
       <c r="K147" s="1" t="s">
@@ -7940,7 +7993,7 @@
       <c r="I148" s="2">
         <v>6384.55</v>
       </c>
-      <c r="J148" s="2">
+      <c r="J148" s="8">
         <v>6384.55</v>
       </c>
       <c r="K148" s="1" t="s">
@@ -7976,7 +8029,7 @@
       <c r="I149" s="2">
         <v>2960.11</v>
       </c>
-      <c r="J149" s="2">
+      <c r="J149" s="7">
         <v>2960.11</v>
       </c>
       <c r="K149" s="1" t="s">
@@ -8012,7 +8065,7 @@
       <c r="I150" s="2">
         <v>3040.85</v>
       </c>
-      <c r="J150" s="2">
+      <c r="J150" s="8">
         <v>3040.85</v>
       </c>
       <c r="K150" s="1" t="s">
@@ -8048,7 +8101,7 @@
       <c r="I151" s="2">
         <v>1030.1600000000001</v>
       </c>
-      <c r="J151" s="2">
+      <c r="J151" s="7">
         <v>1030.1600000000001</v>
       </c>
       <c r="K151" s="1" t="s">
@@ -8084,7 +8137,7 @@
       <c r="I152" s="2">
         <v>629.42999999999995</v>
       </c>
-      <c r="J152" s="2">
+      <c r="J152" s="8">
         <v>629.42999999999995</v>
       </c>
       <c r="K152" s="1" t="s">
@@ -8120,7 +8173,7 @@
       <c r="I153" s="2">
         <v>128</v>
       </c>
-      <c r="J153" s="2">
+      <c r="J153" s="7">
         <v>128</v>
       </c>
       <c r="K153" s="1" t="s">
@@ -8156,7 +8209,7 @@
       <c r="I154" s="2">
         <v>144.47999999999999</v>
       </c>
-      <c r="J154" s="2">
+      <c r="J154" s="8">
         <v>144.47999999999999</v>
       </c>
       <c r="K154" s="1" t="s">
@@ -8192,7 +8245,7 @@
       <c r="I155" s="2">
         <v>629.42999999999995</v>
       </c>
-      <c r="J155" s="2">
+      <c r="J155" s="7">
         <v>629.42999999999995</v>
       </c>
       <c r="K155" s="1" t="s">
@@ -8228,7 +8281,7 @@
       <c r="I156" s="2">
         <v>159.46</v>
       </c>
-      <c r="J156" s="2">
+      <c r="J156" s="8">
         <v>159.46</v>
       </c>
       <c r="K156" s="1" t="s">
@@ -8264,7 +8317,7 @@
       <c r="I157" s="2">
         <v>687.33</v>
       </c>
-      <c r="J157" s="2">
+      <c r="J157" s="7">
         <v>687.33</v>
       </c>
       <c r="K157" s="1" t="s">
@@ -8300,7 +8353,7 @@
       <c r="I158" s="2">
         <v>1065.8599999999999</v>
       </c>
-      <c r="J158" s="2">
+      <c r="J158" s="8">
         <v>1065.8599999999999</v>
       </c>
       <c r="K158" s="1" t="s">
@@ -8336,7 +8389,7 @@
       <c r="I159" s="2">
         <v>576.16</v>
       </c>
-      <c r="J159" s="2">
+      <c r="J159" s="7">
         <v>576.16</v>
       </c>
       <c r="K159" s="1" t="s">
@@ -8372,7 +8425,7 @@
       <c r="I160" s="2">
         <v>2162.84</v>
       </c>
-      <c r="J160" s="2">
+      <c r="J160" s="8">
         <v>2162.84</v>
       </c>
       <c r="K160" s="1" t="s">
@@ -8408,7 +8461,7 @@
       <c r="I161" s="2">
         <v>9390</v>
       </c>
-      <c r="J161" s="2">
+      <c r="J161" s="7">
         <v>9390</v>
       </c>
       <c r="K161" s="1" t="s">
@@ -8444,7 +8497,7 @@
       <c r="I162" s="2">
         <v>6990.11</v>
       </c>
-      <c r="J162" s="2">
+      <c r="J162" s="8">
         <v>6990.11</v>
       </c>
       <c r="K162" s="1" t="s">
@@ -8480,7 +8533,7 @@
       <c r="I163" s="2">
         <v>13598.1</v>
       </c>
-      <c r="J163" s="2">
+      <c r="J163" s="7">
         <v>13598.1</v>
       </c>
       <c r="K163" s="1" t="s">
@@ -8492,35 +8545,35 @@
     </row>
     <row r="164" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>562</v>
+        <v>707</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>563</v>
+        <v>708</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="F164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1" t="s">
+        <v>709</v>
+      </c>
       <c r="G164" s="1" t="s">
-        <v>566</v>
+        <v>164</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I164" s="2">
-        <v>251780</v>
-      </c>
-      <c r="J164" s="2">
-        <v>251780</v>
+        <v>5774.92</v>
+      </c>
+      <c r="J164" s="8">
+        <v>5774.92</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>567</v>
+        <v>710</v>
       </c>
       <c r="L164" s="3" t="s">
         <v>18</v>
@@ -8528,35 +8581,35 @@
     </row>
     <row r="165" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I165" s="2">
-        <v>938.4</v>
-      </c>
-      <c r="J165" s="2">
-        <v>938.4</v>
+        <v>251780</v>
+      </c>
+      <c r="J165" s="7">
+        <v>251780</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L165" s="3" t="s">
         <v>18</v>
@@ -8564,10 +8617,10 @@
     </row>
     <row r="166" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>460</v>
+        <v>569</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>570</v>
@@ -8576,23 +8629,23 @@
         <v>14</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>703</v>
+        <v>571</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1" t="s">
-        <v>704</v>
+        <v>572</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I166" s="2">
-        <v>33342.86</v>
-      </c>
-      <c r="J166" s="2">
-        <v>33342.86</v>
+        <v>938.4</v>
+      </c>
+      <c r="J166" s="8">
+        <v>938.4</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L166" s="3" t="s">
         <v>18</v>
@@ -8600,10 +8653,10 @@
     </row>
     <row r="167" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>564</v>
+        <v>460</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>570</v>
@@ -8612,23 +8665,23 @@
         <v>14</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>571</v>
+        <v>703</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1" t="s">
-        <v>572</v>
+        <v>704</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I167" s="2">
-        <v>27113.9</v>
-      </c>
-      <c r="J167" s="2">
-        <v>27113.9</v>
+        <v>33342.86</v>
+      </c>
+      <c r="J167" s="7">
+        <v>33342.86</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L167" s="3" t="s">
         <v>18</v>
@@ -8636,10 +8689,10 @@
     </row>
     <row r="168" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>570</v>
@@ -8658,13 +8711,13 @@
         <v>7</v>
       </c>
       <c r="I168" s="2">
-        <v>757.6</v>
-      </c>
-      <c r="J168" s="2">
-        <v>757.6</v>
+        <v>27113.9</v>
+      </c>
+      <c r="J168" s="8">
+        <v>27113.9</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L168" s="3" t="s">
         <v>18</v>
@@ -8672,10 +8725,10 @@
     </row>
     <row r="169" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>570</v>
@@ -8694,13 +8747,13 @@
         <v>7</v>
       </c>
       <c r="I169" s="2">
-        <v>62435</v>
-      </c>
-      <c r="J169" s="2">
-        <v>62435</v>
+        <v>757.6</v>
+      </c>
+      <c r="J169" s="7">
+        <v>757.6</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L169" s="3" t="s">
         <v>18</v>
@@ -8708,35 +8761,35 @@
     </row>
     <row r="170" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>703</v>
+        <v>571</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1" t="s">
-        <v>705</v>
+        <v>572</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I170" s="2">
-        <v>284.27999999999997</v>
-      </c>
-      <c r="J170" s="2">
-        <v>284.27999999999997</v>
+        <v>62435</v>
+      </c>
+      <c r="J170" s="8">
+        <v>62435</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="L170" s="3" t="s">
         <v>18</v>
@@ -8744,35 +8797,35 @@
     </row>
     <row r="171" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>293</v>
+        <v>586</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>294</v>
+        <v>703</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1" t="s">
-        <v>295</v>
+        <v>705</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I171" s="2">
-        <v>17289.55</v>
-      </c>
-      <c r="J171" s="2">
-        <v>17289.55</v>
+        <v>284.27999999999997</v>
+      </c>
+      <c r="J171" s="7">
+        <v>284.27999999999997</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L171" s="3" t="s">
         <v>18</v>
@@ -8780,7 +8833,7 @@
     </row>
     <row r="172" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>589</v>
@@ -8792,23 +8845,23 @@
         <v>14</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1" t="s">
-        <v>592</v>
+        <v>295</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I172" s="2">
-        <v>72534.399999999994</v>
-      </c>
-      <c r="J172" s="2">
-        <v>72534.399999999994</v>
+        <v>17289.55</v>
+      </c>
+      <c r="J172" s="8">
+        <v>17289.55</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>18</v>
@@ -8816,13 +8869,13 @@
     </row>
     <row r="173" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>485</v>
+        <v>293</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>14</v>
@@ -8832,19 +8885,19 @@
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I173" s="2">
-        <v>41526.6</v>
-      </c>
-      <c r="J173" s="2">
-        <v>41526.6</v>
+        <v>72534.399999999994</v>
+      </c>
+      <c r="J173" s="7">
+        <v>72534.399999999994</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="L173" s="3" t="s">
         <v>18</v>
@@ -8852,35 +8905,35 @@
     </row>
     <row r="174" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>354</v>
+        <v>595</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>599</v>
+        <v>485</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I174" s="2">
-        <v>175839.4</v>
-      </c>
-      <c r="J174" s="2">
-        <v>175839.4</v>
+        <v>41526.6</v>
+      </c>
+      <c r="J174" s="8">
+        <v>41526.6</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L174" s="3" t="s">
         <v>18</v>
@@ -8888,13 +8941,13 @@
     </row>
     <row r="175" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>354</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>14</v>
@@ -8904,19 +8957,19 @@
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I175" s="2">
-        <v>12877.27</v>
-      </c>
-      <c r="J175" s="2">
-        <v>12877.27</v>
+        <v>175839.4</v>
+      </c>
+      <c r="J175" s="7">
+        <v>175839.4</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>18</v>
@@ -8924,13 +8977,13 @@
     </row>
     <row r="176" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>14</v>
@@ -8940,19 +8993,19 @@
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I176" s="2">
-        <v>7721.99</v>
-      </c>
-      <c r="J176" s="2">
-        <v>7721.99</v>
+        <v>12877.27</v>
+      </c>
+      <c r="J176" s="8">
+        <v>12877.27</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>18</v>
@@ -8960,35 +9013,35 @@
     </row>
     <row r="177" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>571</v>
+        <v>294</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I177" s="2">
-        <v>22013.37</v>
-      </c>
-      <c r="J177" s="2">
-        <v>22013.37</v>
+        <v>7721.99</v>
+      </c>
+      <c r="J177" s="7">
+        <v>7721.99</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>18</v>
@@ -8996,35 +9049,35 @@
     </row>
     <row r="178" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>293</v>
+        <v>570</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>294</v>
+        <v>571</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1" t="s">
-        <v>295</v>
+        <v>572</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I178" s="2">
-        <v>27721.05</v>
-      </c>
-      <c r="J178" s="2">
-        <v>27721.05</v>
+        <v>22013.37</v>
+      </c>
+      <c r="J178" s="8">
+        <v>22013.37</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L178" s="3" t="s">
         <v>18</v>
@@ -9032,13 +9085,13 @@
     </row>
     <row r="179" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>14</v>
@@ -9048,19 +9101,19 @@
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I179" s="2">
-        <v>1156.68</v>
-      </c>
-      <c r="J179" s="2">
-        <v>1156.68</v>
+        <v>27721.05</v>
+      </c>
+      <c r="J179" s="7">
+        <v>27721.05</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>18</v>
@@ -9068,13 +9121,13 @@
     </row>
     <row r="180" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>616</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>589</v>
+        <v>354</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>14</v>
@@ -9084,19 +9137,19 @@
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1" t="s">
-        <v>619</v>
+        <v>355</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I180" s="2">
-        <v>13833.8</v>
-      </c>
-      <c r="J180" s="2">
-        <v>13833.8</v>
+        <v>1156.68</v>
+      </c>
+      <c r="J180" s="8">
+        <v>1156.68</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>18</v>
@@ -9104,7 +9157,7 @@
     </row>
     <row r="181" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>616</v>
@@ -9126,13 +9179,13 @@
         <v>7</v>
       </c>
       <c r="I181" s="2">
-        <v>154464</v>
-      </c>
-      <c r="J181" s="2">
-        <v>154464</v>
+        <v>13833.8</v>
+      </c>
+      <c r="J181" s="7">
+        <v>13833.8</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>18</v>
@@ -9140,7 +9193,7 @@
     </row>
     <row r="182" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>616</v>
@@ -9164,11 +9217,11 @@
       <c r="I182" s="2">
         <v>154464</v>
       </c>
-      <c r="J182" s="2">
+      <c r="J182" s="8">
         <v>154464</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L182" s="3" t="s">
         <v>18</v>
@@ -9176,35 +9229,35 @@
     </row>
     <row r="183" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1" t="s">
-        <v>628</v>
-      </c>
+      <c r="E183" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F183" s="1"/>
       <c r="G183" s="1" t="s">
-        <v>164</v>
+        <v>619</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I183" s="2">
-        <v>146162.5</v>
-      </c>
-      <c r="J183" s="2">
-        <v>146162.5</v>
+        <v>154464</v>
+      </c>
+      <c r="J183" s="7">
+        <v>154464</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L183" s="3" t="s">
         <v>18</v>
@@ -9212,20 +9265,20 @@
     </row>
     <row r="184" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>164</v>
@@ -9234,13 +9287,13 @@
         <v>7</v>
       </c>
       <c r="I184" s="2">
-        <v>30523.93</v>
-      </c>
-      <c r="J184" s="2">
-        <v>30523.93</v>
+        <v>146162.5</v>
+      </c>
+      <c r="J184" s="8">
+        <v>146162.5</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="L184" s="3" t="s">
         <v>18</v>
@@ -9248,20 +9301,20 @@
     </row>
     <row r="185" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>315</v>
+        <v>631</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>634</v>
+        <v>553</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1" t="s">
-        <v>635</v>
+        <v>554</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>164</v>
@@ -9270,13 +9323,13 @@
         <v>7</v>
       </c>
       <c r="I185" s="2">
-        <v>49694.21</v>
-      </c>
-      <c r="J185" s="2">
-        <v>49694.21</v>
+        <v>30523.93</v>
+      </c>
+      <c r="J185" s="7">
+        <v>30523.93</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="L185" s="3" t="s">
         <v>18</v>
@@ -9284,10 +9337,10 @@
     </row>
     <row r="186" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>638</v>
+        <v>315</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>634</v>
@@ -9306,13 +9359,13 @@
         <v>7</v>
       </c>
       <c r="I186" s="2">
-        <v>2231.16</v>
-      </c>
-      <c r="J186" s="2">
-        <v>2231.16</v>
+        <v>49694.21</v>
+      </c>
+      <c r="J186" s="8">
+        <v>49694.21</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>18</v>
@@ -9320,20 +9373,20 @@
     </row>
     <row r="187" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>164</v>
@@ -9342,13 +9395,13 @@
         <v>7</v>
       </c>
       <c r="I187" s="2">
-        <v>380320</v>
-      </c>
-      <c r="J187" s="2">
-        <v>380320</v>
+        <v>2231.16</v>
+      </c>
+      <c r="J187" s="7">
+        <v>2231.16</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>18</v>
@@ -9356,35 +9409,35 @@
     </row>
     <row r="188" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>218</v>
+        <v>642</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1" t="s">
+        <v>643</v>
+      </c>
       <c r="G188" s="1" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I188" s="2">
-        <v>34320.879999999997</v>
-      </c>
-      <c r="J188" s="2">
-        <v>34320.879999999997</v>
+        <v>380320</v>
+      </c>
+      <c r="J188" s="8">
+        <v>380320</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>18</v>
@@ -9392,35 +9445,35 @@
     </row>
     <row r="189" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>410</v>
+        <v>218</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1" t="s">
-        <v>411</v>
+        <v>220</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I189" s="2">
-        <v>2963.4</v>
-      </c>
-      <c r="J189" s="2">
-        <v>2963.4</v>
+        <v>34320.879999999997</v>
+      </c>
+      <c r="J189" s="7">
+        <v>34320.879999999997</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>18</v>
@@ -9428,10 +9481,10 @@
     </row>
     <row r="190" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>410</v>
@@ -9440,23 +9493,23 @@
         <v>14</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1" t="s">
-        <v>653</v>
+        <v>411</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I190" s="2">
-        <v>3164.06</v>
-      </c>
-      <c r="J190" s="2">
-        <v>3164.06</v>
+        <v>2963.4</v>
+      </c>
+      <c r="J190" s="8">
+        <v>2963.4</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>18</v>
@@ -9464,35 +9517,35 @@
     </row>
     <row r="191" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>616</v>
+        <v>652</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>656</v>
+        <v>244</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I191" s="2">
-        <v>442.65</v>
-      </c>
-      <c r="J191" s="2">
-        <v>442.65</v>
+        <v>3164.06</v>
+      </c>
+      <c r="J191" s="7">
+        <v>3164.06</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>18</v>
@@ -9500,7 +9553,7 @@
     </row>
     <row r="192" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>616</v>
@@ -9512,23 +9565,23 @@
         <v>14</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>346</v>
+        <v>656</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I192" s="2">
-        <v>217.98</v>
-      </c>
-      <c r="J192" s="2">
-        <v>217.98</v>
+        <v>442.65</v>
+      </c>
+      <c r="J192" s="8">
+        <v>442.65</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>18</v>
@@ -9536,35 +9589,35 @@
     </row>
     <row r="193" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>485</v>
+        <v>354</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>461</v>
+        <v>346</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I193" s="2">
-        <v>14778.1</v>
-      </c>
-      <c r="J193" s="2">
-        <v>14778.1</v>
+        <v>217.98</v>
+      </c>
+      <c r="J193" s="7">
+        <v>217.98</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L193" s="3" t="s">
         <v>18</v>
@@ -9572,35 +9625,35 @@
     </row>
     <row r="194" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>332</v>
+        <v>663</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>667</v>
+        <v>485</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1" t="s">
-        <v>668</v>
-      </c>
+      <c r="E194" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F194" s="1"/>
       <c r="G194" s="1" t="s">
-        <v>164</v>
+        <v>664</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I194" s="2">
-        <v>184805.81</v>
-      </c>
-      <c r="J194" s="2">
-        <v>184805.81</v>
+        <v>14778.1</v>
+      </c>
+      <c r="J194" s="8">
+        <v>14778.1</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>18</v>
@@ -9608,35 +9661,35 @@
     </row>
     <row r="195" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>468</v>
+        <v>332</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="F195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1" t="s">
+        <v>668</v>
+      </c>
       <c r="G195" s="1" t="s">
-        <v>671</v>
+        <v>164</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I195" s="2">
-        <v>4641.24</v>
-      </c>
-      <c r="J195" s="2">
-        <v>4641.24</v>
+        <v>184805.81</v>
+      </c>
+      <c r="J195" s="7">
+        <v>184805.81</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>18</v>
@@ -9644,13 +9697,13 @@
     </row>
     <row r="196" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>674</v>
+        <v>468</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>675</v>
+        <v>589</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>14</v>
@@ -9660,19 +9713,19 @@
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I196" s="2">
-        <v>82813.399999999994</v>
-      </c>
-      <c r="J196" s="2">
-        <v>82813.399999999994</v>
+        <v>4641.24</v>
+      </c>
+      <c r="J196" s="8">
+        <v>4641.24</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="L196" s="3" t="s">
         <v>18</v>
@@ -9680,35 +9733,35 @@
     </row>
     <row r="197" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>244</v>
+        <v>656</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I197" s="2">
-        <v>11370.68</v>
-      </c>
-      <c r="J197" s="2">
-        <v>11370.68</v>
+        <v>82813.399999999994</v>
+      </c>
+      <c r="J197" s="7">
+        <v>82813.399999999994</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>18</v>
@@ -9716,35 +9769,35 @@
     </row>
     <row r="198" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>421</v>
+        <v>680</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>595</v>
+        <v>244</v>
       </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I198" s="2">
-        <v>222625</v>
-      </c>
-      <c r="J198" s="2">
-        <v>222625</v>
+        <v>11370.68</v>
+      </c>
+      <c r="J198" s="8">
+        <v>11370.68</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>18</v>
@@ -9752,35 +9805,35 @@
     </row>
     <row r="199" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>398</v>
+        <v>684</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>166</v>
+        <v>421</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>118</v>
+        <v>595</v>
       </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I199" s="2">
-        <v>3277</v>
-      </c>
-      <c r="J199" s="2">
-        <v>3277</v>
+        <v>222625</v>
+      </c>
+      <c r="J199" s="7">
+        <v>222625</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>18</v>
@@ -9788,35 +9841,35 @@
     </row>
     <row r="200" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>354</v>
+        <v>166</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>656</v>
+        <v>118</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1" t="s">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I200" s="2">
-        <v>400.26</v>
-      </c>
-      <c r="J200" s="2">
-        <v>400.26</v>
+        <v>3277</v>
+      </c>
+      <c r="J200" s="8">
+        <v>3277</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>18</v>
@@ -9824,35 +9877,35 @@
     </row>
     <row r="201" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>218</v>
+        <v>354</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>693</v>
+        <v>656</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1" t="s">
-        <v>694</v>
+        <v>657</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I201" s="2">
-        <v>1169.93</v>
-      </c>
-      <c r="J201" s="2">
-        <v>1169.93</v>
+        <v>400.26</v>
+      </c>
+      <c r="J201" s="7">
+        <v>400.26</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>18</v>
@@ -9860,35 +9913,35 @@
     </row>
     <row r="202" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>410</v>
+        <v>218</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>244</v>
+        <v>693</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1" t="s">
-        <v>653</v>
+        <v>694</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I202" s="2">
-        <v>8032.21</v>
-      </c>
-      <c r="J202" s="2">
-        <v>8032.21</v>
+        <v>1169.93</v>
+      </c>
+      <c r="J202" s="8">
+        <v>1169.93</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="L202" s="3" t="s">
         <v>18</v>
@@ -9896,35 +9949,35 @@
     </row>
     <row r="203" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>151</v>
+        <v>410</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="E203" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F203" s="1"/>
       <c r="G203" s="1" t="s">
-        <v>113</v>
+        <v>653</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I203" s="2">
-        <v>577.20000000000005</v>
-      </c>
-      <c r="J203" s="2">
-        <v>577.20000000000005</v>
+        <v>8032.21</v>
+      </c>
+      <c r="J203" s="7">
+        <v>8032.21</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>18</v>
@@ -9932,37 +9985,73 @@
     </row>
     <row r="204" spans="1:12" ht="28" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I204" s="2">
+        <v>577.20000000000005</v>
+      </c>
+      <c r="J204" s="8">
+        <v>577.20000000000005</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C204" s="1" t="s">
+      <c r="B205" s="5">
+        <v>45180</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E204" s="1" t="s">
+      <c r="D205" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1" t="s">
+      <c r="F205" s="1"/>
+      <c r="G205" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I204" s="2">
+      <c r="H205" t="s">
+        <v>7</v>
+      </c>
+      <c r="I205" s="2">
         <v>399</v>
       </c>
-      <c r="J204" s="2">
+      <c r="J205" s="7">
         <v>399</v>
       </c>
-      <c r="K204" s="1" t="s">
+      <c r="K205" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="L204" s="3" t="s">
+      <c r="L205" s="3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/cips_data.xlsx
+++ b/cips_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhubb/Documents/ar_excel_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD336496-764A-F442-B827-C9041073ED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62467705-0603-F04F-AC8C-39DB7E13729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16160" yWindow="500" windowWidth="12640" windowHeight="16540" xr2:uid="{11FC0157-601E-C148-A29B-2D6A01395A3D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="779">
   <si>
     <t>Invoice Amount</t>
   </si>
@@ -1710,6 +1710,669 @@
   </si>
   <si>
     <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>60048110</t>
+  </si>
+  <si>
+    <t>60048115</t>
+  </si>
+  <si>
+    <t>60752801</t>
+  </si>
+  <si>
+    <t>60750355</t>
+  </si>
+  <si>
+    <t>60790141</t>
+  </si>
+  <si>
+    <t>60790211</t>
+  </si>
+  <si>
+    <t>60776632</t>
+  </si>
+  <si>
+    <t>60766976</t>
+  </si>
+  <si>
+    <t>60781033</t>
+  </si>
+  <si>
+    <t>60767587</t>
+  </si>
+  <si>
+    <t>60779826</t>
+  </si>
+  <si>
+    <t>60781029</t>
+  </si>
+  <si>
+    <t>60777478</t>
+  </si>
+  <si>
+    <t>60774676</t>
+  </si>
+  <si>
+    <t>60785595</t>
+  </si>
+  <si>
+    <t>60776274</t>
+  </si>
+  <si>
+    <t>60813403</t>
+  </si>
+  <si>
+    <t>60777655</t>
+  </si>
+  <si>
+    <t>60775414</t>
+  </si>
+  <si>
+    <t>60783373</t>
+  </si>
+  <si>
+    <t>60794644</t>
+  </si>
+  <si>
+    <t>60798948</t>
+  </si>
+  <si>
+    <t>60855168</t>
+  </si>
+  <si>
+    <t>60808992</t>
+  </si>
+  <si>
+    <t>60824602</t>
+  </si>
+  <si>
+    <t>60846164</t>
+  </si>
+  <si>
+    <t>60844327</t>
+  </si>
+  <si>
+    <t>60799978</t>
+  </si>
+  <si>
+    <t>60863715</t>
+  </si>
+  <si>
+    <t>60876520</t>
+  </si>
+  <si>
+    <t>60856459</t>
+  </si>
+  <si>
+    <t>60894600</t>
+  </si>
+  <si>
+    <t>60894577</t>
+  </si>
+  <si>
+    <t>60904723</t>
+  </si>
+  <si>
+    <t>60856186</t>
+  </si>
+  <si>
+    <t>60842626</t>
+  </si>
+  <si>
+    <t>60839214</t>
+  </si>
+  <si>
+    <t>60894448</t>
+  </si>
+  <si>
+    <t>60958076</t>
+  </si>
+  <si>
+    <t>60949978</t>
+  </si>
+  <si>
+    <t>60913548</t>
+  </si>
+  <si>
+    <t>60758592</t>
+  </si>
+  <si>
+    <t>60894439</t>
+  </si>
+  <si>
+    <t>60850111</t>
+  </si>
+  <si>
+    <t>60893442</t>
+  </si>
+  <si>
+    <t>60894592</t>
+  </si>
+  <si>
+    <t>60979079</t>
+  </si>
+  <si>
+    <t>60960199</t>
+  </si>
+  <si>
+    <t>60960729</t>
+  </si>
+  <si>
+    <t>60923042</t>
+  </si>
+  <si>
+    <t>60993452</t>
+  </si>
+  <si>
+    <t>60943802</t>
+  </si>
+  <si>
+    <t>60964047</t>
+  </si>
+  <si>
+    <t>60864818</t>
+  </si>
+  <si>
+    <t>60955101</t>
+  </si>
+  <si>
+    <t>60965949</t>
+  </si>
+  <si>
+    <t>60919827</t>
+  </si>
+  <si>
+    <t>60856119</t>
+  </si>
+  <si>
+    <t>60965536</t>
+  </si>
+  <si>
+    <t>60876487</t>
+  </si>
+  <si>
+    <t>60986873</t>
+  </si>
+  <si>
+    <t>60965555</t>
+  </si>
+  <si>
+    <t>61002248</t>
+  </si>
+  <si>
+    <t>61024195</t>
+  </si>
+  <si>
+    <t>60950623</t>
+  </si>
+  <si>
+    <t>60986918</t>
+  </si>
+  <si>
+    <t>61022900</t>
+  </si>
+  <si>
+    <t>61019177</t>
+  </si>
+  <si>
+    <t>60900847</t>
+  </si>
+  <si>
+    <t>61023125</t>
+  </si>
+  <si>
+    <t>61038130</t>
+  </si>
+  <si>
+    <t>61060269</t>
+  </si>
+  <si>
+    <t>61043422</t>
+  </si>
+  <si>
+    <t>61023819</t>
+  </si>
+  <si>
+    <t>60978749</t>
+  </si>
+  <si>
+    <t>61039313</t>
+  </si>
+  <si>
+    <t>61038155</t>
+  </si>
+  <si>
+    <t>61012558</t>
+  </si>
+  <si>
+    <t>61047063</t>
+  </si>
+  <si>
+    <t>61068718</t>
+  </si>
+  <si>
+    <t>61069128</t>
+  </si>
+  <si>
+    <t>61041986</t>
+  </si>
+  <si>
+    <t>61053572</t>
+  </si>
+  <si>
+    <t>61060960</t>
+  </si>
+  <si>
+    <t>61045960</t>
+  </si>
+  <si>
+    <t>61035611</t>
+  </si>
+  <si>
+    <t>61032924</t>
+  </si>
+  <si>
+    <t>61047178</t>
+  </si>
+  <si>
+    <t>61079010</t>
+  </si>
+  <si>
+    <t>61057975</t>
+  </si>
+  <si>
+    <t>60843294</t>
+  </si>
+  <si>
+    <t>60815300</t>
+  </si>
+  <si>
+    <t>60810633</t>
+  </si>
+  <si>
+    <t>60906010</t>
+  </si>
+  <si>
+    <t>60888622</t>
+  </si>
+  <si>
+    <t>60817734</t>
+  </si>
+  <si>
+    <t>60844196</t>
+  </si>
+  <si>
+    <t>60824518</t>
+  </si>
+  <si>
+    <t>60844201</t>
+  </si>
+  <si>
+    <t>60844383</t>
+  </si>
+  <si>
+    <t>60864748</t>
+  </si>
+  <si>
+    <t>60856567</t>
+  </si>
+  <si>
+    <t>60899864</t>
+  </si>
+  <si>
+    <t>60894517</t>
+  </si>
+  <si>
+    <t>60934795</t>
+  </si>
+  <si>
+    <t>60924944</t>
+  </si>
+  <si>
+    <t>60935607</t>
+  </si>
+  <si>
+    <t>61025416</t>
+  </si>
+  <si>
+    <t>61010216</t>
+  </si>
+  <si>
+    <t>61006790</t>
+  </si>
+  <si>
+    <t>60982350</t>
+  </si>
+  <si>
+    <t>61005735</t>
+  </si>
+  <si>
+    <t>60978781</t>
+  </si>
+  <si>
+    <t>61011252</t>
+  </si>
+  <si>
+    <t>61032775</t>
+  </si>
+  <si>
+    <t>60974213</t>
+  </si>
+  <si>
+    <t>61004772</t>
+  </si>
+  <si>
+    <t>61024829</t>
+  </si>
+  <si>
+    <t>60968905</t>
+  </si>
+  <si>
+    <t>60992829</t>
+  </si>
+  <si>
+    <t>61207290</t>
+  </si>
+  <si>
+    <t>61090153</t>
+  </si>
+  <si>
+    <t>61032147</t>
+  </si>
+  <si>
+    <t>61062390</t>
+  </si>
+  <si>
+    <t>61095543</t>
+  </si>
+  <si>
+    <t>61047154</t>
+  </si>
+  <si>
+    <t>61051071</t>
+  </si>
+  <si>
+    <t>60984159</t>
+  </si>
+  <si>
+    <t>61088867</t>
+  </si>
+  <si>
+    <t>61091751</t>
+  </si>
+  <si>
+    <t>61129980</t>
+  </si>
+  <si>
+    <t>61128181</t>
+  </si>
+  <si>
+    <t>60864741</t>
+  </si>
+  <si>
+    <t>61116774</t>
+  </si>
+  <si>
+    <t>61038308</t>
+  </si>
+  <si>
+    <t>60944955</t>
+  </si>
+  <si>
+    <t>61037720</t>
+  </si>
+  <si>
+    <t>61083671</t>
+  </si>
+  <si>
+    <t>61024843</t>
+  </si>
+  <si>
+    <t>61106099</t>
+  </si>
+  <si>
+    <t>61107270</t>
+  </si>
+  <si>
+    <t>61123072</t>
+  </si>
+  <si>
+    <t>61106186</t>
+  </si>
+  <si>
+    <t>61116452</t>
+  </si>
+  <si>
+    <t>61107954</t>
+  </si>
+  <si>
+    <t>61154172</t>
+  </si>
+  <si>
+    <t>61129810</t>
+  </si>
+  <si>
+    <t>61131740</t>
+  </si>
+  <si>
+    <t>61052762</t>
+  </si>
+  <si>
+    <t>61137737</t>
+  </si>
+  <si>
+    <t>61155892</t>
+  </si>
+  <si>
+    <t>61044114</t>
+  </si>
+  <si>
+    <t>61034122</t>
+  </si>
+  <si>
+    <t>61030838</t>
+  </si>
+  <si>
+    <t>61099510</t>
+  </si>
+  <si>
+    <t>61084294</t>
+  </si>
+  <si>
+    <t>61103485</t>
+  </si>
+  <si>
+    <t>61071950</t>
+  </si>
+  <si>
+    <t>61106070</t>
+  </si>
+  <si>
+    <t>61189222</t>
+  </si>
+  <si>
+    <t>61174947</t>
+  </si>
+  <si>
+    <t>61208001</t>
+  </si>
+  <si>
+    <t>60911716</t>
+  </si>
+  <si>
+    <t>61120326</t>
+  </si>
+  <si>
+    <t>61026901</t>
+  </si>
+  <si>
+    <t>61058121</t>
+  </si>
+  <si>
+    <t>61061355</t>
+  </si>
+  <si>
+    <t>61118081</t>
+  </si>
+  <si>
+    <t>61110850</t>
+  </si>
+  <si>
+    <t>61227688</t>
+  </si>
+  <si>
+    <t>61155936</t>
+  </si>
+  <si>
+    <t>61003277</t>
+  </si>
+  <si>
+    <t>61107170</t>
+  </si>
+  <si>
+    <t>61096511</t>
+  </si>
+  <si>
+    <t>61217786</t>
+  </si>
+  <si>
+    <t>61030291</t>
+  </si>
+  <si>
+    <t>61010942</t>
+  </si>
+  <si>
+    <t>61117396</t>
+  </si>
+  <si>
+    <t>61123217</t>
+  </si>
+  <si>
+    <t>61221159</t>
+  </si>
+  <si>
+    <t>61253534</t>
+  </si>
+  <si>
+    <t>61250186</t>
+  </si>
+  <si>
+    <t>61252176</t>
+  </si>
+  <si>
+    <t>61258072</t>
+  </si>
+  <si>
+    <t>61027972</t>
+  </si>
+  <si>
+    <t>61111536</t>
+  </si>
+  <si>
+    <t>61153927</t>
+  </si>
+  <si>
+    <t>61162721</t>
+  </si>
+  <si>
+    <t>61156082</t>
+  </si>
+  <si>
+    <t>61193578</t>
+  </si>
+  <si>
+    <t>61190718</t>
+  </si>
+  <si>
+    <t>61195922</t>
+  </si>
+  <si>
+    <t>61107973</t>
+  </si>
+  <si>
+    <t>61160652</t>
+  </si>
+  <si>
+    <t>61101856</t>
+  </si>
+  <si>
+    <t>61112755</t>
+  </si>
+  <si>
+    <t>60994240</t>
+  </si>
+  <si>
+    <t>61121372</t>
+  </si>
+  <si>
+    <t>61087977</t>
+  </si>
+  <si>
+    <t>61088004</t>
+  </si>
+  <si>
+    <t>60994679</t>
+  </si>
+  <si>
+    <t>60962100</t>
+  </si>
+  <si>
+    <t>61258669</t>
+  </si>
+  <si>
+    <t>60856874</t>
+  </si>
+  <si>
+    <t>61111965</t>
+  </si>
+  <si>
+    <t>61068702</t>
+  </si>
+  <si>
+    <t>61122304</t>
+  </si>
+  <si>
+    <t>61026111</t>
+  </si>
+  <si>
+    <t>61070025</t>
+  </si>
+  <si>
+    <t>61058259</t>
+  </si>
+  <si>
+    <t>61238569</t>
+  </si>
+  <si>
+    <t>61068302</t>
+  </si>
+  <si>
+    <t>61111387</t>
+  </si>
+  <si>
+    <t>61028551</t>
+  </si>
+  <si>
+    <t>61049602</t>
+  </si>
+  <si>
+    <t>60891057</t>
+  </si>
+  <si>
+    <t>60983703</t>
+  </si>
+  <si>
+    <t>60887727</t>
+  </si>
+  <si>
+    <t>60895549</t>
+  </si>
+  <si>
+    <t>60886436</t>
+  </si>
+  <si>
+    <t>60784512</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +2382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1739,12 +2402,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1754,7 +2411,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1777,24 +2434,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -1808,19 +2452,7 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -2184,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82F5A9E-41A9-824A-9FC6-90FD0613E4B7}">
   <dimension ref="A1:L233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F229" sqref="F229"/>
+    <sheetView tabSelected="1" topLeftCell="D204" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K216" sqref="K216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2252,7 +2884,7 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2268,11 +2900,11 @@
       <c r="I2" s="2">
         <v>13230.78</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>13230.78</v>
       </c>
-      <c r="K2" s="4">
-        <v>13230.78</v>
+      <c r="K2" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -2288,7 +2920,7 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2304,11 +2936,11 @@
       <c r="I3" s="2">
         <v>559.79999999999995</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <v>559.79999999999995</v>
       </c>
-      <c r="K3" s="5">
-        <v>559.79999999999995</v>
+      <c r="K3" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>17</v>
@@ -2324,7 +2956,7 @@
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2340,11 +2972,11 @@
       <c r="I4" s="2">
         <v>46261.02</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>46261.02</v>
       </c>
-      <c r="K4" s="5">
-        <v>46261.02</v>
+      <c r="K4" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>17</v>
@@ -2360,7 +2992,7 @@
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2376,11 +3008,11 @@
       <c r="I5" s="2">
         <v>680</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>680</v>
       </c>
-      <c r="K5" s="5">
-        <v>680</v>
+      <c r="K5" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>17</v>
@@ -2396,7 +3028,7 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2412,11 +3044,11 @@
       <c r="I6" s="2">
         <v>30840.68</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <v>30840.68</v>
       </c>
-      <c r="K6" s="5">
-        <v>30840.68</v>
+      <c r="K6" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>17</v>
@@ -2432,7 +3064,7 @@
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2448,11 +3080,11 @@
       <c r="I7" s="2">
         <v>94402.559999999998</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <v>94402.559999999998</v>
       </c>
-      <c r="K7" s="5">
-        <v>94402.559999999998</v>
+      <c r="K7" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>17</v>
@@ -2468,7 +3100,7 @@
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2484,11 +3116,11 @@
       <c r="I8" s="2">
         <v>116905.92</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <v>116905.92</v>
       </c>
-      <c r="K8" s="5">
-        <v>116905.92</v>
+      <c r="K8" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>17</v>
@@ -2504,7 +3136,7 @@
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2520,11 +3152,11 @@
       <c r="I9" s="2">
         <v>660</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <v>660</v>
       </c>
-      <c r="K9" s="5">
-        <v>660</v>
+      <c r="K9" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>17</v>
@@ -2540,7 +3172,7 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2556,11 +3188,11 @@
       <c r="I10" s="2">
         <v>2750</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <v>2750</v>
       </c>
-      <c r="K10" s="5">
-        <v>2750</v>
+      <c r="K10" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>17</v>
@@ -2576,7 +3208,7 @@
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2592,11 +3224,11 @@
       <c r="I11" s="2">
         <v>1038</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <v>1038</v>
       </c>
-      <c r="K11" s="5">
-        <v>1038</v>
+      <c r="K11" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>17</v>
@@ -2612,7 +3244,7 @@
       <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2628,11 +3260,11 @@
       <c r="I12" s="2">
         <v>14156.45</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="2">
         <v>14156.45</v>
       </c>
-      <c r="K12" s="5">
-        <v>14156.45</v>
+      <c r="K12" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>17</v>
@@ -2648,7 +3280,7 @@
       <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2664,11 +3296,11 @@
       <c r="I13" s="2">
         <v>484</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="2">
         <v>484</v>
       </c>
-      <c r="K13" s="5">
-        <v>484</v>
+      <c r="K13" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>17</v>
@@ -2684,7 +3316,7 @@
       <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2700,11 +3332,11 @@
       <c r="I14" s="2">
         <v>742</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <v>742</v>
       </c>
-      <c r="K14" s="5">
-        <v>742</v>
+      <c r="K14" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>17</v>
@@ -2720,7 +3352,7 @@
       <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2736,11 +3368,11 @@
       <c r="I15" s="2">
         <v>1581</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="2">
         <v>1581</v>
       </c>
-      <c r="K15" s="5">
-        <v>1581</v>
+      <c r="K15" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>17</v>
@@ -2756,7 +3388,7 @@
       <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2772,11 +3404,11 @@
       <c r="I16" s="2">
         <v>2525</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <v>2525</v>
       </c>
-      <c r="K16" s="5">
-        <v>2525</v>
+      <c r="K16" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>17</v>
@@ -2792,7 +3424,7 @@
       <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2808,11 +3440,11 @@
       <c r="I17" s="2">
         <v>1104</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="2">
         <v>1104</v>
       </c>
-      <c r="K17" s="5">
-        <v>1104</v>
+      <c r="K17" s="1" t="s">
+        <v>572</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>17</v>
@@ -2828,7 +3460,7 @@
       <c r="C18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2844,11 +3476,11 @@
       <c r="I18" s="2">
         <v>11762</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="2">
         <v>11762</v>
       </c>
-      <c r="K18" s="5">
-        <v>11762</v>
+      <c r="K18" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>17</v>
@@ -2864,7 +3496,7 @@
       <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2880,11 +3512,11 @@
       <c r="I19" s="2">
         <v>4523.84</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="2">
         <v>4523.84</v>
       </c>
-      <c r="K19" s="5">
-        <v>4523.84</v>
+      <c r="K19" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>17</v>
@@ -2900,7 +3532,7 @@
       <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2916,11 +3548,11 @@
       <c r="I20" s="2">
         <v>53656</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="2">
         <v>53656</v>
       </c>
-      <c r="K20" s="5">
-        <v>53656</v>
+      <c r="K20" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>17</v>
@@ -2936,7 +3568,7 @@
       <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2952,11 +3584,11 @@
       <c r="I21" s="2">
         <v>21085</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="2">
         <v>21085</v>
       </c>
-      <c r="K21" s="5">
-        <v>21085</v>
+      <c r="K21" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>17</v>
@@ -2972,7 +3604,7 @@
       <c r="C22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2988,11 +3620,11 @@
       <c r="I22" s="2">
         <v>94402.559999999998</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="2">
         <v>94402.559999999998</v>
       </c>
-      <c r="K22" s="5">
-        <v>94402.559999999998</v>
+      <c r="K22" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>17</v>
@@ -3008,7 +3640,7 @@
       <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3024,11 +3656,11 @@
       <c r="I23" s="2">
         <v>12213.64</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="2">
         <v>12213.64</v>
       </c>
-      <c r="K23" s="5">
-        <v>12213.64</v>
+      <c r="K23" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>17</v>
@@ -3044,7 +3676,7 @@
       <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3060,11 +3692,11 @@
       <c r="I24" s="2">
         <v>94402.559999999998</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="2">
         <v>94402.559999999998</v>
       </c>
-      <c r="K24" s="5">
-        <v>94402.559999999998</v>
+      <c r="K24" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>17</v>
@@ -3080,7 +3712,7 @@
       <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3096,11 +3728,11 @@
       <c r="I25" s="2">
         <v>116905.92</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="2">
         <v>116905.92</v>
       </c>
-      <c r="K25" s="5">
-        <v>116905.92</v>
+      <c r="K25" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>17</v>
@@ -3116,7 +3748,7 @@
       <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3132,11 +3764,11 @@
       <c r="I26" s="2">
         <v>116905.92</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="2">
         <v>116905.92</v>
       </c>
-      <c r="K26" s="5">
-        <v>116905.92</v>
+      <c r="K26" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>17</v>
@@ -3152,7 +3784,7 @@
       <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3168,11 +3800,11 @@
       <c r="I27" s="2">
         <v>77101.7</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <v>77101.7</v>
       </c>
-      <c r="K27" s="5">
-        <v>77101.7</v>
+      <c r="K27" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>17</v>
@@ -3188,7 +3820,7 @@
       <c r="C28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="1"/>
@@ -3204,11 +3836,11 @@
       <c r="I28" s="2">
         <v>9385</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <v>9385</v>
       </c>
-      <c r="K28" s="5">
-        <v>9385</v>
+      <c r="K28" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>17</v>
@@ -3224,7 +3856,7 @@
       <c r="C29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3240,11 +3872,11 @@
       <c r="I29" s="2">
         <v>11432.94</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <v>11432.94</v>
       </c>
-      <c r="K29" s="5">
-        <v>11432.94</v>
+      <c r="K29" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>17</v>
@@ -3260,7 +3892,7 @@
       <c r="C30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -3276,11 +3908,11 @@
       <c r="I30" s="2">
         <v>1959.8</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <v>1959.8</v>
       </c>
-      <c r="K30" s="5">
-        <v>1959.8</v>
+      <c r="K30" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>17</v>
@@ -3296,7 +3928,7 @@
       <c r="C31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="1"/>
@@ -3312,11 +3944,11 @@
       <c r="I31" s="2">
         <v>14247.62</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <v>14247.62</v>
       </c>
-      <c r="K31" s="5">
-        <v>14247.62</v>
+      <c r="K31" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>17</v>
@@ -3332,7 +3964,7 @@
       <c r="C32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3348,11 +3980,11 @@
       <c r="I32" s="2">
         <v>248874.86</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <v>248874.86</v>
       </c>
-      <c r="K32" s="5">
-        <v>248874.86</v>
+      <c r="K32" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>17</v>
@@ -3368,7 +4000,7 @@
       <c r="C33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3384,11 +4016,11 @@
       <c r="I33" s="2">
         <v>51740.43</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="2">
         <v>51740.43</v>
       </c>
-      <c r="K33" s="5">
-        <v>51740.43</v>
+      <c r="K33" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>17</v>
@@ -3404,7 +4036,7 @@
       <c r="C34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="1"/>
@@ -3420,11 +4052,11 @@
       <c r="I34" s="2">
         <v>11791.2</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="2">
         <v>11791.2</v>
       </c>
-      <c r="K34" s="5">
-        <v>11791.2</v>
+      <c r="K34" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>17</v>
@@ -3440,7 +4072,7 @@
       <c r="C35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3456,11 +4088,11 @@
       <c r="I35" s="2">
         <v>23378</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="2">
         <v>23378</v>
       </c>
-      <c r="K35" s="5">
-        <v>23378</v>
+      <c r="K35" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>17</v>
@@ -3476,7 +4108,7 @@
       <c r="C36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3492,11 +4124,11 @@
       <c r="I36" s="2">
         <v>9487.2000000000007</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="2">
         <v>9487.2000000000007</v>
       </c>
-      <c r="K36" s="5">
-        <v>9487.2000000000007</v>
+      <c r="K36" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>17</v>
@@ -3512,7 +4144,7 @@
       <c r="C37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -3528,11 +4160,11 @@
       <c r="I37" s="2">
         <v>105234</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="2">
         <v>105234</v>
       </c>
-      <c r="K37" s="5">
-        <v>105234</v>
+      <c r="K37" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>17</v>
@@ -3548,7 +4180,7 @@
       <c r="C38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -3564,11 +4196,11 @@
       <c r="I38" s="2">
         <v>45013.8</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="2">
         <v>45013.8</v>
       </c>
-      <c r="K38" s="5">
-        <v>45013.8</v>
+      <c r="K38" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>17</v>
@@ -3584,7 +4216,7 @@
       <c r="C39" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3600,11 +4232,11 @@
       <c r="I39" s="2">
         <v>19395.52</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="2">
         <v>19395.52</v>
       </c>
-      <c r="K39" s="5">
-        <v>19395.52</v>
+      <c r="K39" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>17</v>
@@ -3620,7 +4252,7 @@
       <c r="C40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="1"/>
@@ -3636,11 +4268,11 @@
       <c r="I40" s="2">
         <v>17715.419999999998</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="2">
         <v>17715.419999999998</v>
       </c>
-      <c r="K40" s="5">
-        <v>17715.419999999998</v>
+      <c r="K40" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>17</v>
@@ -3656,7 +4288,7 @@
       <c r="C41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3672,11 +4304,11 @@
       <c r="I41" s="2">
         <v>101789.04</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="2">
         <v>101789.04</v>
       </c>
-      <c r="K41" s="5">
-        <v>101789.04</v>
+      <c r="K41" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>17</v>
@@ -3692,7 +4324,7 @@
       <c r="C42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3708,11 +4340,11 @@
       <c r="I42" s="2">
         <v>427.52</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="2">
         <v>427.52</v>
       </c>
-      <c r="K42" s="5">
-        <v>427.52</v>
+      <c r="K42" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>17</v>
@@ -3728,7 +4360,7 @@
       <c r="C43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3744,11 +4376,11 @@
       <c r="I43" s="2">
         <v>49564.84</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="2">
         <v>49564.84</v>
       </c>
-      <c r="K43" s="5">
-        <v>49564.84</v>
+      <c r="K43" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>17</v>
@@ -3764,7 +4396,7 @@
       <c r="C44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -3780,11 +4412,11 @@
       <c r="I44" s="2">
         <v>48241.440000000002</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="2">
         <v>48241.440000000002</v>
       </c>
-      <c r="K44" s="5">
-        <v>48241.440000000002</v>
+      <c r="K44" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>17</v>
@@ -3800,7 +4432,7 @@
       <c r="C45" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -3816,11 +4448,11 @@
       <c r="I45" s="2">
         <v>3099.33</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="2">
         <v>3099.33</v>
       </c>
-      <c r="K45" s="5">
-        <v>3099.33</v>
+      <c r="K45" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>17</v>
@@ -3836,7 +4468,7 @@
       <c r="C46" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3852,11 +4484,11 @@
       <c r="I46" s="2">
         <v>112743.52</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="2">
         <v>112743.52</v>
       </c>
-      <c r="K46" s="5">
-        <v>112743.52</v>
+      <c r="K46" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>17</v>
@@ -3872,7 +4504,7 @@
       <c r="C47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3888,11 +4520,11 @@
       <c r="I47" s="2">
         <v>289230.83</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="2">
         <v>289230.83</v>
       </c>
-      <c r="K47" s="5">
-        <v>289230.83</v>
+      <c r="K47" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>17</v>
@@ -3908,7 +4540,7 @@
       <c r="C48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3924,11 +4556,11 @@
       <c r="I48" s="2">
         <v>54009.16</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="2">
         <v>54009.16</v>
       </c>
-      <c r="K48" s="5">
-        <v>54009.16</v>
+      <c r="K48" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>17</v>
@@ -3944,7 +4576,7 @@
       <c r="C49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -3960,11 +4592,11 @@
       <c r="I49" s="2">
         <v>8807.52</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="2">
         <v>8807.52</v>
       </c>
-      <c r="K49" s="5">
-        <v>8807.52</v>
+      <c r="K49" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>17</v>
@@ -3980,7 +4612,7 @@
       <c r="C50" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3996,11 +4628,11 @@
       <c r="I50" s="2">
         <v>6354.53</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="2">
         <v>6354.53</v>
       </c>
-      <c r="K50" s="5">
-        <v>6354.53</v>
+      <c r="K50" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>17</v>
@@ -4016,7 +4648,7 @@
       <c r="C51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4032,11 +4664,11 @@
       <c r="I51" s="2">
         <v>84451.4</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="2">
         <v>84451.4</v>
       </c>
-      <c r="K51" s="5">
-        <v>84451.4</v>
+      <c r="K51" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>17</v>
@@ -4052,7 +4684,7 @@
       <c r="C52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4068,11 +4700,11 @@
       <c r="I52" s="2">
         <v>4928.5600000000004</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="2">
         <v>4928.5600000000004</v>
       </c>
-      <c r="K52" s="5">
-        <v>4928.5600000000004</v>
+      <c r="K52" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>17</v>
@@ -4088,7 +4720,7 @@
       <c r="C53" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4104,11 +4736,11 @@
       <c r="I53" s="2">
         <v>11099.8</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="2">
         <v>11099.8</v>
       </c>
-      <c r="K53" s="5">
-        <v>11099.8</v>
+      <c r="K53" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>17</v>
@@ -4124,7 +4756,7 @@
       <c r="C54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4140,11 +4772,11 @@
       <c r="I54" s="2">
         <v>233811.84</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="2">
         <v>233811.84</v>
       </c>
-      <c r="K54" s="5">
-        <v>233811.84</v>
+      <c r="K54" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>17</v>
@@ -4160,7 +4792,7 @@
       <c r="C55" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4176,11 +4808,11 @@
       <c r="I55" s="2">
         <v>93735.07</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="2">
         <v>93735.07</v>
       </c>
-      <c r="K55" s="5">
-        <v>93735.07</v>
+      <c r="K55" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>17</v>
@@ -4196,7 +4828,7 @@
       <c r="C56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4212,11 +4844,11 @@
       <c r="I56" s="2">
         <v>32457.48</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="2">
         <v>32457.48</v>
       </c>
-      <c r="K56" s="5">
-        <v>32457.48</v>
+      <c r="K56" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>17</v>
@@ -4232,7 +4864,7 @@
       <c r="C57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4248,11 +4880,11 @@
       <c r="I57" s="2">
         <v>1782.5</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="2">
         <v>1782.5</v>
       </c>
-      <c r="K57" s="5">
-        <v>1782.5</v>
+      <c r="K57" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>17</v>
@@ -4268,7 +4900,7 @@
       <c r="C58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4284,11 +4916,11 @@
       <c r="I58" s="2">
         <v>1113.75</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="2">
         <v>1113.75</v>
       </c>
-      <c r="K58" s="5">
-        <v>1113.75</v>
+      <c r="K58" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>17</v>
@@ -4304,7 +4936,7 @@
       <c r="C59" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4320,11 +4952,11 @@
       <c r="I59" s="2">
         <v>19486.5</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="2">
         <v>19486.5</v>
       </c>
-      <c r="K59" s="5">
-        <v>19486.5</v>
+      <c r="K59" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>17</v>
@@ -4340,7 +4972,7 @@
       <c r="C60" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4356,11 +4988,11 @@
       <c r="I60" s="2">
         <v>296.44</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="2">
         <v>296.44</v>
       </c>
-      <c r="K60" s="5">
-        <v>296.44</v>
+      <c r="K60" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>17</v>
@@ -4376,7 +5008,7 @@
       <c r="C61" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -4392,11 +5024,11 @@
       <c r="I61" s="2">
         <v>2259.92</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="2">
         <v>2259.92</v>
       </c>
-      <c r="K61" s="5">
-        <v>2259.92</v>
+      <c r="K61" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>17</v>
@@ -4412,7 +5044,7 @@
       <c r="C62" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -4428,11 +5060,11 @@
       <c r="I62" s="2">
         <v>1882.98</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="2">
         <v>1882.98</v>
       </c>
-      <c r="K62" s="5">
-        <v>1882.98</v>
+      <c r="K62" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>17</v>
@@ -4448,7 +5080,7 @@
       <c r="C63" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4464,11 +5096,11 @@
       <c r="I63" s="2">
         <v>173.88</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="2">
         <v>173.88</v>
       </c>
-      <c r="K63" s="5">
-        <v>173.88</v>
+      <c r="K63" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>17</v>
@@ -4484,7 +5116,7 @@
       <c r="C64" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -4500,11 +5132,11 @@
       <c r="I64" s="2">
         <v>543.20000000000005</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="2">
         <v>543.20000000000005</v>
       </c>
-      <c r="K64" s="5">
-        <v>543.20000000000005</v>
+      <c r="K64" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>17</v>
@@ -4520,7 +5152,7 @@
       <c r="C65" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -4536,11 +5168,11 @@
       <c r="I65" s="2">
         <v>9586.7199999999993</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="2">
         <v>9586.7199999999993</v>
       </c>
-      <c r="K65" s="5">
-        <v>9586.7199999999993</v>
+      <c r="K65" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>17</v>
@@ -4556,7 +5188,7 @@
       <c r="C66" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -4572,11 +5204,11 @@
       <c r="I66" s="2">
         <v>4882</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="2">
         <v>4882</v>
       </c>
-      <c r="K66" s="5">
-        <v>4882</v>
+      <c r="K66" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>17</v>
@@ -4592,7 +5224,7 @@
       <c r="C67" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4608,11 +5240,11 @@
       <c r="I67" s="2">
         <v>23222.7</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="2">
         <v>23222.7</v>
       </c>
-      <c r="K67" s="5">
-        <v>23222.7</v>
+      <c r="K67" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>17</v>
@@ -4628,7 +5260,7 @@
       <c r="C68" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -4644,11 +5276,11 @@
       <c r="I68" s="2">
         <v>152.37</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" s="2">
         <v>152.37</v>
       </c>
-      <c r="K68" s="5">
-        <v>152.37</v>
+      <c r="K68" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>17</v>
@@ -4664,7 +5296,7 @@
       <c r="C69" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -4680,11 +5312,11 @@
       <c r="I69" s="2">
         <v>10671.94</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="2">
         <v>10671.94</v>
       </c>
-      <c r="K69" s="5">
-        <v>10671.94</v>
+      <c r="K69" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>17</v>
@@ -4700,7 +5332,7 @@
       <c r="C70" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -4716,11 +5348,11 @@
       <c r="I70" s="2">
         <v>4158.72</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="2">
         <v>4158.72</v>
       </c>
-      <c r="K70" s="5">
-        <v>4158.72</v>
+      <c r="K70" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>17</v>
@@ -4736,7 +5368,7 @@
       <c r="C71" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -4752,11 +5384,11 @@
       <c r="I71" s="2">
         <v>3306.17</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="2">
         <v>3306.17</v>
       </c>
-      <c r="K71" s="5">
-        <v>3306.17</v>
+      <c r="K71" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>17</v>
@@ -4772,7 +5404,7 @@
       <c r="C72" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4788,11 +5420,11 @@
       <c r="I72" s="2">
         <v>9351.36</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="2">
         <v>9351.36</v>
       </c>
-      <c r="K72" s="5">
-        <v>9351.36</v>
+      <c r="K72" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>17</v>
@@ -4808,7 +5440,7 @@
       <c r="C73" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -4824,11 +5456,11 @@
       <c r="I73" s="2">
         <v>11726.08</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="2">
         <v>11726.08</v>
       </c>
-      <c r="K73" s="5">
-        <v>11726.08</v>
+      <c r="K73" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>17</v>
@@ -4844,7 +5476,7 @@
       <c r="C74" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -4860,11 +5492,11 @@
       <c r="I74" s="2">
         <v>2864.2</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J74" s="2">
         <v>2864.2</v>
       </c>
-      <c r="K74" s="5">
-        <v>2864.2</v>
+      <c r="K74" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>17</v>
@@ -4880,7 +5512,7 @@
       <c r="C75" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -4896,11 +5528,11 @@
       <c r="I75" s="2">
         <v>684</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="2">
         <v>684</v>
       </c>
-      <c r="K75" s="5">
-        <v>684</v>
+      <c r="K75" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>17</v>
@@ -4916,7 +5548,7 @@
       <c r="C76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -4932,11 +5564,11 @@
       <c r="I76" s="2">
         <v>5840.52</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76" s="2">
         <v>5840.52</v>
       </c>
-      <c r="K76" s="5">
-        <v>5840.52</v>
+      <c r="K76" s="1" t="s">
+        <v>624</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>17</v>
@@ -4952,7 +5584,7 @@
       <c r="C77" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -4968,11 +5600,11 @@
       <c r="I77" s="2">
         <v>1698.55</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="2">
         <v>1698.55</v>
       </c>
-      <c r="K77" s="5">
-        <v>1698.55</v>
+      <c r="K77" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>17</v>
@@ -4988,7 +5620,7 @@
       <c r="C78" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -5004,11 +5636,11 @@
       <c r="I78" s="2">
         <v>4110.16</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78" s="2">
         <v>4110.16</v>
       </c>
-      <c r="K78" s="5">
-        <v>4110.16</v>
+      <c r="K78" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>17</v>
@@ -5024,7 +5656,7 @@
       <c r="C79" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -5040,11 +5672,11 @@
       <c r="I79" s="2">
         <v>76995.820000000007</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79" s="2">
         <v>76995.820000000007</v>
       </c>
-      <c r="K79" s="5">
-        <v>76995.820000000007</v>
+      <c r="K79" s="1" t="s">
+        <v>627</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>17</v>
@@ -5060,7 +5692,7 @@
       <c r="C80" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -5076,11 +5708,11 @@
       <c r="I80" s="2">
         <v>20435</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J80" s="2">
         <v>20435</v>
       </c>
-      <c r="K80" s="5">
-        <v>20435</v>
+      <c r="K80" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>17</v>
@@ -5096,7 +5728,7 @@
       <c r="C81" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -5112,11 +5744,11 @@
       <c r="I81" s="2">
         <v>19325</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="2">
         <v>19325</v>
       </c>
-      <c r="K81" s="5">
-        <v>19325</v>
+      <c r="K81" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>17</v>
@@ -5132,7 +5764,7 @@
       <c r="C82" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -5148,11 +5780,11 @@
       <c r="I82" s="2">
         <v>525.64</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="2">
         <v>525.64</v>
       </c>
-      <c r="K82" s="5">
-        <v>525.64</v>
+      <c r="K82" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>17</v>
@@ -5168,7 +5800,7 @@
       <c r="C83" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -5184,11 +5816,11 @@
       <c r="I83" s="2">
         <v>1374.32</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J83" s="2">
         <v>1374.32</v>
       </c>
-      <c r="K83" s="5">
-        <v>1374.32</v>
+      <c r="K83" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>17</v>
@@ -5204,7 +5836,7 @@
       <c r="C84" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -5220,11 +5852,11 @@
       <c r="I84" s="2">
         <v>21738.23</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J84" s="2">
         <v>21738.23</v>
       </c>
-      <c r="K84" s="5">
-        <v>21738.23</v>
+      <c r="K84" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>17</v>
@@ -5240,7 +5872,7 @@
       <c r="C85" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -5256,11 +5888,11 @@
       <c r="I85" s="2">
         <v>1445.87</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85" s="2">
         <v>1445.87</v>
       </c>
-      <c r="K85" s="5">
-        <v>1445.87</v>
+      <c r="K85" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>17</v>
@@ -5276,7 +5908,7 @@
       <c r="C86" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -5292,11 +5924,11 @@
       <c r="I86" s="2">
         <v>127378</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86" s="2">
         <v>127378</v>
       </c>
-      <c r="K86" s="5">
-        <v>127378</v>
+      <c r="K86" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>17</v>
@@ -5312,7 +5944,7 @@
       <c r="C87" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -5328,11 +5960,11 @@
       <c r="I87" s="2">
         <v>143885.5</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87" s="2">
         <v>143885.5</v>
       </c>
-      <c r="K87" s="5">
-        <v>143885.5</v>
+      <c r="K87" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>17</v>
@@ -5348,7 +5980,7 @@
       <c r="C88" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -5364,11 +5996,11 @@
       <c r="I88" s="2">
         <v>120</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J88" s="2">
         <v>120</v>
       </c>
-      <c r="K88" s="5">
-        <v>120</v>
+      <c r="K88" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>17</v>
@@ -5384,7 +6016,7 @@
       <c r="C89" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -5400,11 +6032,11 @@
       <c r="I89" s="2">
         <v>972.46</v>
       </c>
-      <c r="J89" s="5">
+      <c r="J89" s="2">
         <v>972.46</v>
       </c>
-      <c r="K89" s="5">
-        <v>972.46</v>
+      <c r="K89" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>17</v>
@@ -5420,7 +6052,7 @@
       <c r="C90" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -5436,11 +6068,11 @@
       <c r="I90" s="2">
         <v>158.4</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J90" s="2">
         <v>158.4</v>
       </c>
-      <c r="K90" s="5">
-        <v>158.4</v>
+      <c r="K90" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>17</v>
@@ -5456,7 +6088,7 @@
       <c r="C91" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -5472,11 +6104,11 @@
       <c r="I91" s="2">
         <v>541.6</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="2">
         <v>541.6</v>
       </c>
-      <c r="K91" s="5">
-        <v>541.6</v>
+      <c r="K91" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>17</v>
@@ -5492,7 +6124,7 @@
       <c r="C92" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -5508,11 +6140,11 @@
       <c r="I92" s="2">
         <v>1489.6</v>
       </c>
-      <c r="J92" s="5">
+      <c r="J92" s="2">
         <v>1489.6</v>
       </c>
-      <c r="K92" s="5">
-        <v>1489.6</v>
+      <c r="K92" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>17</v>
@@ -5528,7 +6160,7 @@
       <c r="C93" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -5544,11 +6176,11 @@
       <c r="I93" s="2">
         <v>166996.15</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J93" s="2">
         <v>166996.15</v>
       </c>
-      <c r="K93" s="5">
-        <v>166996.15</v>
+      <c r="K93" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>17</v>
@@ -5564,7 +6196,7 @@
       <c r="C94" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -5580,11 +6212,11 @@
       <c r="I94" s="2">
         <v>33657.599999999999</v>
       </c>
-      <c r="J94" s="5">
+      <c r="J94" s="2">
         <v>33657.599999999999</v>
       </c>
-      <c r="K94" s="5">
-        <v>33657.599999999999</v>
+      <c r="K94" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>17</v>
@@ -5600,7 +6232,7 @@
       <c r="C95" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="4" t="s">
         <v>257</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -5616,11 +6248,11 @@
       <c r="I95" s="2">
         <v>4763.47</v>
       </c>
-      <c r="J95" s="5">
+      <c r="J95" s="2">
         <v>4763.47</v>
       </c>
-      <c r="K95" s="5">
-        <v>4763.47</v>
+      <c r="K95" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>17</v>
@@ -5636,7 +6268,7 @@
       <c r="C96" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -5652,11 +6284,11 @@
       <c r="I96" s="2">
         <v>2286</v>
       </c>
-      <c r="J96" s="5">
+      <c r="J96" s="2">
         <v>2286</v>
       </c>
-      <c r="K96" s="5">
-        <v>2286</v>
+      <c r="K96" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>17</v>
@@ -5672,7 +6304,7 @@
       <c r="C97" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -5688,11 +6320,11 @@
       <c r="I97" s="2">
         <v>5665.94</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97" s="2">
         <v>5665.94</v>
       </c>
-      <c r="K97" s="5">
-        <v>5665.94</v>
+      <c r="K97" s="1" t="s">
+        <v>645</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>17</v>
@@ -5708,7 +6340,7 @@
       <c r="C98" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -5724,11 +6356,11 @@
       <c r="I98" s="2">
         <v>1579.8</v>
       </c>
-      <c r="J98" s="5">
+      <c r="J98" s="2">
         <v>1579.8</v>
       </c>
-      <c r="K98" s="5">
-        <v>1579.8</v>
+      <c r="K98" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>17</v>
@@ -5744,7 +6376,7 @@
       <c r="C99" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -5760,11 +6392,11 @@
       <c r="I99" s="2">
         <v>319.75</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99" s="2">
         <v>319.75</v>
       </c>
-      <c r="K99" s="5">
-        <v>319.75</v>
+      <c r="K99" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>17</v>
@@ -5780,7 +6412,7 @@
       <c r="C100" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -5796,11 +6428,11 @@
       <c r="I100" s="2">
         <v>1624.18</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J100" s="2">
         <v>1624.18</v>
       </c>
-      <c r="K100" s="5">
-        <v>1624.18</v>
+      <c r="K100" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>17</v>
@@ -5816,7 +6448,7 @@
       <c r="C101" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -5832,11 +6464,11 @@
       <c r="I101" s="2">
         <v>17932.14</v>
       </c>
-      <c r="J101" s="5">
+      <c r="J101" s="2">
         <v>17932.14</v>
       </c>
-      <c r="K101" s="5">
-        <v>17932.14</v>
+      <c r="K101" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>17</v>
@@ -5852,7 +6484,7 @@
       <c r="C102" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -5868,11 +6500,11 @@
       <c r="I102" s="2">
         <v>52203</v>
       </c>
-      <c r="J102" s="5">
+      <c r="J102" s="2">
         <v>52203</v>
       </c>
-      <c r="K102" s="5">
-        <v>52203</v>
+      <c r="K102" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>17</v>
@@ -5888,7 +6520,7 @@
       <c r="C103" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -5904,11 +6536,11 @@
       <c r="I103" s="2">
         <v>15239.63</v>
       </c>
-      <c r="J103" s="5">
+      <c r="J103" s="2">
         <v>15239.63</v>
       </c>
-      <c r="K103" s="5">
-        <v>15239.63</v>
+      <c r="K103" s="1" t="s">
+        <v>651</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>17</v>
@@ -5924,7 +6556,7 @@
       <c r="C104" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -5940,11 +6572,11 @@
       <c r="I104" s="2">
         <v>53956.52</v>
       </c>
-      <c r="J104" s="5">
+      <c r="J104" s="2">
         <v>53956.52</v>
       </c>
-      <c r="K104" s="5">
-        <v>53956.52</v>
+      <c r="K104" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>17</v>
@@ -5960,7 +6592,7 @@
       <c r="C105" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -5976,11 +6608,11 @@
       <c r="I105" s="2">
         <v>34103.730000000003</v>
       </c>
-      <c r="J105" s="5">
+      <c r="J105" s="2">
         <v>34103.730000000003</v>
       </c>
-      <c r="K105" s="5">
-        <v>34103.730000000003</v>
+      <c r="K105" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>17</v>
@@ -5996,7 +6628,7 @@
       <c r="C106" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -6012,11 +6644,11 @@
       <c r="I106" s="2">
         <v>1500.49</v>
       </c>
-      <c r="J106" s="5">
+      <c r="J106" s="2">
         <v>1500.49</v>
       </c>
-      <c r="K106" s="5">
-        <v>1500.49</v>
+      <c r="K106" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="L106" s="3" t="s">
         <v>17</v>
@@ -6032,7 +6664,7 @@
       <c r="C107" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -6048,11 +6680,11 @@
       <c r="I107" s="2">
         <v>1873.29</v>
       </c>
-      <c r="J107" s="5">
+      <c r="J107" s="2">
         <v>1873.29</v>
       </c>
-      <c r="K107" s="5">
-        <v>1873.29</v>
+      <c r="K107" s="1" t="s">
+        <v>655</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>17</v>
@@ -6068,7 +6700,7 @@
       <c r="C108" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -6084,11 +6716,11 @@
       <c r="I108" s="2">
         <v>60403.95</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="2">
         <v>60403.95</v>
       </c>
-      <c r="K108" s="5">
-        <v>60403.95</v>
+      <c r="K108" s="1" t="s">
+        <v>656</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>17</v>
@@ -6104,7 +6736,7 @@
       <c r="C109" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -6120,11 +6752,11 @@
       <c r="I109" s="2">
         <v>3626.48</v>
       </c>
-      <c r="J109" s="5">
+      <c r="J109" s="2">
         <v>3626.48</v>
       </c>
-      <c r="K109" s="5">
-        <v>3626.48</v>
+      <c r="K109" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>17</v>
@@ -6140,7 +6772,7 @@
       <c r="C110" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -6156,11 +6788,11 @@
       <c r="I110" s="2">
         <v>125550</v>
       </c>
-      <c r="J110" s="5">
+      <c r="J110" s="2">
         <v>125550</v>
       </c>
-      <c r="K110" s="5">
-        <v>125550</v>
+      <c r="K110" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>17</v>
@@ -6176,7 +6808,7 @@
       <c r="C111" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -6192,11 +6824,11 @@
       <c r="I111" s="2">
         <v>7296.4</v>
       </c>
-      <c r="J111" s="5">
+      <c r="J111" s="2">
         <v>7296.4</v>
       </c>
-      <c r="K111" s="5">
-        <v>7296.4</v>
+      <c r="K111" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>17</v>
@@ -6212,7 +6844,7 @@
       <c r="C112" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -6228,11 +6860,11 @@
       <c r="I112" s="2">
         <v>87403.66</v>
       </c>
-      <c r="J112" s="5">
+      <c r="J112" s="2">
         <v>87403.66</v>
       </c>
-      <c r="K112" s="5">
-        <v>87403.66</v>
+      <c r="K112" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>17</v>
@@ -6248,7 +6880,7 @@
       <c r="C113" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -6264,11 +6896,11 @@
       <c r="I113" s="2">
         <v>41617.57</v>
       </c>
-      <c r="J113" s="5">
+      <c r="J113" s="2">
         <v>41617.57</v>
       </c>
-      <c r="K113" s="5">
-        <v>41617.57</v>
+      <c r="K113" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>17</v>
@@ -6284,7 +6916,7 @@
       <c r="C114" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -6300,11 +6932,11 @@
       <c r="I114" s="2">
         <v>25406.7</v>
       </c>
-      <c r="J114" s="5">
+      <c r="J114" s="2">
         <v>25406.7</v>
       </c>
-      <c r="K114" s="5">
-        <v>25406.7</v>
+      <c r="K114" s="1" t="s">
+        <v>662</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>17</v>
@@ -6320,7 +6952,7 @@
       <c r="C115" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -6336,11 +6968,11 @@
       <c r="I115" s="2">
         <v>9735.69</v>
       </c>
-      <c r="J115" s="5">
+      <c r="J115" s="2">
         <v>9735.69</v>
       </c>
-      <c r="K115" s="5">
-        <v>9735.69</v>
+      <c r="K115" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>17</v>
@@ -6356,7 +6988,7 @@
       <c r="C116" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -6372,11 +7004,11 @@
       <c r="I116" s="2">
         <v>1380</v>
       </c>
-      <c r="J116" s="5">
+      <c r="J116" s="2">
         <v>1380</v>
       </c>
-      <c r="K116" s="5">
-        <v>1380</v>
+      <c r="K116" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>17</v>
@@ -6392,7 +7024,7 @@
       <c r="C117" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -6408,11 +7040,11 @@
       <c r="I117" s="2">
         <v>188805.12</v>
       </c>
-      <c r="J117" s="5">
+      <c r="J117" s="2">
         <v>188805.12</v>
       </c>
-      <c r="K117" s="5">
-        <v>188805.12</v>
+      <c r="K117" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="L117" s="3" t="s">
         <v>17</v>
@@ -6428,7 +7060,7 @@
       <c r="C118" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -6444,11 +7076,11 @@
       <c r="I118" s="2">
         <v>45124.54</v>
       </c>
-      <c r="J118" s="5">
+      <c r="J118" s="2">
         <v>45124.54</v>
       </c>
-      <c r="K118" s="5">
-        <v>45124.54</v>
+      <c r="K118" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="L118" s="3" t="s">
         <v>17</v>
@@ -6464,7 +7096,7 @@
       <c r="C119" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -6480,11 +7112,11 @@
       <c r="I119" s="2">
         <v>104.98</v>
       </c>
-      <c r="J119" s="5">
+      <c r="J119" s="2">
         <v>104.98</v>
       </c>
-      <c r="K119" s="5">
-        <v>104.98</v>
+      <c r="K119" s="1" t="s">
+        <v>666</v>
       </c>
       <c r="L119" s="3" t="s">
         <v>17</v>
@@ -6500,7 +7132,7 @@
       <c r="C120" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -6516,11 +7148,11 @@
       <c r="I120" s="2">
         <v>104.98</v>
       </c>
-      <c r="J120" s="5">
+      <c r="J120" s="2">
         <v>104.98</v>
       </c>
-      <c r="K120" s="5">
-        <v>104.98</v>
+      <c r="K120" s="1" t="s">
+        <v>667</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>17</v>
@@ -6536,7 +7168,7 @@
       <c r="C121" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -6552,11 +7184,11 @@
       <c r="I121" s="2">
         <v>799.9</v>
       </c>
-      <c r="J121" s="5">
+      <c r="J121" s="2">
         <v>799.9</v>
       </c>
-      <c r="K121" s="5">
-        <v>799.9</v>
+      <c r="K121" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="L121" s="3" t="s">
         <v>17</v>
@@ -6572,7 +7204,7 @@
       <c r="C122" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -6588,11 +7220,11 @@
       <c r="I122" s="2">
         <v>671</v>
       </c>
-      <c r="J122" s="5">
+      <c r="J122" s="2">
         <v>671</v>
       </c>
-      <c r="K122" s="5">
-        <v>671</v>
+      <c r="K122" s="1" t="s">
+        <v>669</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>17</v>
@@ -6608,7 +7240,7 @@
       <c r="C123" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -6624,11 +7256,11 @@
       <c r="I123" s="2">
         <v>1267</v>
       </c>
-      <c r="J123" s="5">
+      <c r="J123" s="2">
         <v>1267</v>
       </c>
-      <c r="K123" s="5">
-        <v>1267</v>
+      <c r="K123" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>17</v>
@@ -6644,7 +7276,7 @@
       <c r="C124" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -6660,11 +7292,11 @@
       <c r="I124" s="2">
         <v>4467.6000000000004</v>
       </c>
-      <c r="J124" s="5">
+      <c r="J124" s="2">
         <v>4467.6000000000004</v>
       </c>
-      <c r="K124" s="5">
-        <v>4467.6000000000004</v>
+      <c r="K124" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>17</v>
@@ -6680,7 +7312,7 @@
       <c r="C125" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -6696,11 +7328,11 @@
       <c r="I125" s="2">
         <v>1131</v>
       </c>
-      <c r="J125" s="5">
+      <c r="J125" s="2">
         <v>1131</v>
       </c>
-      <c r="K125" s="5">
-        <v>1131</v>
+      <c r="K125" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="L125" s="3" t="s">
         <v>17</v>
@@ -6716,7 +7348,7 @@
       <c r="C126" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -6732,11 +7364,11 @@
       <c r="I126" s="2">
         <v>371.3</v>
       </c>
-      <c r="J126" s="5">
+      <c r="J126" s="2">
         <v>371.3</v>
       </c>
-      <c r="K126" s="5">
-        <v>371.3</v>
+      <c r="K126" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="L126" s="3" t="s">
         <v>17</v>
@@ -6752,7 +7384,7 @@
       <c r="C127" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -6768,11 +7400,11 @@
       <c r="I127" s="2">
         <v>1342</v>
       </c>
-      <c r="J127" s="5">
+      <c r="J127" s="2">
         <v>1342</v>
       </c>
-      <c r="K127" s="5">
-        <v>1342</v>
+      <c r="K127" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>17</v>
@@ -6788,7 +7420,7 @@
       <c r="C128" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -6804,11 +7436,11 @@
       <c r="I128" s="2">
         <v>18334.8</v>
       </c>
-      <c r="J128" s="5">
+      <c r="J128" s="2">
         <v>18334.8</v>
       </c>
-      <c r="K128" s="5">
-        <v>18334.8</v>
+      <c r="K128" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="L128" s="3" t="s">
         <v>17</v>
@@ -6824,7 +7456,7 @@
       <c r="C129" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -6840,11 +7472,11 @@
       <c r="I129" s="2">
         <v>125.6</v>
       </c>
-      <c r="J129" s="5">
+      <c r="J129" s="2">
         <v>125.6</v>
       </c>
-      <c r="K129" s="5">
-        <v>125.6</v>
+      <c r="K129" s="1" t="s">
+        <v>676</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>17</v>
@@ -6860,7 +7492,7 @@
       <c r="C130" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -6876,11 +7508,11 @@
       <c r="I130" s="2">
         <v>38700</v>
       </c>
-      <c r="J130" s="5">
+      <c r="J130" s="2">
         <v>38700</v>
       </c>
-      <c r="K130" s="5">
-        <v>38700</v>
+      <c r="K130" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>17</v>
@@ -6896,7 +7528,7 @@
       <c r="C131" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -6912,11 +7544,11 @@
       <c r="I131" s="2">
         <v>39240.550000000003</v>
       </c>
-      <c r="J131" s="5">
+      <c r="J131" s="2">
         <v>39240.550000000003</v>
       </c>
-      <c r="K131" s="5">
-        <v>39240.550000000003</v>
+      <c r="K131" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>17</v>
@@ -6932,7 +7564,7 @@
       <c r="C132" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -6948,11 +7580,11 @@
       <c r="I132" s="2">
         <v>7079.59</v>
       </c>
-      <c r="J132" s="5">
+      <c r="J132" s="2">
         <v>7079.59</v>
       </c>
-      <c r="K132" s="5">
-        <v>7079.59</v>
+      <c r="K132" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="L132" s="3" t="s">
         <v>17</v>
@@ -6968,7 +7600,7 @@
       <c r="C133" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -6984,11 +7616,11 @@
       <c r="I133" s="2">
         <v>1229</v>
       </c>
-      <c r="J133" s="5">
+      <c r="J133" s="2">
         <v>1229</v>
       </c>
-      <c r="K133" s="5">
-        <v>1229</v>
+      <c r="K133" s="1" t="s">
+        <v>680</v>
       </c>
       <c r="L133" s="3" t="s">
         <v>17</v>
@@ -7004,7 +7636,7 @@
       <c r="C134" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -7020,11 +7652,11 @@
       <c r="I134" s="2">
         <v>1145.7</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="2">
         <v>1145.7</v>
       </c>
-      <c r="K134" s="5">
-        <v>1145.7</v>
+      <c r="K134" s="1" t="s">
+        <v>681</v>
       </c>
       <c r="L134" s="3" t="s">
         <v>17</v>
@@ -7040,7 +7672,7 @@
       <c r="C135" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -7056,11 +7688,11 @@
       <c r="I135" s="2">
         <v>2794.09</v>
       </c>
-      <c r="J135" s="5">
+      <c r="J135" s="2">
         <v>2794.09</v>
       </c>
-      <c r="K135" s="5">
-        <v>2794.09</v>
+      <c r="K135" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="L135" s="3" t="s">
         <v>17</v>
@@ -7076,7 +7708,7 @@
       <c r="C136" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -7092,11 +7724,11 @@
       <c r="I136" s="2">
         <v>1144.1199999999999</v>
       </c>
-      <c r="J136" s="5">
+      <c r="J136" s="2">
         <v>1144.1199999999999</v>
       </c>
-      <c r="K136" s="5">
-        <v>1144.1199999999999</v>
+      <c r="K136" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="L136" s="3" t="s">
         <v>17</v>
@@ -7112,7 +7744,7 @@
       <c r="C137" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -7128,11 +7760,11 @@
       <c r="I137" s="2">
         <v>2169.6799999999998</v>
       </c>
-      <c r="J137" s="5">
+      <c r="J137" s="2">
         <v>2169.6799999999998</v>
       </c>
-      <c r="K137" s="5">
-        <v>2169.6799999999998</v>
+      <c r="K137" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="L137" s="3" t="s">
         <v>17</v>
@@ -7148,7 +7780,7 @@
       <c r="C138" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -7164,11 +7796,11 @@
       <c r="I138" s="2">
         <v>6210.76</v>
       </c>
-      <c r="J138" s="5">
+      <c r="J138" s="2">
         <v>6210.76</v>
       </c>
-      <c r="K138" s="5">
-        <v>6210.76</v>
+      <c r="K138" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="L138" s="3" t="s">
         <v>17</v>
@@ -7184,7 +7816,7 @@
       <c r="C139" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -7200,11 +7832,11 @@
       <c r="I139" s="2">
         <v>111751.67999999999</v>
       </c>
-      <c r="J139" s="5">
+      <c r="J139" s="2">
         <v>111751.67999999999</v>
       </c>
-      <c r="K139" s="5">
-        <v>111751.67999999999</v>
+      <c r="K139" s="1" t="s">
+        <v>686</v>
       </c>
       <c r="L139" s="3" t="s">
         <v>17</v>
@@ -7220,7 +7852,7 @@
       <c r="C140" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -7236,11 +7868,11 @@
       <c r="I140" s="2">
         <v>1052.0999999999999</v>
       </c>
-      <c r="J140" s="5">
+      <c r="J140" s="2">
         <v>1052.0999999999999</v>
       </c>
-      <c r="K140" s="5">
-        <v>1052.0999999999999</v>
+      <c r="K140" s="1" t="s">
+        <v>687</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>17</v>
@@ -7256,7 +7888,7 @@
       <c r="C141" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -7272,11 +7904,11 @@
       <c r="I141" s="2">
         <v>530.52</v>
       </c>
-      <c r="J141" s="5">
+      <c r="J141" s="2">
         <v>530.52</v>
       </c>
-      <c r="K141" s="5">
-        <v>530.52</v>
+      <c r="K141" s="1" t="s">
+        <v>688</v>
       </c>
       <c r="L141" s="3" t="s">
         <v>17</v>
@@ -7292,7 +7924,7 @@
       <c r="C142" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -7308,11 +7940,11 @@
       <c r="I142" s="2">
         <v>9182.98</v>
       </c>
-      <c r="J142" s="5">
+      <c r="J142" s="2">
         <v>9182.98</v>
       </c>
-      <c r="K142" s="5">
-        <v>9182.98</v>
+      <c r="K142" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="L142" s="3" t="s">
         <v>17</v>
@@ -7328,7 +7960,7 @@
       <c r="C143" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -7344,11 +7976,11 @@
       <c r="I143" s="2">
         <v>197640</v>
       </c>
-      <c r="J143" s="5">
+      <c r="J143" s="2">
         <v>197640</v>
       </c>
-      <c r="K143" s="5">
-        <v>197640</v>
+      <c r="K143" s="1" t="s">
+        <v>690</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>17</v>
@@ -7364,7 +7996,7 @@
       <c r="C144" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -7380,11 +8012,11 @@
       <c r="I144" s="2">
         <v>2639.34</v>
       </c>
-      <c r="J144" s="5">
+      <c r="J144" s="2">
         <v>2639.34</v>
       </c>
-      <c r="K144" s="5">
-        <v>2639.34</v>
+      <c r="K144" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>17</v>
@@ -7400,7 +8032,7 @@
       <c r="C145" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -7416,11 +8048,11 @@
       <c r="I145" s="2">
         <v>7697.82</v>
       </c>
-      <c r="J145" s="5">
+      <c r="J145" s="2">
         <v>7697.82</v>
       </c>
-      <c r="K145" s="5">
-        <v>7697.82</v>
+      <c r="K145" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>17</v>
@@ -7436,7 +8068,7 @@
       <c r="C146" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -7452,11 +8084,11 @@
       <c r="I146" s="2">
         <v>217.15</v>
       </c>
-      <c r="J146" s="5">
+      <c r="J146" s="2">
         <v>217.15</v>
       </c>
-      <c r="K146" s="5">
-        <v>217.15</v>
+      <c r="K146" s="1" t="s">
+        <v>693</v>
       </c>
       <c r="L146" s="3" t="s">
         <v>17</v>
@@ -7472,7 +8104,7 @@
       <c r="C147" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -7488,11 +8120,11 @@
       <c r="I147" s="2">
         <v>7049.03</v>
       </c>
-      <c r="J147" s="5">
+      <c r="J147" s="2">
         <v>7049.03</v>
       </c>
-      <c r="K147" s="5">
-        <v>7049.03</v>
+      <c r="K147" s="1" t="s">
+        <v>694</v>
       </c>
       <c r="L147" s="3" t="s">
         <v>17</v>
@@ -7508,7 +8140,7 @@
       <c r="C148" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -7524,11 +8156,11 @@
       <c r="I148" s="2">
         <v>6384.55</v>
       </c>
-      <c r="J148" s="5">
+      <c r="J148" s="2">
         <v>6384.55</v>
       </c>
-      <c r="K148" s="5">
-        <v>6384.55</v>
+      <c r="K148" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="L148" s="3" t="s">
         <v>17</v>
@@ -7544,7 +8176,7 @@
       <c r="C149" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -7560,11 +8192,11 @@
       <c r="I149" s="2">
         <v>2960.11</v>
       </c>
-      <c r="J149" s="5">
+      <c r="J149" s="2">
         <v>2960.11</v>
       </c>
-      <c r="K149" s="5">
-        <v>2960.11</v>
+      <c r="K149" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="L149" s="3" t="s">
         <v>17</v>
@@ -7580,7 +8212,7 @@
       <c r="C150" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -7596,11 +8228,11 @@
       <c r="I150" s="2">
         <v>3040.85</v>
       </c>
-      <c r="J150" s="5">
+      <c r="J150" s="2">
         <v>3040.85</v>
       </c>
-      <c r="K150" s="5">
-        <v>3040.85</v>
+      <c r="K150" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="L150" s="3" t="s">
         <v>17</v>
@@ -7616,7 +8248,7 @@
       <c r="C151" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -7632,11 +8264,11 @@
       <c r="I151" s="2">
         <v>1030.1600000000001</v>
       </c>
-      <c r="J151" s="5">
+      <c r="J151" s="2">
         <v>1030.1600000000001</v>
       </c>
-      <c r="K151" s="5">
-        <v>1030.1600000000001</v>
+      <c r="K151" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>17</v>
@@ -7652,7 +8284,7 @@
       <c r="C152" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -7668,11 +8300,11 @@
       <c r="I152" s="2">
         <v>629.42999999999995</v>
       </c>
-      <c r="J152" s="5">
+      <c r="J152" s="2">
         <v>629.42999999999995</v>
       </c>
-      <c r="K152" s="5">
-        <v>629.42999999999995</v>
+      <c r="K152" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="L152" s="3" t="s">
         <v>17</v>
@@ -7688,7 +8320,7 @@
       <c r="C153" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -7704,11 +8336,11 @@
       <c r="I153" s="2">
         <v>128</v>
       </c>
-      <c r="J153" s="5">
+      <c r="J153" s="2">
         <v>128</v>
       </c>
-      <c r="K153" s="5">
-        <v>128</v>
+      <c r="K153" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>17</v>
@@ -7724,7 +8356,7 @@
       <c r="C154" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -7740,11 +8372,11 @@
       <c r="I154" s="2">
         <v>144.47999999999999</v>
       </c>
-      <c r="J154" s="5">
+      <c r="J154" s="2">
         <v>144.47999999999999</v>
       </c>
-      <c r="K154" s="5">
-        <v>144.47999999999999</v>
+      <c r="K154" s="1" t="s">
+        <v>701</v>
       </c>
       <c r="L154" s="3" t="s">
         <v>17</v>
@@ -7760,7 +8392,7 @@
       <c r="C155" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -7776,11 +8408,11 @@
       <c r="I155" s="2">
         <v>629.42999999999995</v>
       </c>
-      <c r="J155" s="5">
+      <c r="J155" s="2">
         <v>629.42999999999995</v>
       </c>
-      <c r="K155" s="5">
-        <v>629.42999999999995</v>
+      <c r="K155" s="1" t="s">
+        <v>702</v>
       </c>
       <c r="L155" s="3" t="s">
         <v>17</v>
@@ -7796,7 +8428,7 @@
       <c r="C156" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -7812,11 +8444,11 @@
       <c r="I156" s="2">
         <v>159.46</v>
       </c>
-      <c r="J156" s="5">
+      <c r="J156" s="2">
         <v>159.46</v>
       </c>
-      <c r="K156" s="5">
-        <v>159.46</v>
+      <c r="K156" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="L156" s="3" t="s">
         <v>17</v>
@@ -7832,7 +8464,7 @@
       <c r="C157" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -7848,11 +8480,11 @@
       <c r="I157" s="2">
         <v>687.33</v>
       </c>
-      <c r="J157" s="5">
+      <c r="J157" s="2">
         <v>687.33</v>
       </c>
-      <c r="K157" s="5">
-        <v>687.33</v>
+      <c r="K157" s="1" t="s">
+        <v>704</v>
       </c>
       <c r="L157" s="3" t="s">
         <v>17</v>
@@ -7868,7 +8500,7 @@
       <c r="C158" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -7884,11 +8516,11 @@
       <c r="I158" s="2">
         <v>1065.8599999999999</v>
       </c>
-      <c r="J158" s="5">
+      <c r="J158" s="2">
         <v>1065.8599999999999</v>
       </c>
-      <c r="K158" s="5">
-        <v>1065.8599999999999</v>
+      <c r="K158" s="1" t="s">
+        <v>705</v>
       </c>
       <c r="L158" s="3" t="s">
         <v>17</v>
@@ -7904,7 +8536,7 @@
       <c r="C159" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -7920,11 +8552,11 @@
       <c r="I159" s="2">
         <v>576.16</v>
       </c>
-      <c r="J159" s="5">
+      <c r="J159" s="2">
         <v>576.16</v>
       </c>
-      <c r="K159" s="5">
-        <v>576.16</v>
+      <c r="K159" s="1" t="s">
+        <v>706</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>17</v>
@@ -7940,7 +8572,7 @@
       <c r="C160" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -7956,11 +8588,11 @@
       <c r="I160" s="2">
         <v>2162.84</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="2">
         <v>2162.84</v>
       </c>
-      <c r="K160" s="5">
-        <v>2162.84</v>
+      <c r="K160" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>17</v>
@@ -7976,7 +8608,7 @@
       <c r="C161" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E161" s="1"/>
@@ -7992,11 +8624,11 @@
       <c r="I161" s="2">
         <v>9390</v>
       </c>
-      <c r="J161" s="5">
+      <c r="J161" s="2">
         <v>9390</v>
       </c>
-      <c r="K161" s="5">
-        <v>9390</v>
+      <c r="K161" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="L161" s="3" t="s">
         <v>17</v>
@@ -8012,7 +8644,7 @@
       <c r="C162" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -8028,11 +8660,11 @@
       <c r="I162" s="2">
         <v>6990.11</v>
       </c>
-      <c r="J162" s="5">
+      <c r="J162" s="2">
         <v>6990.11</v>
       </c>
-      <c r="K162" s="5">
-        <v>6990.11</v>
+      <c r="K162" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="L162" s="3" t="s">
         <v>17</v>
@@ -8048,7 +8680,7 @@
       <c r="C163" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -8064,11 +8696,11 @@
       <c r="I163" s="2">
         <v>13598.1</v>
       </c>
-      <c r="J163" s="5">
+      <c r="J163" s="2">
         <v>13598.1</v>
       </c>
-      <c r="K163" s="5">
-        <v>13598.1</v>
+      <c r="K163" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="L163" s="3" t="s">
         <v>17</v>
@@ -8084,7 +8716,7 @@
       <c r="C164" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E164" s="1"/>
@@ -8100,11 +8732,11 @@
       <c r="I164" s="2">
         <v>5774.92</v>
       </c>
-      <c r="J164" s="5">
+      <c r="J164" s="2">
         <v>5774.92</v>
       </c>
-      <c r="K164" s="5">
-        <v>5774.92</v>
+      <c r="K164" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="L164" s="3" t="s">
         <v>17</v>
@@ -8120,7 +8752,7 @@
       <c r="C165" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -8136,11 +8768,11 @@
       <c r="I165" s="2">
         <v>251780</v>
       </c>
-      <c r="J165" s="5">
+      <c r="J165" s="2">
         <v>251780</v>
       </c>
-      <c r="K165" s="5">
-        <v>251780</v>
+      <c r="K165" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="L165" s="3" t="s">
         <v>17</v>
@@ -8156,7 +8788,7 @@
       <c r="C166" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E166" s="1" t="s">
@@ -8172,11 +8804,11 @@
       <c r="I166" s="2">
         <v>938.4</v>
       </c>
-      <c r="J166" s="5">
+      <c r="J166" s="2">
         <v>938.4</v>
       </c>
-      <c r="K166" s="5">
-        <v>938.4</v>
+      <c r="K166" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="L166" s="3" t="s">
         <v>17</v>
@@ -8192,7 +8824,7 @@
       <c r="C167" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -8208,11 +8840,11 @@
       <c r="I167" s="2">
         <v>33342.86</v>
       </c>
-      <c r="J167" s="5">
+      <c r="J167" s="2">
         <v>33342.86</v>
       </c>
-      <c r="K167" s="5">
-        <v>33342.86</v>
+      <c r="K167" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="L167" s="3" t="s">
         <v>17</v>
@@ -8228,7 +8860,7 @@
       <c r="C168" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E168" s="1"/>
@@ -8244,11 +8876,11 @@
       <c r="I168" s="2">
         <v>2315.4499999999998</v>
       </c>
-      <c r="J168" s="5">
+      <c r="J168" s="2">
         <v>2315.4499999999998</v>
       </c>
-      <c r="K168" s="5">
-        <v>2315.4499999999998</v>
+      <c r="K168" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="L168" s="3" t="s">
         <v>17</v>
@@ -8264,7 +8896,7 @@
       <c r="C169" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D169" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -8280,11 +8912,11 @@
       <c r="I169" s="2">
         <v>27113.9</v>
       </c>
-      <c r="J169" s="5">
+      <c r="J169" s="2">
         <v>27113.9</v>
       </c>
-      <c r="K169" s="5">
-        <v>27113.9</v>
+      <c r="K169" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="L169" s="3" t="s">
         <v>17</v>
@@ -8300,7 +8932,7 @@
       <c r="C170" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E170" s="1" t="s">
@@ -8316,11 +8948,11 @@
       <c r="I170" s="2">
         <v>757.6</v>
       </c>
-      <c r="J170" s="5">
+      <c r="J170" s="2">
         <v>757.6</v>
       </c>
-      <c r="K170" s="5">
-        <v>757.6</v>
+      <c r="K170" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="L170" s="3" t="s">
         <v>17</v>
@@ -8336,7 +8968,7 @@
       <c r="C171" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E171" s="1" t="s">
@@ -8352,11 +8984,11 @@
       <c r="I171" s="2">
         <v>62435</v>
       </c>
-      <c r="J171" s="5">
+      <c r="J171" s="2">
         <v>62435</v>
       </c>
-      <c r="K171" s="5">
-        <v>62435</v>
+      <c r="K171" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="L171" s="3" t="s">
         <v>17</v>
@@ -8372,7 +9004,7 @@
       <c r="C172" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -8388,11 +9020,11 @@
       <c r="I172" s="2">
         <v>284.27999999999997</v>
       </c>
-      <c r="J172" s="5">
+      <c r="J172" s="2">
         <v>284.27999999999997</v>
       </c>
-      <c r="K172" s="5">
-        <v>284.27999999999997</v>
+      <c r="K172" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>17</v>
@@ -8408,7 +9040,7 @@
       <c r="C173" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D173" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -8424,11 +9056,11 @@
       <c r="I173" s="2">
         <v>17289.55</v>
       </c>
-      <c r="J173" s="5">
+      <c r="J173" s="2">
         <v>17289.55</v>
       </c>
-      <c r="K173" s="5">
-        <v>17289.55</v>
+      <c r="K173" s="1" t="s">
+        <v>720</v>
       </c>
       <c r="L173" s="3" t="s">
         <v>17</v>
@@ -8444,7 +9076,7 @@
       <c r="C174" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D174" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -8460,11 +9092,11 @@
       <c r="I174" s="2">
         <v>72534.399999999994</v>
       </c>
-      <c r="J174" s="5">
+      <c r="J174" s="2">
         <v>72534.399999999994</v>
       </c>
-      <c r="K174" s="5">
-        <v>72534.399999999994</v>
+      <c r="K174" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="L174" s="3" t="s">
         <v>17</v>
@@ -8480,7 +9112,7 @@
       <c r="C175" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D175" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -8496,11 +9128,11 @@
       <c r="I175" s="2">
         <v>41526.6</v>
       </c>
-      <c r="J175" s="5">
+      <c r="J175" s="2">
         <v>41526.6</v>
       </c>
-      <c r="K175" s="5">
-        <v>41526.6</v>
+      <c r="K175" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>17</v>
@@ -8516,7 +9148,7 @@
       <c r="C176" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E176" s="1" t="s">
@@ -8532,11 +9164,11 @@
       <c r="I176" s="2">
         <v>175839.4</v>
       </c>
-      <c r="J176" s="5">
+      <c r="J176" s="2">
         <v>175839.4</v>
       </c>
-      <c r="K176" s="5">
-        <v>175839.4</v>
+      <c r="K176" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>17</v>
@@ -8552,7 +9184,7 @@
       <c r="C177" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D177" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -8568,11 +9200,11 @@
       <c r="I177" s="2">
         <v>12877.27</v>
       </c>
-      <c r="J177" s="5">
+      <c r="J177" s="2">
         <v>12877.27</v>
       </c>
-      <c r="K177" s="5">
-        <v>12877.27</v>
+      <c r="K177" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>17</v>
@@ -8588,7 +9220,7 @@
       <c r="C178" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -8604,11 +9236,11 @@
       <c r="I178" s="2">
         <v>7721.99</v>
       </c>
-      <c r="J178" s="5">
+      <c r="J178" s="2">
         <v>7721.99</v>
       </c>
-      <c r="K178" s="5">
-        <v>7721.99</v>
+      <c r="K178" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="L178" s="3" t="s">
         <v>17</v>
@@ -8624,7 +9256,7 @@
       <c r="C179" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D179" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E179" s="1" t="s">
@@ -8640,11 +9272,11 @@
       <c r="I179" s="2">
         <v>22013.37</v>
       </c>
-      <c r="J179" s="5">
+      <c r="J179" s="2">
         <v>22013.37</v>
       </c>
-      <c r="K179" s="5">
-        <v>22013.37</v>
+      <c r="K179" s="1" t="s">
+        <v>726</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>17</v>
@@ -8660,7 +9292,7 @@
       <c r="C180" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D180" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E180" s="1"/>
@@ -8676,11 +9308,11 @@
       <c r="I180" s="2">
         <v>21721.200000000001</v>
       </c>
-      <c r="J180" s="5">
+      <c r="J180" s="2">
         <v>21721.200000000001</v>
       </c>
-      <c r="K180" s="5">
-        <v>21721.200000000001</v>
+      <c r="K180" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>17</v>
@@ -8696,7 +9328,7 @@
       <c r="C181" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="D181" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E181" s="1"/>
@@ -8712,11 +9344,11 @@
       <c r="I181" s="2">
         <v>146162.5</v>
       </c>
-      <c r="J181" s="5">
+      <c r="J181" s="2">
         <v>146162.5</v>
       </c>
-      <c r="K181" s="5">
-        <v>146162.5</v>
+      <c r="K181" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>17</v>
@@ -8732,7 +9364,7 @@
       <c r="C182" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D182" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E182" s="1"/>
@@ -8748,11 +9380,11 @@
       <c r="I182" s="2">
         <v>9625.5</v>
       </c>
-      <c r="J182" s="5">
+      <c r="J182" s="2">
         <v>9625.5</v>
       </c>
-      <c r="K182" s="5">
-        <v>9625.5</v>
+      <c r="K182" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="L182" s="3" t="s">
         <v>17</v>
@@ -8768,7 +9400,7 @@
       <c r="C183" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D183" s="7" t="s">
+      <c r="D183" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E183" s="1"/>
@@ -8784,11 +9416,11 @@
       <c r="I183" s="2">
         <v>4073</v>
       </c>
-      <c r="J183" s="5">
+      <c r="J183" s="2">
         <v>4073</v>
       </c>
-      <c r="K183" s="5">
-        <v>4073</v>
+      <c r="K183" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="L183" s="3" t="s">
         <v>17</v>
@@ -8804,7 +9436,7 @@
       <c r="C184" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D184" s="7" t="s">
+      <c r="D184" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E184" s="1"/>
@@ -8820,11 +9452,11 @@
       <c r="I184" s="2">
         <v>30523.93</v>
       </c>
-      <c r="J184" s="5">
+      <c r="J184" s="2">
         <v>30523.93</v>
       </c>
-      <c r="K184" s="5">
-        <v>30523.93</v>
+      <c r="K184" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="L184" s="3" t="s">
         <v>17</v>
@@ -8840,7 +9472,7 @@
       <c r="C185" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D185" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E185" s="1"/>
@@ -8856,11 +9488,11 @@
       <c r="I185" s="2">
         <v>49694.21</v>
       </c>
-      <c r="J185" s="5">
+      <c r="J185" s="2">
         <v>49694.21</v>
       </c>
-      <c r="K185" s="5">
-        <v>49694.21</v>
+      <c r="K185" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="L185" s="3" t="s">
         <v>17</v>
@@ -8876,7 +9508,7 @@
       <c r="C186" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D186" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E186" s="1"/>
@@ -8892,11 +9524,11 @@
       <c r="I186" s="2">
         <v>2231.16</v>
       </c>
-      <c r="J186" s="5">
+      <c r="J186" s="2">
         <v>2231.16</v>
       </c>
-      <c r="K186" s="5">
-        <v>2231.16</v>
+      <c r="K186" s="1" t="s">
+        <v>732</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>17</v>
@@ -8912,7 +9544,7 @@
       <c r="C187" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D187" s="7" t="s">
+      <c r="D187" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E187" s="1"/>
@@ -8928,11 +9560,11 @@
       <c r="I187" s="2">
         <v>850.46</v>
       </c>
-      <c r="J187" s="5">
+      <c r="J187" s="2">
         <v>850.46</v>
       </c>
-      <c r="K187" s="5">
-        <v>850.46</v>
+      <c r="K187" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>17</v>
@@ -8948,7 +9580,7 @@
       <c r="C188" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="D188" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E188" s="1"/>
@@ -8964,11 +9596,11 @@
       <c r="I188" s="2">
         <v>3850</v>
       </c>
-      <c r="J188" s="5">
+      <c r="J188" s="2">
         <v>3850</v>
       </c>
-      <c r="K188" s="5">
-        <v>3850</v>
+      <c r="K188" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>17</v>
@@ -8984,7 +9616,7 @@
       <c r="C189" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D189" s="7" t="s">
+      <c r="D189" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E189" s="1"/>
@@ -9000,11 +9632,11 @@
       <c r="I189" s="2">
         <v>380320</v>
       </c>
-      <c r="J189" s="5">
+      <c r="J189" s="2">
         <v>380320</v>
       </c>
-      <c r="K189" s="5">
-        <v>380320</v>
+      <c r="K189" s="1" t="s">
+        <v>735</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>17</v>
@@ -9020,7 +9652,7 @@
       <c r="C190" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D190" s="7" t="s">
+      <c r="D190" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E190" s="1"/>
@@ -9036,11 +9668,11 @@
       <c r="I190" s="2">
         <v>329.5</v>
       </c>
-      <c r="J190" s="5">
+      <c r="J190" s="2">
         <v>329.5</v>
       </c>
-      <c r="K190" s="5">
-        <v>329.5</v>
+      <c r="K190" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>17</v>
@@ -9056,7 +9688,7 @@
       <c r="C191" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D191" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E191" s="1"/>
@@ -9072,11 +9704,11 @@
       <c r="I191" s="2">
         <v>509.72</v>
       </c>
-      <c r="J191" s="5">
+      <c r="J191" s="2">
         <v>509.72</v>
       </c>
-      <c r="K191" s="5">
-        <v>509.72</v>
+      <c r="K191" s="1" t="s">
+        <v>737</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>17</v>
@@ -9092,7 +9724,7 @@
       <c r="C192" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D192" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E192" s="1"/>
@@ -9108,11 +9740,11 @@
       <c r="I192" s="2">
         <v>129.32</v>
       </c>
-      <c r="J192" s="5">
+      <c r="J192" s="2">
         <v>129.32</v>
       </c>
-      <c r="K192" s="5">
-        <v>129.32</v>
+      <c r="K192" s="1" t="s">
+        <v>738</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>17</v>
@@ -9128,7 +9760,7 @@
       <c r="C193" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D193" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E193" s="1"/>
@@ -9144,11 +9776,11 @@
       <c r="I193" s="2">
         <v>300.5</v>
       </c>
-      <c r="J193" s="5">
+      <c r="J193" s="2">
         <v>300.5</v>
       </c>
-      <c r="K193" s="5">
-        <v>300.5</v>
+      <c r="K193" s="1" t="s">
+        <v>739</v>
       </c>
       <c r="L193" s="3" t="s">
         <v>17</v>
@@ -9164,7 +9796,7 @@
       <c r="C194" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D194" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E194" s="1"/>
@@ -9180,11 +9812,11 @@
       <c r="I194" s="2">
         <v>13320.45</v>
       </c>
-      <c r="J194" s="5">
+      <c r="J194" s="2">
         <v>13320.45</v>
       </c>
-      <c r="K194" s="5">
-        <v>13320.45</v>
+      <c r="K194" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>17</v>
@@ -9200,7 +9832,7 @@
       <c r="C195" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="D195" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E195" s="1"/>
@@ -9216,11 +9848,11 @@
       <c r="I195" s="2">
         <v>348.14</v>
       </c>
-      <c r="J195" s="5">
+      <c r="J195" s="2">
         <v>348.14</v>
       </c>
-      <c r="K195" s="5">
-        <v>348.14</v>
+      <c r="K195" s="1" t="s">
+        <v>741</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>17</v>
@@ -9236,7 +9868,7 @@
       <c r="C196" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D196" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E196" s="1"/>
@@ -9252,11 +9884,11 @@
       <c r="I196" s="2">
         <v>260</v>
       </c>
-      <c r="J196" s="5">
+      <c r="J196" s="2">
         <v>260</v>
       </c>
-      <c r="K196" s="5">
-        <v>260</v>
+      <c r="K196" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="L196" s="3" t="s">
         <v>17</v>
@@ -9272,7 +9904,7 @@
       <c r="C197" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D197" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E197" s="1"/>
@@ -9288,11 +9920,11 @@
       <c r="I197" s="2">
         <v>3955.54</v>
       </c>
-      <c r="J197" s="5">
+      <c r="J197" s="2">
         <v>3955.54</v>
       </c>
-      <c r="K197" s="5">
-        <v>3955.54</v>
+      <c r="K197" s="1" t="s">
+        <v>743</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>17</v>
@@ -9308,7 +9940,7 @@
       <c r="C198" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D198" s="7" t="s">
+      <c r="D198" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E198" s="1"/>
@@ -9324,11 +9956,11 @@
       <c r="I198" s="2">
         <v>14873.4</v>
       </c>
-      <c r="J198" s="5">
+      <c r="J198" s="2">
         <v>14873.4</v>
       </c>
-      <c r="K198" s="5">
-        <v>14873.4</v>
+      <c r="K198" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>17</v>
@@ -9344,7 +9976,7 @@
       <c r="C199" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D199" s="7" t="s">
+      <c r="D199" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E199" s="1"/>
@@ -9360,11 +9992,11 @@
       <c r="I199" s="2">
         <v>18854.599999999999</v>
       </c>
-      <c r="J199" s="5">
+      <c r="J199" s="2">
         <v>18854.599999999999</v>
       </c>
-      <c r="K199" s="5">
-        <v>18854.599999999999</v>
+      <c r="K199" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>17</v>
@@ -9380,7 +10012,7 @@
       <c r="C200" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D200" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E200" s="1"/>
@@ -9396,11 +10028,11 @@
       <c r="I200" s="2">
         <v>12051.36</v>
       </c>
-      <c r="J200" s="5">
+      <c r="J200" s="2">
         <v>12051.36</v>
       </c>
-      <c r="K200" s="5">
-        <v>12051.36</v>
+      <c r="K200" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>17</v>
@@ -9416,7 +10048,7 @@
       <c r="C201" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D201" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E201" s="1"/>
@@ -9432,11 +10064,11 @@
       <c r="I201" s="2">
         <v>8370</v>
       </c>
-      <c r="J201" s="5">
+      <c r="J201" s="2">
         <v>8370</v>
       </c>
-      <c r="K201" s="5">
-        <v>8370</v>
+      <c r="K201" s="1" t="s">
+        <v>746</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>17</v>
@@ -9452,7 +10084,7 @@
       <c r="C202" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D202" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E202" s="1"/>
@@ -9468,11 +10100,11 @@
       <c r="I202" s="2">
         <v>107.65</v>
       </c>
-      <c r="J202" s="5">
+      <c r="J202" s="2">
         <v>107.65</v>
       </c>
-      <c r="K202" s="5">
-        <v>107.65</v>
+      <c r="K202" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="L202" s="3" t="s">
         <v>17</v>
@@ -9488,7 +10120,7 @@
       <c r="C203" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D203" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E203" s="1"/>
@@ -9504,11 +10136,11 @@
       <c r="I203" s="2">
         <v>150.19999999999999</v>
       </c>
-      <c r="J203" s="5">
+      <c r="J203" s="2">
         <v>150.19999999999999</v>
       </c>
-      <c r="K203" s="5">
-        <v>150.19999999999999</v>
+      <c r="K203" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>17</v>
@@ -9524,7 +10156,7 @@
       <c r="C204" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D204" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E204" s="1"/>
@@ -9540,11 +10172,11 @@
       <c r="I204" s="2">
         <v>275.81</v>
       </c>
-      <c r="J204" s="5">
+      <c r="J204" s="2">
         <v>275.81</v>
       </c>
-      <c r="K204" s="5">
-        <v>275.81</v>
+      <c r="K204" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>17</v>
@@ -9560,7 +10192,7 @@
       <c r="C205" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D205" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E205" s="1"/>
@@ -9576,11 +10208,11 @@
       <c r="I205" s="2">
         <v>147.46</v>
       </c>
-      <c r="J205" s="5">
+      <c r="J205" s="2">
         <v>147.46</v>
       </c>
-      <c r="K205" s="5">
-        <v>147.46</v>
+      <c r="K205" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="L205" s="3" t="s">
         <v>17</v>
@@ -9596,7 +10228,7 @@
       <c r="C206" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D206" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E206" s="1"/>
@@ -9612,11 +10244,11 @@
       <c r="I206" s="2">
         <v>84.76</v>
       </c>
-      <c r="J206" s="5">
+      <c r="J206" s="2">
         <v>84.76</v>
       </c>
-      <c r="K206" s="5">
-        <v>84.76</v>
+      <c r="K206" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>17</v>
@@ -9632,7 +10264,7 @@
       <c r="C207" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D207" s="7" t="s">
+      <c r="D207" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E207" s="1"/>
@@ -9648,11 +10280,11 @@
       <c r="I207" s="2">
         <v>144.58000000000001</v>
       </c>
-      <c r="J207" s="5">
+      <c r="J207" s="2">
         <v>144.58000000000001</v>
       </c>
-      <c r="K207" s="5">
-        <v>144.58000000000001</v>
+      <c r="K207" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="L207" s="3" t="s">
         <v>17</v>
@@ -9668,7 +10300,7 @@
       <c r="C208" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D208" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E208" s="1" t="s">
@@ -9684,11 +10316,11 @@
       <c r="I208" s="2">
         <v>27721.05</v>
       </c>
-      <c r="J208" s="5">
+      <c r="J208" s="2">
         <v>27721.05</v>
       </c>
-      <c r="K208" s="5">
-        <v>27721.05</v>
+      <c r="K208" s="1" t="s">
+        <v>753</v>
       </c>
       <c r="L208" s="3" t="s">
         <v>17</v>
@@ -9704,7 +10336,7 @@
       <c r="C209" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D209" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -9720,11 +10352,11 @@
       <c r="I209" s="2">
         <v>1156.68</v>
       </c>
-      <c r="J209" s="5">
+      <c r="J209" s="2">
         <v>1156.68</v>
       </c>
-      <c r="K209" s="5">
-        <v>1156.68</v>
+      <c r="K209" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="L209" s="3" t="s">
         <v>17</v>
@@ -9740,7 +10372,7 @@
       <c r="C210" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="D210" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -9756,11 +10388,11 @@
       <c r="I210" s="2">
         <v>13833.8</v>
       </c>
-      <c r="J210" s="5">
+      <c r="J210" s="2">
         <v>13833.8</v>
       </c>
-      <c r="K210" s="5">
-        <v>13833.8</v>
+      <c r="K210" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="L210" s="3" t="s">
         <v>17</v>
@@ -9776,7 +10408,7 @@
       <c r="C211" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D211" s="7" t="s">
+      <c r="D211" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -9792,11 +10424,11 @@
       <c r="I211" s="2">
         <v>154464</v>
       </c>
-      <c r="J211" s="5">
+      <c r="J211" s="2">
         <v>154464</v>
       </c>
-      <c r="K211" s="5">
-        <v>154464</v>
+      <c r="K211" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="L211" s="3" t="s">
         <v>17</v>
@@ -9812,7 +10444,7 @@
       <c r="C212" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D212" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -9828,11 +10460,11 @@
       <c r="I212" s="2">
         <v>154464</v>
       </c>
-      <c r="J212" s="5">
+      <c r="J212" s="2">
         <v>154464</v>
       </c>
-      <c r="K212" s="5">
-        <v>154464</v>
+      <c r="K212" s="1" t="s">
+        <v>757</v>
       </c>
       <c r="L212" s="3" t="s">
         <v>17</v>
@@ -9848,7 +10480,7 @@
       <c r="C213" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D213" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E213" s="1" t="s">
@@ -9864,11 +10496,11 @@
       <c r="I213" s="2">
         <v>34320.879999999997</v>
       </c>
-      <c r="J213" s="5">
+      <c r="J213" s="2">
         <v>34320.879999999997</v>
       </c>
-      <c r="K213" s="5">
-        <v>34320.879999999997</v>
+      <c r="K213" s="1" t="s">
+        <v>758</v>
       </c>
       <c r="L213" s="3" t="s">
         <v>17</v>
@@ -9884,7 +10516,7 @@
       <c r="C214" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D214" s="7" t="s">
+      <c r="D214" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -9900,11 +10532,11 @@
       <c r="I214" s="2">
         <v>2963.4</v>
       </c>
-      <c r="J214" s="5">
+      <c r="J214" s="2">
         <v>2963.4</v>
       </c>
-      <c r="K214" s="5">
-        <v>2963.4</v>
+      <c r="K214" s="1" t="s">
+        <v>759</v>
       </c>
       <c r="L214" s="3" t="s">
         <v>17</v>
@@ -9920,7 +10552,7 @@
       <c r="C215" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D215" s="7" t="s">
+      <c r="D215" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E215" s="1"/>
@@ -9936,11 +10568,11 @@
       <c r="I215" s="2">
         <v>53140</v>
       </c>
-      <c r="J215" s="5">
+      <c r="J215" s="2">
         <v>53140</v>
       </c>
-      <c r="K215" s="5">
-        <v>53140</v>
+      <c r="K215" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="L215" s="3" t="s">
         <v>17</v>
@@ -9956,7 +10588,7 @@
       <c r="C216" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D216" s="7" t="s">
+      <c r="D216" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -9972,11 +10604,11 @@
       <c r="I216" s="2">
         <v>3164.06</v>
       </c>
-      <c r="J216" s="5">
+      <c r="J216" s="2">
         <v>3164.06</v>
       </c>
-      <c r="K216" s="5">
-        <v>3164.06</v>
+      <c r="K216" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="L216" s="3" t="s">
         <v>17</v>
@@ -9992,7 +10624,7 @@
       <c r="C217" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="D217" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E217" s="1" t="s">
@@ -10008,11 +10640,11 @@
       <c r="I217" s="2">
         <v>442.65</v>
       </c>
-      <c r="J217" s="5">
+      <c r="J217" s="2">
         <v>442.65</v>
       </c>
-      <c r="K217" s="5">
-        <v>442.65</v>
+      <c r="K217" s="1" t="s">
+        <v>762</v>
       </c>
       <c r="L217" s="3" t="s">
         <v>17</v>
@@ -10028,7 +10660,7 @@
       <c r="C218" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="D218" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E218" s="1" t="s">
@@ -10044,11 +10676,11 @@
       <c r="I218" s="2">
         <v>217.98</v>
       </c>
-      <c r="J218" s="5">
+      <c r="J218" s="2">
         <v>217.98</v>
       </c>
-      <c r="K218" s="5">
-        <v>217.98</v>
+      <c r="K218" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="L218" s="3" t="s">
         <v>17</v>
@@ -10064,7 +10696,7 @@
       <c r="C219" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D219" s="7" t="s">
+      <c r="D219" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E219" s="1"/>
@@ -10080,11 +10712,11 @@
       <c r="I219" s="2">
         <v>128.63999999999999</v>
       </c>
-      <c r="J219" s="5">
+      <c r="J219" s="2">
         <v>128.63999999999999</v>
       </c>
-      <c r="K219" s="5">
-        <v>128.63999999999999</v>
+      <c r="K219" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="L219" s="3" t="s">
         <v>17</v>
@@ -10100,7 +10732,7 @@
       <c r="C220" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D220" s="7" t="s">
+      <c r="D220" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E220" s="1"/>
@@ -10116,11 +10748,11 @@
       <c r="I220" s="2">
         <v>785.03</v>
       </c>
-      <c r="J220" s="5">
+      <c r="J220" s="2">
         <v>785.03</v>
       </c>
-      <c r="K220" s="5">
-        <v>785.03</v>
+      <c r="K220" s="1" t="s">
+        <v>765</v>
       </c>
       <c r="L220" s="3" t="s">
         <v>17</v>
@@ -10136,7 +10768,7 @@
       <c r="C221" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D221" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E221" s="1"/>
@@ -10152,11 +10784,11 @@
       <c r="I221" s="2">
         <v>679.86</v>
       </c>
-      <c r="J221" s="5">
+      <c r="J221" s="2">
         <v>679.86</v>
       </c>
-      <c r="K221" s="5">
-        <v>679.86</v>
+      <c r="K221" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="L221" s="3" t="s">
         <v>17</v>
@@ -10172,7 +10804,7 @@
       <c r="C222" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D222" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -10188,11 +10820,11 @@
       <c r="I222" s="2">
         <v>14778.1</v>
       </c>
-      <c r="J222" s="5">
+      <c r="J222" s="2">
         <v>14778.1</v>
       </c>
-      <c r="K222" s="5">
-        <v>14778.1</v>
+      <c r="K222" s="1" t="s">
+        <v>767</v>
       </c>
       <c r="L222" s="3" t="s">
         <v>17</v>
@@ -10208,7 +10840,7 @@
       <c r="C223" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D223" s="7" t="s">
+      <c r="D223" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E223" s="1"/>
@@ -10224,11 +10856,11 @@
       <c r="I223" s="2">
         <v>184805.81</v>
       </c>
-      <c r="J223" s="5">
+      <c r="J223" s="2">
         <v>184805.81</v>
       </c>
-      <c r="K223" s="5">
-        <v>184805.81</v>
+      <c r="K223" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="L223" s="3" t="s">
         <v>17</v>
@@ -10244,7 +10876,7 @@
       <c r="C224" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D224" s="7" t="s">
+      <c r="D224" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E224" s="1" t="s">
@@ -10260,11 +10892,11 @@
       <c r="I224" s="2">
         <v>4641.24</v>
       </c>
-      <c r="J224" s="5">
+      <c r="J224" s="2">
         <v>4641.24</v>
       </c>
-      <c r="K224" s="5">
-        <v>4641.24</v>
+      <c r="K224" s="1" t="s">
+        <v>769</v>
       </c>
       <c r="L224" s="3" t="s">
         <v>17</v>
@@ -10280,7 +10912,7 @@
       <c r="C225" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D225" s="7" t="s">
+      <c r="D225" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E225" s="1" t="s">
@@ -10296,11 +10928,11 @@
       <c r="I225" s="2">
         <v>82813.399999999994</v>
       </c>
-      <c r="J225" s="5">
+      <c r="J225" s="2">
         <v>82813.399999999994</v>
       </c>
-      <c r="K225" s="5">
-        <v>82813.399999999994</v>
+      <c r="K225" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="L225" s="3" t="s">
         <v>17</v>
@@ -10316,7 +10948,7 @@
       <c r="C226" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D226" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E226" s="1" t="s">
@@ -10332,11 +10964,11 @@
       <c r="I226" s="2">
         <v>11370.68</v>
       </c>
-      <c r="J226" s="5">
+      <c r="J226" s="2">
         <v>11370.68</v>
       </c>
-      <c r="K226" s="5">
-        <v>11370.68</v>
+      <c r="K226" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="L226" s="3" t="s">
         <v>17</v>
@@ -10352,7 +10984,7 @@
       <c r="C227" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D227" s="7" t="s">
+      <c r="D227" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E227" s="1" t="s">
@@ -10368,11 +11000,11 @@
       <c r="I227" s="2">
         <v>222625</v>
       </c>
-      <c r="J227" s="5">
+      <c r="J227" s="2">
         <v>222625</v>
       </c>
-      <c r="K227" s="5">
-        <v>222625</v>
+      <c r="K227" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="L227" s="3" t="s">
         <v>17</v>
@@ -10388,7 +11020,7 @@
       <c r="C228" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D228" s="7" t="s">
+      <c r="D228" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E228" s="1" t="s">
@@ -10404,11 +11036,11 @@
       <c r="I228" s="2">
         <v>3277</v>
       </c>
-      <c r="J228" s="5">
+      <c r="J228" s="2">
         <v>3277</v>
       </c>
-      <c r="K228" s="5">
-        <v>3277</v>
+      <c r="K228" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="L228" s="3" t="s">
         <v>17</v>
@@ -10424,7 +11056,7 @@
       <c r="C229" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D229" s="7" t="s">
+      <c r="D229" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E229" s="1" t="s">
@@ -10440,11 +11072,11 @@
       <c r="I229" s="2">
         <v>400.26</v>
       </c>
-      <c r="J229" s="5">
+      <c r="J229" s="2">
         <v>400.26</v>
       </c>
-      <c r="K229" s="5">
-        <v>400.26</v>
+      <c r="K229" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="L229" s="3" t="s">
         <v>17</v>
@@ -10460,7 +11092,7 @@
       <c r="C230" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="D230" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E230" s="1" t="s">
@@ -10476,11 +11108,11 @@
       <c r="I230" s="2">
         <v>1169.93</v>
       </c>
-      <c r="J230" s="5">
+      <c r="J230" s="2">
         <v>1169.93</v>
       </c>
-      <c r="K230" s="5">
-        <v>1169.93</v>
+      <c r="K230" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="L230" s="3" t="s">
         <v>17</v>
@@ -10496,7 +11128,7 @@
       <c r="C231" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D231" s="7" t="s">
+      <c r="D231" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E231" s="1" t="s">
@@ -10512,11 +11144,11 @@
       <c r="I231" s="2">
         <v>8032.21</v>
       </c>
-      <c r="J231" s="5">
+      <c r="J231" s="2">
         <v>8032.21</v>
       </c>
-      <c r="K231" s="5">
-        <v>8032.21</v>
+      <c r="K231" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="L231" s="3" t="s">
         <v>17</v>
@@ -10532,7 +11164,7 @@
       <c r="C232" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="D232" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E232" s="1"/>
@@ -10548,11 +11180,11 @@
       <c r="I232" s="2">
         <v>577.20000000000005</v>
       </c>
-      <c r="J232" s="5">
+      <c r="J232" s="2">
         <v>577.20000000000005</v>
       </c>
-      <c r="K232" s="5">
-        <v>577.20000000000005</v>
+      <c r="K232" s="1" t="s">
+        <v>777</v>
       </c>
       <c r="L232" s="3" t="s">
         <v>17</v>
@@ -10568,7 +11200,7 @@
       <c r="C233" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D233" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E233" s="1" t="s">
@@ -10584,11 +11216,11 @@
       <c r="I233" s="2">
         <v>399</v>
       </c>
-      <c r="J233" s="5">
+      <c r="J233" s="2">
         <v>399</v>
       </c>
-      <c r="K233" s="5">
-        <v>399</v>
+      <c r="K233" s="1" t="s">
+        <v>778</v>
       </c>
       <c r="L233" s="3" t="s">
         <v>17</v>

--- a/cips_data.xlsx
+++ b/cips_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhubb/Documents/ar_excel_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62467705-0603-F04F-AC8C-39DB7E13729F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4081FDE8-DD8D-1E45-9969-8F9ADC78B64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16160" yWindow="500" windowWidth="12640" windowHeight="16540" xr2:uid="{11FC0157-601E-C148-A29B-2D6A01395A3D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="780">
   <si>
     <t>Invoice Amount</t>
   </si>
@@ -1583,9 +1583,6 @@
     <t>04/10/2025</t>
   </si>
   <si>
-    <t>06/11/2025</t>
-  </si>
-  <si>
     <t>V0425251950</t>
   </si>
   <si>
@@ -2373,6 +2370,12 @@
   </si>
   <si>
     <t>60784512</t>
+  </si>
+  <si>
+    <t>08/15/2025</t>
+  </si>
+  <si>
+    <t>1233472</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2385,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2402,6 +2405,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2411,7 +2420,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2434,26 +2443,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2814,26 +2841,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82F5A9E-41A9-824A-9FC6-90FD0613E4B7}">
-  <dimension ref="A1:L233"/>
+  <dimension ref="A1:L245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D204" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K216" sqref="K216"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2874,7 +2901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2884,7 +2911,7 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2897,20 +2924,20 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <v>13230.78</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>13230.78</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2920,7 +2947,7 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2933,20 +2960,20 @@
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>559.79999999999995</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>559.79999999999995</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2956,7 +2983,7 @@
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2969,20 +2996,20 @@
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>46261.02</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>46261.02</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -2992,7 +3019,7 @@
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3005,20 +3032,20 @@
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>680</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>680</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3028,7 +3055,7 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3041,20 +3068,20 @@
       <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>30840.68</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>30840.68</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3064,7 +3091,7 @@
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3077,20 +3104,20 @@
       <c r="H7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>94402.559999999998</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>94402.559999999998</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3100,7 +3127,7 @@
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -3113,20 +3140,20 @@
       <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>116905.92</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>116905.92</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -3136,7 +3163,7 @@
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3149,20 +3176,20 @@
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <v>660</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>660</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -3172,7 +3199,7 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3185,20 +3212,20 @@
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>2750</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>2750</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -3208,7 +3235,7 @@
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3221,20 +3248,20 @@
       <c r="H11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>1038</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>1038</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -3244,7 +3271,7 @@
       <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3257,20 +3284,20 @@
       <c r="H12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>14156.45</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>14156.45</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -3280,7 +3307,7 @@
       <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3293,20 +3320,20 @@
       <c r="H13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <v>484</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <v>484</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -3316,7 +3343,7 @@
       <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -3329,20 +3356,20 @@
       <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="4">
         <v>742</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <v>742</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -3352,7 +3379,7 @@
       <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3365,20 +3392,20 @@
       <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <v>1581</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <v>1581</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -3388,7 +3415,7 @@
       <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3401,20 +3428,20 @@
       <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <v>2525</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <v>2525</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -3424,7 +3451,7 @@
       <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3437,20 +3464,20 @@
       <c r="H17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="4">
         <v>1104</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="4">
         <v>1104</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -3460,7 +3487,7 @@
       <c r="C18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3473,20 +3500,20 @@
       <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="4">
         <v>11762</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="4">
         <v>11762</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -3496,7 +3523,7 @@
       <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3509,20 +3536,20 @@
       <c r="H19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="4">
         <v>4523.84</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="4">
         <v>4523.84</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -3532,7 +3559,7 @@
       <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3545,20 +3572,20 @@
       <c r="H20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="4">
         <v>53656</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <v>53656</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -3568,7 +3595,7 @@
       <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3581,20 +3608,20 @@
       <c r="H21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="4">
         <v>21085</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="4">
         <v>21085</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -3604,7 +3631,7 @@
       <c r="C22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3617,20 +3644,20 @@
       <c r="H22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="4">
         <v>94402.559999999998</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="4">
         <v>94402.559999999998</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -3640,7 +3667,7 @@
       <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3653,20 +3680,20 @@
       <c r="H23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="4">
         <v>12213.64</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="4">
         <v>12213.64</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -3676,7 +3703,7 @@
       <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3689,20 +3716,20 @@
       <c r="H24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="4">
         <v>94402.559999999998</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="4">
         <v>94402.559999999998</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
@@ -3712,7 +3739,7 @@
       <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3725,20 +3752,20 @@
       <c r="H25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="4">
         <v>116905.92</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="4">
         <v>116905.92</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -3748,7 +3775,7 @@
       <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3761,20 +3788,20 @@
       <c r="H26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="4">
         <v>116905.92</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="4">
         <v>116905.92</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
@@ -3784,7 +3811,7 @@
       <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3797,20 +3824,20 @@
       <c r="H27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="4">
         <v>77101.7</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="4">
         <v>77101.7</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
@@ -3820,7 +3847,7 @@
       <c r="C28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="1"/>
@@ -3833,20 +3860,20 @@
       <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="4">
         <v>9385</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="4">
         <v>9385</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
@@ -3856,7 +3883,7 @@
       <c r="C29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3869,20 +3896,20 @@
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="4">
         <v>11432.94</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="4">
         <v>11432.94</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>99</v>
       </c>
@@ -3892,7 +3919,7 @@
       <c r="C30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -3905,20 +3932,20 @@
       <c r="H30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="4">
         <v>1959.8</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="4">
         <v>1959.8</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
@@ -3928,7 +3955,7 @@
       <c r="C31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="1"/>
@@ -3941,20 +3968,20 @@
       <c r="H31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="4">
         <v>14247.62</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="4">
         <v>14247.62</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>108</v>
       </c>
@@ -3964,7 +3991,7 @@
       <c r="C32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3977,20 +4004,20 @@
       <c r="H32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="4">
         <v>248874.86</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="4">
         <v>248874.86</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>112</v>
       </c>
@@ -4000,7 +4027,7 @@
       <c r="C33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -4013,20 +4040,20 @@
       <c r="H33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="4">
         <v>51740.43</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="4">
         <v>51740.43</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>114</v>
       </c>
@@ -4036,7 +4063,7 @@
       <c r="C34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="1"/>
@@ -4049,20 +4076,20 @@
       <c r="H34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="4">
         <v>11791.2</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="4">
         <v>11791.2</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -4072,7 +4099,7 @@
       <c r="C35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -4085,20 +4112,20 @@
       <c r="H35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="4">
         <v>23378</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="4">
         <v>23378</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>119</v>
       </c>
@@ -4108,7 +4135,7 @@
       <c r="C36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -4121,20 +4148,20 @@
       <c r="H36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="4">
         <v>9487.2000000000007</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="4">
         <v>9487.2000000000007</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
@@ -4144,7 +4171,7 @@
       <c r="C37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -4157,20 +4184,20 @@
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="4">
         <v>105234</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="4">
         <v>105234</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
@@ -4180,7 +4207,7 @@
       <c r="C38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -4193,20 +4220,20 @@
       <c r="H38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="4">
         <v>45013.8</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="4">
         <v>45013.8</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>127</v>
       </c>
@@ -4216,7 +4243,7 @@
       <c r="C39" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -4229,20 +4256,20 @@
       <c r="H39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="4">
         <v>19395.52</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="4">
         <v>19395.52</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>130</v>
       </c>
@@ -4252,7 +4279,7 @@
       <c r="C40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="1"/>
@@ -4265,20 +4292,20 @@
       <c r="H40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="4">
         <v>17715.419999999998</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="4">
         <v>17715.419999999998</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>133</v>
       </c>
@@ -4288,7 +4315,7 @@
       <c r="C41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -4301,20 +4328,20 @@
       <c r="H41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="4">
         <v>101789.04</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="4">
         <v>101789.04</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>135</v>
       </c>
@@ -4324,7 +4351,7 @@
       <c r="C42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -4337,20 +4364,20 @@
       <c r="H42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="4">
         <v>427.52</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="4">
         <v>427.52</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>137</v>
       </c>
@@ -4360,7 +4387,7 @@
       <c r="C43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -4373,20 +4400,20 @@
       <c r="H43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="4">
         <v>49564.84</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="4">
         <v>49564.84</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>140</v>
       </c>
@@ -4396,7 +4423,7 @@
       <c r="C44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -4409,20 +4436,20 @@
       <c r="H44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="4">
         <v>48241.440000000002</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="4">
         <v>48241.440000000002</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>145</v>
       </c>
@@ -4432,7 +4459,7 @@
       <c r="C45" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -4445,20 +4472,20 @@
       <c r="H45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="4">
         <v>3099.33</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="4">
         <v>3099.33</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>147</v>
       </c>
@@ -4468,7 +4495,7 @@
       <c r="C46" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -4481,20 +4508,20 @@
       <c r="H46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="4">
         <v>112743.52</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="4">
         <v>112743.52</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>149</v>
       </c>
@@ -4504,7 +4531,7 @@
       <c r="C47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -4517,20 +4544,20 @@
       <c r="H47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="4">
         <v>289230.83</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="4">
         <v>289230.83</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>151</v>
       </c>
@@ -4540,7 +4567,7 @@
       <c r="C48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -4553,20 +4580,20 @@
       <c r="H48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="4">
         <v>54009.16</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="4">
         <v>54009.16</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>153</v>
       </c>
@@ -4576,7 +4603,7 @@
       <c r="C49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -4589,20 +4616,20 @@
       <c r="H49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="4">
         <v>8807.52</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="4">
         <v>8807.52</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>154</v>
       </c>
@@ -4612,7 +4639,7 @@
       <c r="C50" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4625,20 +4652,20 @@
       <c r="H50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="4">
         <v>6354.53</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="4">
         <v>6354.53</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>156</v>
       </c>
@@ -4648,7 +4675,7 @@
       <c r="C51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4661,20 +4688,20 @@
       <c r="H51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="4">
         <v>84451.4</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="4">
         <v>84451.4</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>157</v>
       </c>
@@ -4684,7 +4711,7 @@
       <c r="C52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4697,20 +4724,20 @@
       <c r="H52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="4">
         <v>4928.5600000000004</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="4">
         <v>4928.5600000000004</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4720,7 +4747,7 @@
       <c r="C53" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4733,20 +4760,20 @@
       <c r="H53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="4">
         <v>11099.8</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="4">
         <v>11099.8</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
@@ -4756,7 +4783,7 @@
       <c r="C54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4769,20 +4796,20 @@
       <c r="H54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="4">
         <v>233811.84</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="4">
         <v>233811.84</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>165</v>
       </c>
@@ -4792,7 +4819,7 @@
       <c r="C55" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4805,20 +4832,20 @@
       <c r="H55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="4">
         <v>93735.07</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="4">
         <v>93735.07</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>167</v>
       </c>
@@ -4828,7 +4855,7 @@
       <c r="C56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4841,20 +4868,20 @@
       <c r="H56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="4">
         <v>32457.48</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="4">
         <v>32457.48</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
@@ -4864,7 +4891,7 @@
       <c r="C57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4877,20 +4904,20 @@
       <c r="H57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="4">
         <v>1782.5</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="4">
         <v>1782.5</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
@@ -4900,7 +4927,7 @@
       <c r="C58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4913,20 +4940,20 @@
       <c r="H58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="4">
         <v>1113.75</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="4">
         <v>1113.75</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -4936,7 +4963,7 @@
       <c r="C59" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4949,20 +4976,20 @@
       <c r="H59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="4">
         <v>19486.5</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="4">
         <v>19486.5</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>176</v>
       </c>
@@ -4972,7 +4999,7 @@
       <c r="C60" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4985,20 +5012,20 @@
       <c r="H60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="4">
         <v>296.44</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="4">
         <v>296.44</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>178</v>
       </c>
@@ -5008,7 +5035,7 @@
       <c r="C61" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -5021,20 +5048,20 @@
       <c r="H61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="4">
         <v>2259.92</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="4">
         <v>2259.92</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>179</v>
       </c>
@@ -5044,7 +5071,7 @@
       <c r="C62" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -5057,20 +5084,20 @@
       <c r="H62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="4">
         <v>1882.98</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="4">
         <v>1882.98</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -5080,7 +5107,7 @@
       <c r="C63" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -5093,20 +5120,20 @@
       <c r="H63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="4">
         <v>173.88</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="4">
         <v>173.88</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>182</v>
       </c>
@@ -5116,7 +5143,7 @@
       <c r="C64" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -5129,20 +5156,20 @@
       <c r="H64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="4">
         <v>543.20000000000005</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="4">
         <v>543.20000000000005</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>183</v>
       </c>
@@ -5152,7 +5179,7 @@
       <c r="C65" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -5165,20 +5192,20 @@
       <c r="H65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="4">
         <v>9586.7199999999993</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="4">
         <v>9586.7199999999993</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>184</v>
       </c>
@@ -5188,7 +5215,7 @@
       <c r="C66" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -5201,20 +5228,20 @@
       <c r="H66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="4">
         <v>4882</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="4">
         <v>4882</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>185</v>
       </c>
@@ -5224,7 +5251,7 @@
       <c r="C67" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -5237,20 +5264,20 @@
       <c r="H67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="4">
         <v>23222.7</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="4">
         <v>23222.7</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>189</v>
       </c>
@@ -5260,7 +5287,7 @@
       <c r="C68" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -5273,20 +5300,20 @@
       <c r="H68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="4">
         <v>152.37</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="4">
         <v>152.37</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
@@ -5296,7 +5323,7 @@
       <c r="C69" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -5309,20 +5336,20 @@
       <c r="H69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="4">
         <v>10671.94</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="4">
         <v>10671.94</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>197</v>
       </c>
@@ -5332,7 +5359,7 @@
       <c r="C70" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -5345,20 +5372,20 @@
       <c r="H70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="4">
         <v>4158.72</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="4">
         <v>4158.72</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
@@ -5368,7 +5395,7 @@
       <c r="C71" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -5381,20 +5408,20 @@
       <c r="H71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="4">
         <v>3306.17</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="4">
         <v>3306.17</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>202</v>
       </c>
@@ -5404,7 +5431,7 @@
       <c r="C72" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -5417,20 +5444,20 @@
       <c r="H72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="4">
         <v>9351.36</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="4">
         <v>9351.36</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
@@ -5440,7 +5467,7 @@
       <c r="C73" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -5453,20 +5480,20 @@
       <c r="H73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="4">
         <v>11726.08</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="4">
         <v>11726.08</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>205</v>
       </c>
@@ -5476,7 +5503,7 @@
       <c r="C74" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -5489,20 +5516,20 @@
       <c r="H74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="4">
         <v>2864.2</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="4">
         <v>2864.2</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>208</v>
       </c>
@@ -5512,7 +5539,7 @@
       <c r="C75" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -5525,20 +5552,20 @@
       <c r="H75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="4">
         <v>684</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="4">
         <v>684</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>209</v>
       </c>
@@ -5548,7 +5575,7 @@
       <c r="C76" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -5561,20 +5588,20 @@
       <c r="H76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="4">
         <v>5840.52</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="4">
         <v>5840.52</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -5584,7 +5611,7 @@
       <c r="C77" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -5597,20 +5624,20 @@
       <c r="H77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="4">
         <v>1698.55</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="4">
         <v>1698.55</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>212</v>
       </c>
@@ -5620,7 +5647,7 @@
       <c r="C78" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -5633,20 +5660,20 @@
       <c r="H78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="4">
         <v>4110.16</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="4">
         <v>4110.16</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>213</v>
       </c>
@@ -5656,7 +5683,7 @@
       <c r="C79" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -5669,20 +5696,20 @@
       <c r="H79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="4">
         <v>76995.820000000007</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="4">
         <v>76995.820000000007</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>218</v>
       </c>
@@ -5692,7 +5719,7 @@
       <c r="C80" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -5705,20 +5732,20 @@
       <c r="H80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="4">
         <v>20435</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="4">
         <v>20435</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>221</v>
       </c>
@@ -5728,7 +5755,7 @@
       <c r="C81" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -5741,20 +5768,20 @@
       <c r="H81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="4">
         <v>19325</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="4">
         <v>19325</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>225</v>
       </c>
@@ -5764,7 +5791,7 @@
       <c r="C82" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -5777,20 +5804,20 @@
       <c r="H82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="4">
         <v>525.64</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="4">
         <v>525.64</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>230</v>
       </c>
@@ -5800,7 +5827,7 @@
       <c r="C83" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -5813,20 +5840,20 @@
       <c r="H83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="4">
         <v>1374.32</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="4">
         <v>1374.32</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>231</v>
       </c>
@@ -5836,7 +5863,7 @@
       <c r="C84" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -5849,20 +5876,20 @@
       <c r="H84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="4">
         <v>21738.23</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="4">
         <v>21738.23</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>233</v>
       </c>
@@ -5872,7 +5899,7 @@
       <c r="C85" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -5885,20 +5912,20 @@
       <c r="H85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="4">
         <v>1445.87</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="4">
         <v>1445.87</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>234</v>
       </c>
@@ -5908,7 +5935,7 @@
       <c r="C86" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -5921,20 +5948,20 @@
       <c r="H86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="4">
         <v>127378</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="4">
         <v>127378</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>236</v>
       </c>
@@ -5944,7 +5971,7 @@
       <c r="C87" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -5957,20 +5984,20 @@
       <c r="H87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="4">
         <v>143885.5</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="4">
         <v>143885.5</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>240</v>
       </c>
@@ -5980,7 +6007,7 @@
       <c r="C88" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -5993,20 +6020,20 @@
       <c r="H88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="4">
         <v>120</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="4">
         <v>120</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>242</v>
       </c>
@@ -6016,7 +6043,7 @@
       <c r="C89" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -6029,20 +6056,20 @@
       <c r="H89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="4">
         <v>972.46</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="4">
         <v>972.46</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>243</v>
       </c>
@@ -6052,7 +6079,7 @@
       <c r="C90" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -6065,20 +6092,20 @@
       <c r="H90" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="4">
         <v>158.4</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="4">
         <v>158.4</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>244</v>
       </c>
@@ -6088,7 +6115,7 @@
       <c r="C91" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -6101,20 +6128,20 @@
       <c r="H91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I91" s="4">
         <v>541.6</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="4">
         <v>541.6</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>245</v>
       </c>
@@ -6124,7 +6151,7 @@
       <c r="C92" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -6137,20 +6164,20 @@
       <c r="H92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="4">
         <v>1489.6</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92" s="4">
         <v>1489.6</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>246</v>
       </c>
@@ -6160,7 +6187,7 @@
       <c r="C93" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -6173,20 +6200,20 @@
       <c r="H93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="4">
         <v>166996.15</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="4">
         <v>166996.15</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>251</v>
       </c>
@@ -6196,7 +6223,7 @@
       <c r="C94" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -6209,20 +6236,20 @@
       <c r="H94" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="4">
         <v>33657.599999999999</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="4">
         <v>33657.599999999999</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>254</v>
       </c>
@@ -6232,7 +6259,7 @@
       <c r="C95" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="2" t="s">
         <v>257</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -6245,20 +6272,20 @@
       <c r="H95" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="4">
         <v>4763.47</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J95" s="4">
         <v>4763.47</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>259</v>
       </c>
@@ -6268,7 +6295,7 @@
       <c r="C96" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -6281,20 +6308,20 @@
       <c r="H96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="4">
         <v>2286</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96" s="4">
         <v>2286</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>262</v>
       </c>
@@ -6304,7 +6331,7 @@
       <c r="C97" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -6317,20 +6344,20 @@
       <c r="H97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="4">
         <v>5665.94</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J97" s="4">
         <v>5665.94</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>263</v>
       </c>
@@ -6340,7 +6367,7 @@
       <c r="C98" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -6353,20 +6380,20 @@
       <c r="H98" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="4">
         <v>1579.8</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" s="4">
         <v>1579.8</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>264</v>
       </c>
@@ -6376,7 +6403,7 @@
       <c r="C99" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -6389,20 +6416,20 @@
       <c r="H99" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="4">
         <v>319.75</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="4">
         <v>319.75</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>267</v>
       </c>
@@ -6412,7 +6439,7 @@
       <c r="C100" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -6425,20 +6452,20 @@
       <c r="H100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="4">
         <v>1624.18</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J100" s="4">
         <v>1624.18</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>270</v>
       </c>
@@ -6448,7 +6475,7 @@
       <c r="C101" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -6461,20 +6488,20 @@
       <c r="H101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="4">
         <v>17932.14</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J101" s="4">
         <v>17932.14</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>272</v>
       </c>
@@ -6484,7 +6511,7 @@
       <c r="C102" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -6497,20 +6524,20 @@
       <c r="H102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="4">
         <v>52203</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102" s="4">
         <v>52203</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>275</v>
       </c>
@@ -6520,7 +6547,7 @@
       <c r="C103" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -6533,20 +6560,20 @@
       <c r="H103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="4">
         <v>15239.63</v>
       </c>
-      <c r="J103" s="2">
+      <c r="J103" s="4">
         <v>15239.63</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>278</v>
       </c>
@@ -6556,7 +6583,7 @@
       <c r="C104" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -6569,20 +6596,20 @@
       <c r="H104" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="4">
         <v>53956.52</v>
       </c>
-      <c r="J104" s="2">
+      <c r="J104" s="4">
         <v>53956.52</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>282</v>
       </c>
@@ -6592,7 +6619,7 @@
       <c r="C105" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -6605,20 +6632,20 @@
       <c r="H105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="4">
         <v>34103.730000000003</v>
       </c>
-      <c r="J105" s="2">
+      <c r="J105" s="4">
         <v>34103.730000000003</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>283</v>
       </c>
@@ -6628,7 +6655,7 @@
       <c r="C106" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -6641,20 +6668,20 @@
       <c r="H106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="4">
         <v>1500.49</v>
       </c>
-      <c r="J106" s="2">
+      <c r="J106" s="4">
         <v>1500.49</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>286</v>
       </c>
@@ -6664,7 +6691,7 @@
       <c r="C107" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -6677,20 +6704,20 @@
       <c r="H107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="4">
         <v>1873.29</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J107" s="4">
         <v>1873.29</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>287</v>
       </c>
@@ -6700,7 +6727,7 @@
       <c r="C108" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -6713,20 +6740,20 @@
       <c r="H108" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="4">
         <v>60403.95</v>
       </c>
-      <c r="J108" s="2">
+      <c r="J108" s="4">
         <v>60403.95</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>289</v>
       </c>
@@ -6736,7 +6763,7 @@
       <c r="C109" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -6749,20 +6776,20 @@
       <c r="H109" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="4">
         <v>3626.48</v>
       </c>
-      <c r="J109" s="2">
+      <c r="J109" s="4">
         <v>3626.48</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>292</v>
       </c>
@@ -6772,7 +6799,7 @@
       <c r="C110" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -6785,20 +6812,20 @@
       <c r="H110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="4">
         <v>125550</v>
       </c>
-      <c r="J110" s="2">
+      <c r="J110" s="4">
         <v>125550</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>294</v>
       </c>
@@ -6808,7 +6835,7 @@
       <c r="C111" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -6821,20 +6848,20 @@
       <c r="H111" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="4">
         <v>7296.4</v>
       </c>
-      <c r="J111" s="2">
+      <c r="J111" s="4">
         <v>7296.4</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>295</v>
       </c>
@@ -6844,7 +6871,7 @@
       <c r="C112" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -6857,20 +6884,20 @@
       <c r="H112" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="4">
         <v>87403.66</v>
       </c>
-      <c r="J112" s="2">
+      <c r="J112" s="4">
         <v>87403.66</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>299</v>
       </c>
@@ -6880,7 +6907,7 @@
       <c r="C113" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -6893,20 +6920,20 @@
       <c r="H113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="4">
         <v>41617.57</v>
       </c>
-      <c r="J113" s="2">
+      <c r="J113" s="4">
         <v>41617.57</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>301</v>
       </c>
@@ -6916,7 +6943,7 @@
       <c r="C114" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -6929,20 +6956,20 @@
       <c r="H114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="4">
         <v>25406.7</v>
       </c>
-      <c r="J114" s="2">
+      <c r="J114" s="4">
         <v>25406.7</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>303</v>
       </c>
@@ -6952,7 +6979,7 @@
       <c r="C115" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -6965,20 +6992,20 @@
       <c r="H115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I115" s="2">
+      <c r="I115" s="4">
         <v>9735.69</v>
       </c>
-      <c r="J115" s="2">
+      <c r="J115" s="4">
         <v>9735.69</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>307</v>
       </c>
@@ -6988,7 +7015,7 @@
       <c r="C116" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -7001,20 +7028,20 @@
       <c r="H116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I116" s="2">
+      <c r="I116" s="4">
         <v>1380</v>
       </c>
-      <c r="J116" s="2">
+      <c r="J116" s="4">
         <v>1380</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>312</v>
       </c>
@@ -7024,7 +7051,7 @@
       <c r="C117" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -7037,20 +7064,20 @@
       <c r="H117" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I117" s="2">
+      <c r="I117" s="4">
         <v>188805.12</v>
       </c>
-      <c r="J117" s="2">
+      <c r="J117" s="4">
         <v>188805.12</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>316</v>
       </c>
@@ -7060,7 +7087,7 @@
       <c r="C118" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -7073,20 +7100,20 @@
       <c r="H118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I118" s="2">
+      <c r="I118" s="4">
         <v>45124.54</v>
       </c>
-      <c r="J118" s="2">
+      <c r="J118" s="4">
         <v>45124.54</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="L118" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>318</v>
       </c>
@@ -7096,7 +7123,7 @@
       <c r="C119" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -7109,20 +7136,20 @@
       <c r="H119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I119" s="2">
+      <c r="I119" s="4">
         <v>104.98</v>
       </c>
-      <c r="J119" s="2">
+      <c r="J119" s="4">
         <v>104.98</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="L119" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>322</v>
       </c>
@@ -7132,7 +7159,7 @@
       <c r="C120" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -7145,20 +7172,20 @@
       <c r="H120" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I120" s="2">
+      <c r="I120" s="4">
         <v>104.98</v>
       </c>
-      <c r="J120" s="2">
+      <c r="J120" s="4">
         <v>104.98</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="L120" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>323</v>
       </c>
@@ -7168,7 +7195,7 @@
       <c r="C121" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -7181,20 +7208,20 @@
       <c r="H121" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I121" s="4">
         <v>799.9</v>
       </c>
-      <c r="J121" s="2">
+      <c r="J121" s="4">
         <v>799.9</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="L121" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>325</v>
       </c>
@@ -7204,7 +7231,7 @@
       <c r="C122" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -7217,20 +7244,20 @@
       <c r="H122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I122" s="2">
+      <c r="I122" s="4">
         <v>671</v>
       </c>
-      <c r="J122" s="2">
+      <c r="J122" s="4">
         <v>671</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>326</v>
       </c>
@@ -7240,7 +7267,7 @@
       <c r="C123" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -7253,20 +7280,20 @@
       <c r="H123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I123" s="2">
+      <c r="I123" s="4">
         <v>1267</v>
       </c>
-      <c r="J123" s="2">
+      <c r="J123" s="4">
         <v>1267</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>328</v>
       </c>
@@ -7276,7 +7303,7 @@
       <c r="C124" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -7289,20 +7316,20 @@
       <c r="H124" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I124" s="2">
+      <c r="I124" s="4">
         <v>4467.6000000000004</v>
       </c>
-      <c r="J124" s="2">
+      <c r="J124" s="4">
         <v>4467.6000000000004</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>329</v>
       </c>
@@ -7312,7 +7339,7 @@
       <c r="C125" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -7325,20 +7352,20 @@
       <c r="H125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I125" s="2">
+      <c r="I125" s="4">
         <v>1131</v>
       </c>
-      <c r="J125" s="2">
+      <c r="J125" s="4">
         <v>1131</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>330</v>
       </c>
@@ -7348,7 +7375,7 @@
       <c r="C126" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -7361,20 +7388,20 @@
       <c r="H126" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I126" s="2">
+      <c r="I126" s="4">
         <v>371.3</v>
       </c>
-      <c r="J126" s="2">
+      <c r="J126" s="4">
         <v>371.3</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+      <c r="L126" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>331</v>
       </c>
@@ -7384,7 +7411,7 @@
       <c r="C127" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -7397,20 +7424,20 @@
       <c r="H127" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I127" s="2">
+      <c r="I127" s="4">
         <v>1342</v>
       </c>
-      <c r="J127" s="2">
+      <c r="J127" s="4">
         <v>1342</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>673</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>332</v>
       </c>
@@ -7420,7 +7447,7 @@
       <c r="C128" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -7433,20 +7460,20 @@
       <c r="H128" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I128" s="2">
+      <c r="I128" s="4">
         <v>18334.8</v>
       </c>
-      <c r="J128" s="2">
+      <c r="J128" s="4">
         <v>18334.8</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="L128" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>333</v>
       </c>
@@ -7456,7 +7483,7 @@
       <c r="C129" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -7469,20 +7496,20 @@
       <c r="H129" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I129" s="2">
+      <c r="I129" s="4">
         <v>125.6</v>
       </c>
-      <c r="J129" s="2">
+      <c r="J129" s="4">
         <v>125.6</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="L129" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>334</v>
       </c>
@@ -7492,7 +7519,7 @@
       <c r="C130" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -7505,20 +7532,20 @@
       <c r="H130" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I130" s="4">
         <v>38700</v>
       </c>
-      <c r="J130" s="2">
+      <c r="J130" s="4">
         <v>38700</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="L130" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>338</v>
       </c>
@@ -7528,7 +7555,7 @@
       <c r="C131" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -7541,20 +7568,20 @@
       <c r="H131" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I131" s="2">
+      <c r="I131" s="4">
         <v>39240.550000000003</v>
       </c>
-      <c r="J131" s="2">
+      <c r="J131" s="4">
         <v>39240.550000000003</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L131" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>343</v>
       </c>
@@ -7564,7 +7591,7 @@
       <c r="C132" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -7577,20 +7604,20 @@
       <c r="H132" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I132" s="2">
+      <c r="I132" s="4">
         <v>7079.59</v>
       </c>
-      <c r="J132" s="2">
+      <c r="J132" s="4">
         <v>7079.59</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="L132" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>345</v>
       </c>
@@ -7600,7 +7627,7 @@
       <c r="C133" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -7613,20 +7640,20 @@
       <c r="H133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I133" s="4">
         <v>1229</v>
       </c>
-      <c r="J133" s="2">
+      <c r="J133" s="4">
         <v>1229</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>347</v>
       </c>
@@ -7636,7 +7663,7 @@
       <c r="C134" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -7649,20 +7676,20 @@
       <c r="H134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I134" s="2">
+      <c r="I134" s="4">
         <v>1145.7</v>
       </c>
-      <c r="J134" s="2">
+      <c r="J134" s="4">
         <v>1145.7</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="L134" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>348</v>
       </c>
@@ -7672,7 +7699,7 @@
       <c r="C135" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -7685,20 +7712,20 @@
       <c r="H135" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I135" s="2">
+      <c r="I135" s="4">
         <v>2794.09</v>
       </c>
-      <c r="J135" s="2">
+      <c r="J135" s="4">
         <v>2794.09</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="L135" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>349</v>
       </c>
@@ -7708,7 +7735,7 @@
       <c r="C136" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -7721,20 +7748,20 @@
       <c r="H136" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I136" s="2">
+      <c r="I136" s="4">
         <v>1144.1199999999999</v>
       </c>
-      <c r="J136" s="2">
+      <c r="J136" s="4">
         <v>1144.1199999999999</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="L136" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>350</v>
       </c>
@@ -7744,7 +7771,7 @@
       <c r="C137" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -7757,20 +7784,20 @@
       <c r="H137" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I137" s="2">
+      <c r="I137" s="4">
         <v>2169.6799999999998</v>
       </c>
-      <c r="J137" s="2">
+      <c r="J137" s="4">
         <v>2169.6799999999998</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>353</v>
       </c>
@@ -7780,7 +7807,7 @@
       <c r="C138" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -7793,20 +7820,20 @@
       <c r="H138" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I138" s="2">
+      <c r="I138" s="4">
         <v>6210.76</v>
       </c>
-      <c r="J138" s="2">
+      <c r="J138" s="4">
         <v>6210.76</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="L138" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+      <c r="L138" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>356</v>
       </c>
@@ -7816,7 +7843,7 @@
       <c r="C139" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -7829,20 +7856,20 @@
       <c r="H139" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I139" s="2">
+      <c r="I139" s="4">
         <v>111751.67999999999</v>
       </c>
-      <c r="J139" s="2">
+      <c r="J139" s="4">
         <v>111751.67999999999</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>360</v>
       </c>
@@ -7852,7 +7879,7 @@
       <c r="C140" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -7865,20 +7892,20 @@
       <c r="H140" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I140" s="2">
+      <c r="I140" s="4">
         <v>1052.0999999999999</v>
       </c>
-      <c r="J140" s="2">
+      <c r="J140" s="4">
         <v>1052.0999999999999</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
@@ -7888,7 +7915,7 @@
       <c r="C141" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -7901,20 +7928,20 @@
       <c r="H141" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I141" s="2">
+      <c r="I141" s="4">
         <v>530.52</v>
       </c>
-      <c r="J141" s="2">
+      <c r="J141" s="4">
         <v>530.52</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>363</v>
       </c>
@@ -7924,7 +7951,7 @@
       <c r="C142" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -7937,20 +7964,20 @@
       <c r="H142" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I142" s="2">
+      <c r="I142" s="4">
         <v>9182.98</v>
       </c>
-      <c r="J142" s="2">
+      <c r="J142" s="4">
         <v>9182.98</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="L142" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>367</v>
       </c>
@@ -7960,7 +7987,7 @@
       <c r="C143" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -7973,20 +8000,20 @@
       <c r="H143" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I143" s="2">
+      <c r="I143" s="4">
         <v>197640</v>
       </c>
-      <c r="J143" s="2">
+      <c r="J143" s="4">
         <v>197640</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>372</v>
       </c>
@@ -7996,7 +8023,7 @@
       <c r="C144" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -8009,20 +8036,20 @@
       <c r="H144" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I144" s="2">
+      <c r="I144" s="4">
         <v>2639.34</v>
       </c>
-      <c r="J144" s="2">
+      <c r="J144" s="4">
         <v>2639.34</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="L144" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>375</v>
       </c>
@@ -8032,7 +8059,7 @@
       <c r="C145" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -8045,20 +8072,20 @@
       <c r="H145" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I145" s="2">
+      <c r="I145" s="4">
         <v>7697.82</v>
       </c>
-      <c r="J145" s="2">
+      <c r="J145" s="4">
         <v>7697.82</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>376</v>
       </c>
@@ -8068,7 +8095,7 @@
       <c r="C146" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -8081,20 +8108,20 @@
       <c r="H146" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I146" s="2">
+      <c r="I146" s="4">
         <v>217.15</v>
       </c>
-      <c r="J146" s="2">
+      <c r="J146" s="4">
         <v>217.15</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="L146" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>379</v>
       </c>
@@ -8104,7 +8131,7 @@
       <c r="C147" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -8117,20 +8144,20 @@
       <c r="H147" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I147" s="2">
+      <c r="I147" s="4">
         <v>7049.03</v>
       </c>
-      <c r="J147" s="2">
+      <c r="J147" s="4">
         <v>7049.03</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="L147" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>382</v>
       </c>
@@ -8140,7 +8167,7 @@
       <c r="C148" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -8153,20 +8180,20 @@
       <c r="H148" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I148" s="2">
+      <c r="I148" s="4">
         <v>6384.55</v>
       </c>
-      <c r="J148" s="2">
+      <c r="J148" s="4">
         <v>6384.55</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="L148" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+      <c r="L148" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>383</v>
       </c>
@@ -8176,7 +8203,7 @@
       <c r="C149" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -8189,20 +8216,20 @@
       <c r="H149" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I149" s="2">
+      <c r="I149" s="4">
         <v>2960.11</v>
       </c>
-      <c r="J149" s="2">
+      <c r="J149" s="4">
         <v>2960.11</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="L149" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+      <c r="L149" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>384</v>
       </c>
@@ -8212,7 +8239,7 @@
       <c r="C150" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -8225,20 +8252,20 @@
       <c r="H150" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I150" s="2">
+      <c r="I150" s="4">
         <v>3040.85</v>
       </c>
-      <c r="J150" s="2">
+      <c r="J150" s="4">
         <v>3040.85</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="L150" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>385</v>
       </c>
@@ -8248,7 +8275,7 @@
       <c r="C151" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -8261,20 +8288,20 @@
       <c r="H151" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I151" s="2">
+      <c r="I151" s="4">
         <v>1030.1600000000001</v>
       </c>
-      <c r="J151" s="2">
+      <c r="J151" s="4">
         <v>1030.1600000000001</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="L151" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+      <c r="L151" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>386</v>
       </c>
@@ -8284,7 +8311,7 @@
       <c r="C152" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -8297,20 +8324,20 @@
       <c r="H152" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I152" s="2">
+      <c r="I152" s="4">
         <v>629.42999999999995</v>
       </c>
-      <c r="J152" s="2">
+      <c r="J152" s="4">
         <v>629.42999999999995</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="L152" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+      <c r="L152" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>387</v>
       </c>
@@ -8320,7 +8347,7 @@
       <c r="C153" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -8333,20 +8360,20 @@
       <c r="H153" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I153" s="2">
+      <c r="I153" s="4">
         <v>128</v>
       </c>
-      <c r="J153" s="2">
+      <c r="J153" s="4">
         <v>128</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="L153" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>388</v>
       </c>
@@ -8356,7 +8383,7 @@
       <c r="C154" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -8369,20 +8396,20 @@
       <c r="H154" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I154" s="2">
+      <c r="I154" s="4">
         <v>144.47999999999999</v>
       </c>
-      <c r="J154" s="2">
+      <c r="J154" s="4">
         <v>144.47999999999999</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="L154" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="L154" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>389</v>
       </c>
@@ -8392,7 +8419,7 @@
       <c r="C155" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -8405,20 +8432,20 @@
       <c r="H155" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I155" s="2">
+      <c r="I155" s="4">
         <v>629.42999999999995</v>
       </c>
-      <c r="J155" s="2">
+      <c r="J155" s="4">
         <v>629.42999999999995</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="L155" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>390</v>
       </c>
@@ -8428,7 +8455,7 @@
       <c r="C156" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -8441,20 +8468,20 @@
       <c r="H156" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I156" s="2">
+      <c r="I156" s="4">
         <v>159.46</v>
       </c>
-      <c r="J156" s="2">
+      <c r="J156" s="4">
         <v>159.46</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="L156" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+      <c r="L156" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>393</v>
       </c>
@@ -8464,7 +8491,7 @@
       <c r="C157" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -8477,20 +8504,20 @@
       <c r="H157" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I157" s="2">
+      <c r="I157" s="4">
         <v>687.33</v>
       </c>
-      <c r="J157" s="2">
+      <c r="J157" s="4">
         <v>687.33</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="L157" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+      <c r="L157" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>396</v>
       </c>
@@ -8500,7 +8527,7 @@
       <c r="C158" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -8513,20 +8540,20 @@
       <c r="H158" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I158" s="2">
+      <c r="I158" s="4">
         <v>1065.8599999999999</v>
       </c>
-      <c r="J158" s="2">
+      <c r="J158" s="4">
         <v>1065.8599999999999</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="L158" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+      <c r="L158" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>398</v>
       </c>
@@ -8536,7 +8563,7 @@
       <c r="C159" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -8549,20 +8576,20 @@
       <c r="H159" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I159" s="2">
+      <c r="I159" s="4">
         <v>576.16</v>
       </c>
-      <c r="J159" s="2">
+      <c r="J159" s="4">
         <v>576.16</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="L159" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+      <c r="L159" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>399</v>
       </c>
@@ -8572,7 +8599,7 @@
       <c r="C160" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -8585,20 +8612,20 @@
       <c r="H160" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I160" s="2">
+      <c r="I160" s="4">
         <v>2162.84</v>
       </c>
-      <c r="J160" s="2">
+      <c r="J160" s="4">
         <v>2162.84</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="L160" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>401</v>
       </c>
@@ -8608,7 +8635,7 @@
       <c r="C161" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D161" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E161" s="1"/>
@@ -8621,20 +8648,20 @@
       <c r="H161" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I161" s="2">
+      <c r="I161" s="4">
         <v>9390</v>
       </c>
-      <c r="J161" s="2">
+      <c r="J161" s="4">
         <v>9390</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="L161" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+      <c r="L161" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>405</v>
       </c>
@@ -8644,7 +8671,7 @@
       <c r="C162" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D162" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -8657,20 +8684,20 @@
       <c r="H162" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I162" s="2">
+      <c r="I162" s="4">
         <v>6990.11</v>
       </c>
-      <c r="J162" s="2">
+      <c r="J162" s="4">
         <v>6990.11</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="L162" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>407</v>
       </c>
@@ -8680,7 +8707,7 @@
       <c r="C163" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -8693,20 +8720,20 @@
       <c r="H163" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I163" s="2">
+      <c r="I163" s="4">
         <v>13598.1</v>
       </c>
-      <c r="J163" s="2">
+      <c r="J163" s="4">
         <v>13598.1</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="L163" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>513</v>
       </c>
@@ -8716,33 +8743,33 @@
       <c r="C164" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1" t="s">
-        <v>515</v>
-      </c>
+      <c r="D164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>132</v>
+        <v>779</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I164" s="2">
+      <c r="I164" s="4">
         <v>5774.92</v>
       </c>
-      <c r="J164" s="2">
+      <c r="J164" s="4">
         <v>5774.92</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+      <c r="L164" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>409</v>
       </c>
@@ -8752,7 +8779,7 @@
       <c r="C165" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -8765,20 +8792,20 @@
       <c r="H165" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I165" s="2">
+      <c r="I165" s="4">
         <v>251780</v>
       </c>
-      <c r="J165" s="2">
+      <c r="J165" s="4">
         <v>251780</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+      <c r="L165" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>414</v>
       </c>
@@ -8788,7 +8815,7 @@
       <c r="C166" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E166" s="1" t="s">
@@ -8801,20 +8828,20 @@
       <c r="H166" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I166" s="2">
+      <c r="I166" s="4">
         <v>938.4</v>
       </c>
-      <c r="J166" s="2">
+      <c r="J166" s="4">
         <v>938.4</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="L166" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+      <c r="L166" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>419</v>
       </c>
@@ -8824,7 +8851,7 @@
       <c r="C167" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -8837,35 +8864,35 @@
       <c r="H167" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I167" s="2">
+      <c r="I167" s="4">
         <v>33342.86</v>
       </c>
-      <c r="J167" s="2">
+      <c r="J167" s="4">
         <v>33342.86</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="L167" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+      <c r="L167" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D168" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>132</v>
@@ -8873,20 +8900,20 @@
       <c r="H168" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I168" s="2">
+      <c r="I168" s="4">
         <v>2315.4499999999998</v>
       </c>
-      <c r="J168" s="2">
+      <c r="J168" s="4">
         <v>2315.4499999999998</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="L168" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+      <c r="L168" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>420</v>
       </c>
@@ -8896,7 +8923,7 @@
       <c r="C169" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="D169" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -8909,20 +8936,20 @@
       <c r="H169" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I169" s="2">
+      <c r="I169" s="4">
         <v>27113.9</v>
       </c>
-      <c r="J169" s="2">
+      <c r="J169" s="4">
         <v>27113.9</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="L169" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>715</v>
+      </c>
+      <c r="L169" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>421</v>
       </c>
@@ -8932,7 +8959,7 @@
       <c r="C170" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E170" s="1" t="s">
@@ -8945,20 +8972,20 @@
       <c r="H170" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I170" s="2">
+      <c r="I170" s="4">
         <v>757.6</v>
       </c>
-      <c r="J170" s="2">
+      <c r="J170" s="4">
         <v>757.6</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="L170" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+      <c r="L170" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>423</v>
       </c>
@@ -8968,7 +8995,7 @@
       <c r="C171" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E171" s="1" t="s">
@@ -8981,20 +9008,20 @@
       <c r="H171" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I171" s="2">
+      <c r="I171" s="4">
         <v>62435</v>
       </c>
-      <c r="J171" s="2">
+      <c r="J171" s="4">
         <v>62435</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+      <c r="L171" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>425</v>
       </c>
@@ -9004,7 +9031,7 @@
       <c r="C172" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -9017,20 +9044,20 @@
       <c r="H172" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I172" s="2">
+      <c r="I172" s="4">
         <v>284.27999999999997</v>
       </c>
-      <c r="J172" s="2">
+      <c r="J172" s="4">
         <v>284.27999999999997</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+      <c r="L172" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>428</v>
       </c>
@@ -9040,7 +9067,7 @@
       <c r="C173" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -9053,20 +9080,20 @@
       <c r="H173" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I173" s="2">
+      <c r="I173" s="4">
         <v>17289.55</v>
       </c>
-      <c r="J173" s="2">
+      <c r="J173" s="4">
         <v>17289.55</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="L173" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+      <c r="L173" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>430</v>
       </c>
@@ -9076,7 +9103,7 @@
       <c r="C174" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="D174" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -9089,20 +9116,20 @@
       <c r="H174" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I174" s="2">
+      <c r="I174" s="4">
         <v>72534.399999999994</v>
       </c>
-      <c r="J174" s="2">
+      <c r="J174" s="4">
         <v>72534.399999999994</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="L174" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+      <c r="L174" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>432</v>
       </c>
@@ -9112,7 +9139,7 @@
       <c r="C175" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D175" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -9125,20 +9152,20 @@
       <c r="H175" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I175" s="2">
+      <c r="I175" s="4">
         <v>41526.6</v>
       </c>
-      <c r="J175" s="2">
+      <c r="J175" s="4">
         <v>41526.6</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="L175" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+      <c r="L175" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>435</v>
       </c>
@@ -9148,7 +9175,7 @@
       <c r="C176" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E176" s="1" t="s">
@@ -9161,20 +9188,20 @@
       <c r="H176" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I176" s="2">
+      <c r="I176" s="4">
         <v>175839.4</v>
       </c>
-      <c r="J176" s="2">
+      <c r="J176" s="4">
         <v>175839.4</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="L176" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+      <c r="L176" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>438</v>
       </c>
@@ -9184,7 +9211,7 @@
       <c r="C177" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -9197,20 +9224,20 @@
       <c r="H177" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I177" s="2">
+      <c r="I177" s="4">
         <v>12877.27</v>
       </c>
-      <c r="J177" s="2">
+      <c r="J177" s="4">
         <v>12877.27</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="L177" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+      <c r="L177" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>441</v>
       </c>
@@ -9220,7 +9247,7 @@
       <c r="C178" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -9233,20 +9260,20 @@
       <c r="H178" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I178" s="2">
+      <c r="I178" s="4">
         <v>7721.99</v>
       </c>
-      <c r="J178" s="2">
+      <c r="J178" s="4">
         <v>7721.99</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="L178" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+      <c r="L178" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>444</v>
       </c>
@@ -9256,7 +9283,7 @@
       <c r="C179" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E179" s="1" t="s">
@@ -9269,35 +9296,35 @@
       <c r="H179" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I179" s="2">
+      <c r="I179" s="4">
         <v>22013.37</v>
       </c>
-      <c r="J179" s="2">
+      <c r="J179" s="4">
         <v>22013.37</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="L179" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="L179" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D180" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>132</v>
@@ -9305,20 +9332,20 @@
       <c r="H180" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I180" s="2">
+      <c r="I180" s="4">
         <v>21721.200000000001</v>
       </c>
-      <c r="J180" s="2">
+      <c r="J180" s="4">
         <v>21721.200000000001</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="L180" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+      <c r="L180" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>453</v>
       </c>
@@ -9328,7 +9355,7 @@
       <c r="C181" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D181" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E181" s="1"/>
@@ -9341,35 +9368,35 @@
       <c r="H181" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I181" s="2">
+      <c r="I181" s="4">
         <v>146162.5</v>
       </c>
-      <c r="J181" s="2">
+      <c r="J181" s="4">
         <v>146162.5</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="L181" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+      <c r="L181" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D182" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>132</v>
@@ -9377,35 +9404,35 @@
       <c r="H182" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I182" s="2">
+      <c r="I182" s="4">
         <v>9625.5</v>
       </c>
-      <c r="J182" s="2">
+      <c r="J182" s="4">
         <v>9625.5</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="L182" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+      <c r="L182" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D183" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>132</v>
@@ -9413,20 +9440,20 @@
       <c r="H183" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I183" s="2">
+      <c r="I183" s="4">
         <v>4073</v>
       </c>
-      <c r="J183" s="2">
+      <c r="J183" s="4">
         <v>4073</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="L183" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="L183" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>457</v>
       </c>
@@ -9436,7 +9463,7 @@
       <c r="C184" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E184" s="1"/>
@@ -9449,20 +9476,20 @@
       <c r="H184" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I184" s="2">
+      <c r="I184" s="4">
         <v>30523.93</v>
       </c>
-      <c r="J184" s="2">
+      <c r="J184" s="4">
         <v>30523.93</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="L184" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+      <c r="L184" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>459</v>
       </c>
@@ -9472,7 +9499,7 @@
       <c r="C185" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D185" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E185" s="1"/>
@@ -9485,20 +9512,20 @@
       <c r="H185" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I185" s="2">
+      <c r="I185" s="4">
         <v>49694.21</v>
       </c>
-      <c r="J185" s="2">
+      <c r="J185" s="4">
         <v>49694.21</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="L185" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+      <c r="L185" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>462</v>
       </c>
@@ -9508,7 +9535,7 @@
       <c r="C186" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E186" s="1"/>
@@ -9521,35 +9548,35 @@
       <c r="H186" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I186" s="2">
+      <c r="I186" s="4">
         <v>2231.16</v>
       </c>
-      <c r="J186" s="2">
+      <c r="J186" s="4">
         <v>2231.16</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="L186" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+      <c r="L186" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>465</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D187" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>132</v>
@@ -9557,35 +9584,35 @@
       <c r="H187" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I187" s="2">
+      <c r="I187" s="4">
         <v>850.46</v>
       </c>
-      <c r="J187" s="2">
+      <c r="J187" s="4">
         <v>850.46</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="L187" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+      <c r="L187" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>465</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D188" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>132</v>
@@ -9593,20 +9620,20 @@
       <c r="H188" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I188" s="2">
+      <c r="I188" s="4">
         <v>3850</v>
       </c>
-      <c r="J188" s="2">
+      <c r="J188" s="4">
         <v>3850</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="L188" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+      <c r="L188" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>464</v>
       </c>
@@ -9616,7 +9643,7 @@
       <c r="C189" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D189" s="4" t="s">
+      <c r="D189" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E189" s="1"/>
@@ -9629,35 +9656,35 @@
       <c r="H189" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I189" s="2">
+      <c r="I189" s="4">
         <v>380320</v>
       </c>
-      <c r="J189" s="2">
+      <c r="J189" s="4">
         <v>380320</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="L189" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+      <c r="L189" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D190" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>132</v>
@@ -9665,35 +9692,35 @@
       <c r="H190" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I190" s="2">
+      <c r="I190" s="4">
         <v>329.5</v>
       </c>
-      <c r="J190" s="2">
+      <c r="J190" s="4">
         <v>329.5</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="L190" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+      <c r="L190" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D191" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>132</v>
@@ -9701,35 +9728,35 @@
       <c r="H191" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I191" s="2">
+      <c r="I191" s="4">
         <v>509.72</v>
       </c>
-      <c r="J191" s="2">
+      <c r="J191" s="4">
         <v>509.72</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="L191" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+      <c r="L191" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D192" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>132</v>
@@ -9737,35 +9764,35 @@
       <c r="H192" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I192" s="2">
+      <c r="I192" s="4">
         <v>129.32</v>
       </c>
-      <c r="J192" s="2">
+      <c r="J192" s="4">
         <v>129.32</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="L192" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+      <c r="L192" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D193" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>132</v>
@@ -9773,35 +9800,35 @@
       <c r="H193" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I193" s="2">
+      <c r="I193" s="4">
         <v>300.5</v>
       </c>
-      <c r="J193" s="2">
+      <c r="J193" s="4">
         <v>300.5</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="L193" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>738</v>
+      </c>
+      <c r="L193" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D194" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>132</v>
@@ -9809,35 +9836,35 @@
       <c r="H194" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I194" s="2">
+      <c r="I194" s="4">
         <v>13320.45</v>
       </c>
-      <c r="J194" s="2">
+      <c r="J194" s="4">
         <v>13320.45</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="L194" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+      <c r="L194" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D195" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>132</v>
@@ -9845,35 +9872,35 @@
       <c r="H195" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I195" s="2">
+      <c r="I195" s="4">
         <v>348.14</v>
       </c>
-      <c r="J195" s="2">
+      <c r="J195" s="4">
         <v>348.14</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="L195" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+      <c r="L195" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D196" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>132</v>
@@ -9881,35 +9908,35 @@
       <c r="H196" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I196" s="2">
+      <c r="I196" s="4">
         <v>260</v>
       </c>
-      <c r="J196" s="2">
+      <c r="J196" s="4">
         <v>260</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="L196" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+      <c r="L196" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D197" s="4" t="s">
+      <c r="D197" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>132</v>
@@ -9917,35 +9944,35 @@
       <c r="H197" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I197" s="2">
+      <c r="I197" s="4">
         <v>3955.54</v>
       </c>
-      <c r="J197" s="2">
+      <c r="J197" s="4">
         <v>3955.54</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="L197" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+      <c r="L197" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D198" s="4" t="s">
+      <c r="D198" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>132</v>
@@ -9953,35 +9980,35 @@
       <c r="H198" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I198" s="2">
+      <c r="I198" s="4">
         <v>14873.4</v>
       </c>
-      <c r="J198" s="2">
+      <c r="J198" s="4">
         <v>14873.4</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="L198" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+      <c r="L198" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D199" s="4" t="s">
+      <c r="D199" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>132</v>
@@ -9989,35 +10016,35 @@
       <c r="H199" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I199" s="2">
+      <c r="I199" s="4">
         <v>18854.599999999999</v>
       </c>
-      <c r="J199" s="2">
+      <c r="J199" s="4">
         <v>18854.599999999999</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="L199" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+      <c r="L199" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D200" s="4" t="s">
+      <c r="D200" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>132</v>
@@ -10025,35 +10052,35 @@
       <c r="H200" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I200" s="2">
+      <c r="I200" s="4">
         <v>12051.36</v>
       </c>
-      <c r="J200" s="2">
+      <c r="J200" s="4">
         <v>12051.36</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="L200" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>744</v>
+      </c>
+      <c r="L200" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D201" s="4" t="s">
+      <c r="D201" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>132</v>
@@ -10061,35 +10088,35 @@
       <c r="H201" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I201" s="2">
+      <c r="I201" s="4">
         <v>8370</v>
       </c>
-      <c r="J201" s="2">
+      <c r="J201" s="4">
         <v>8370</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="L201" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+      <c r="L201" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D202" s="4" t="s">
+      <c r="D202" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>132</v>
@@ -10097,35 +10124,35 @@
       <c r="H202" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I202" s="2">
+      <c r="I202" s="4">
         <v>107.65</v>
       </c>
-      <c r="J202" s="2">
+      <c r="J202" s="4">
         <v>107.65</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="L202" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+      <c r="L202" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D203" s="4" t="s">
+      <c r="D203" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>132</v>
@@ -10133,35 +10160,35 @@
       <c r="H203" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I203" s="2">
+      <c r="I203" s="4">
         <v>150.19999999999999</v>
       </c>
-      <c r="J203" s="2">
+      <c r="J203" s="4">
         <v>150.19999999999999</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="L203" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+      <c r="L203" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D204" s="4" t="s">
+      <c r="D204" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>132</v>
@@ -10169,35 +10196,35 @@
       <c r="H204" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I204" s="2">
+      <c r="I204" s="4">
         <v>275.81</v>
       </c>
-      <c r="J204" s="2">
+      <c r="J204" s="4">
         <v>275.81</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="L204" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>748</v>
+      </c>
+      <c r="L204" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D205" s="4" t="s">
+      <c r="D205" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>132</v>
@@ -10205,35 +10232,35 @@
       <c r="H205" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I205" s="2">
+      <c r="I205" s="4">
         <v>147.46</v>
       </c>
-      <c r="J205" s="2">
+      <c r="J205" s="4">
         <v>147.46</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="L205" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+      <c r="L205" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D206" s="4" t="s">
+      <c r="D206" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>132</v>
@@ -10241,35 +10268,35 @@
       <c r="H206" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I206" s="2">
+      <c r="I206" s="4">
         <v>84.76</v>
       </c>
-      <c r="J206" s="2">
+      <c r="J206" s="4">
         <v>84.76</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="L206" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+      <c r="L206" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D207" s="4" t="s">
+      <c r="D207" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>132</v>
@@ -10277,20 +10304,20 @@
       <c r="H207" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I207" s="2">
+      <c r="I207" s="4">
         <v>144.58000000000001</v>
       </c>
-      <c r="J207" s="2">
+      <c r="J207" s="4">
         <v>144.58000000000001</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="L207" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+      <c r="L207" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>445</v>
       </c>
@@ -10300,7 +10327,7 @@
       <c r="C208" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="D208" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E208" s="1" t="s">
@@ -10313,20 +10340,20 @@
       <c r="H208" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I208" s="2">
+      <c r="I208" s="4">
         <v>27721.05</v>
       </c>
-      <c r="J208" s="2">
+      <c r="J208" s="4">
         <v>27721.05</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="L208" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+      <c r="L208" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>447</v>
       </c>
@@ -10336,7 +10363,7 @@
       <c r="C209" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D209" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -10349,20 +10376,20 @@
       <c r="H209" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I209" s="2">
+      <c r="I209" s="4">
         <v>1156.68</v>
       </c>
-      <c r="J209" s="2">
+      <c r="J209" s="4">
         <v>1156.68</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="L209" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>753</v>
+      </c>
+      <c r="L209" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>449</v>
       </c>
@@ -10372,7 +10399,7 @@
       <c r="C210" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="D210" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -10385,20 +10412,20 @@
       <c r="H210" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I210" s="2">
+      <c r="I210" s="4">
         <v>13833.8</v>
       </c>
-      <c r="J210" s="2">
+      <c r="J210" s="4">
         <v>13833.8</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="L210" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+      <c r="L210" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>451</v>
       </c>
@@ -10408,7 +10435,7 @@
       <c r="C211" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D211" s="4" t="s">
+      <c r="D211" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -10421,20 +10448,20 @@
       <c r="H211" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I211" s="2">
+      <c r="I211" s="4">
         <v>154464</v>
       </c>
-      <c r="J211" s="2">
+      <c r="J211" s="4">
         <v>154464</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="L211" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+      <c r="L211" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>452</v>
       </c>
@@ -10444,7 +10471,7 @@
       <c r="C212" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="D212" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -10457,20 +10484,20 @@
       <c r="H212" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I212" s="2">
+      <c r="I212" s="4">
         <v>154464</v>
       </c>
-      <c r="J212" s="2">
+      <c r="J212" s="4">
         <v>154464</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="L212" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+      <c r="L212" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>468</v>
       </c>
@@ -10480,7 +10507,7 @@
       <c r="C213" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="D213" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E213" s="1" t="s">
@@ -10493,20 +10520,20 @@
       <c r="H213" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I213" s="2">
+      <c r="I213" s="4">
         <v>34320.879999999997</v>
       </c>
-      <c r="J213" s="2">
+      <c r="J213" s="4">
         <v>34320.879999999997</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="L213" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>757</v>
+      </c>
+      <c r="L213" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>470</v>
       </c>
@@ -10516,7 +10543,7 @@
       <c r="C214" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D214" s="4" t="s">
+      <c r="D214" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -10529,35 +10556,35 @@
       <c r="H214" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I214" s="2">
+      <c r="I214" s="4">
         <v>2963.4</v>
       </c>
-      <c r="J214" s="2">
+      <c r="J214" s="4">
         <v>2963.4</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="L214" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+      <c r="L214" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="D215" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>132</v>
@@ -10565,20 +10592,20 @@
       <c r="H215" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I215" s="2">
+      <c r="I215" s="4">
         <v>53140</v>
       </c>
-      <c r="J215" s="2">
+      <c r="J215" s="4">
         <v>53140</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="L215" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+      <c r="L215" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>472</v>
       </c>
@@ -10588,7 +10615,7 @@
       <c r="C216" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D216" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -10601,20 +10628,20 @@
       <c r="H216" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I216" s="2">
+      <c r="I216" s="4">
         <v>3164.06</v>
       </c>
-      <c r="J216" s="2">
+      <c r="J216" s="4">
         <v>3164.06</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="L216" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+      <c r="L216" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>475</v>
       </c>
@@ -10624,7 +10651,7 @@
       <c r="C217" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="D217" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E217" s="1" t="s">
@@ -10637,20 +10664,20 @@
       <c r="H217" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I217" s="2">
+      <c r="I217" s="4">
         <v>442.65</v>
       </c>
-      <c r="J217" s="2">
+      <c r="J217" s="4">
         <v>442.65</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="L217" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+      <c r="L217" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>478</v>
       </c>
@@ -10660,7 +10687,7 @@
       <c r="C218" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D218" s="4" t="s">
+      <c r="D218" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E218" s="1" t="s">
@@ -10673,35 +10700,35 @@
       <c r="H218" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I218" s="2">
+      <c r="I218" s="4">
         <v>217.98</v>
       </c>
-      <c r="J218" s="2">
+      <c r="J218" s="4">
         <v>217.98</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="L218" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+      <c r="L218" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D219" s="4" t="s">
+      <c r="D219" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>132</v>
@@ -10709,35 +10736,35 @@
       <c r="H219" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I219" s="2">
+      <c r="I219" s="4">
         <v>128.63999999999999</v>
       </c>
-      <c r="J219" s="2">
+      <c r="J219" s="4">
         <v>128.63999999999999</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="L219" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+      <c r="L219" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D220" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>132</v>
@@ -10745,35 +10772,35 @@
       <c r="H220" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I220" s="2">
+      <c r="I220" s="4">
         <v>785.03</v>
       </c>
-      <c r="J220" s="2">
+      <c r="J220" s="4">
         <v>785.03</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="L220" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+      <c r="L220" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D221" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>132</v>
@@ -10781,20 +10808,20 @@
       <c r="H221" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I221" s="2">
+      <c r="I221" s="4">
         <v>679.86</v>
       </c>
-      <c r="J221" s="2">
+      <c r="J221" s="4">
         <v>679.86</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="L221" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+      <c r="L221" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>480</v>
       </c>
@@ -10804,7 +10831,7 @@
       <c r="C222" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="D222" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -10817,20 +10844,20 @@
       <c r="H222" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I222" s="2">
+      <c r="I222" s="4">
         <v>14778.1</v>
       </c>
-      <c r="J222" s="2">
+      <c r="J222" s="4">
         <v>14778.1</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="L222" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>766</v>
+      </c>
+      <c r="L222" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>483</v>
       </c>
@@ -10840,7 +10867,7 @@
       <c r="C223" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D223" s="4" t="s">
+      <c r="D223" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E223" s="1"/>
@@ -10853,20 +10880,20 @@
       <c r="H223" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I223" s="2">
+      <c r="I223" s="4">
         <v>184805.81</v>
       </c>
-      <c r="J223" s="2">
+      <c r="J223" s="4">
         <v>184805.81</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="L223" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+      <c r="L223" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>486</v>
       </c>
@@ -10876,7 +10903,7 @@
       <c r="C224" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D224" s="4" t="s">
+      <c r="D224" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E224" s="1" t="s">
@@ -10889,20 +10916,20 @@
       <c r="H224" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I224" s="2">
+      <c r="I224" s="4">
         <v>4641.24</v>
       </c>
-      <c r="J224" s="2">
+      <c r="J224" s="4">
         <v>4641.24</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="L224" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+      <c r="L224" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>488</v>
       </c>
@@ -10912,7 +10939,7 @@
       <c r="C225" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D225" s="4" t="s">
+      <c r="D225" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E225" s="1" t="s">
@@ -10925,20 +10952,20 @@
       <c r="H225" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I225" s="2">
+      <c r="I225" s="4">
         <v>82813.399999999994</v>
       </c>
-      <c r="J225" s="2">
+      <c r="J225" s="4">
         <v>82813.399999999994</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="L225" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+      <c r="L225" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>492</v>
       </c>
@@ -10948,7 +10975,7 @@
       <c r="C226" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D226" s="4" t="s">
+      <c r="D226" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E226" s="1" t="s">
@@ -10961,20 +10988,20 @@
       <c r="H226" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I226" s="2">
+      <c r="I226" s="4">
         <v>11370.68</v>
       </c>
-      <c r="J226" s="2">
+      <c r="J226" s="4">
         <v>11370.68</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="L226" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+      <c r="L226" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>496</v>
       </c>
@@ -10984,7 +11011,7 @@
       <c r="C227" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D227" s="4" t="s">
+      <c r="D227" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E227" s="1" t="s">
@@ -10997,20 +11024,20 @@
       <c r="H227" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I227" s="2">
+      <c r="I227" s="4">
         <v>222625</v>
       </c>
-      <c r="J227" s="2">
+      <c r="J227" s="4">
         <v>222625</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="L227" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+      <c r="L227" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>499</v>
       </c>
@@ -11020,7 +11047,7 @@
       <c r="C228" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D228" s="4" t="s">
+      <c r="D228" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E228" s="1" t="s">
@@ -11033,20 +11060,20 @@
       <c r="H228" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I228" s="2">
+      <c r="I228" s="4">
         <v>3277</v>
       </c>
-      <c r="J228" s="2">
+      <c r="J228" s="4">
         <v>3277</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="L228" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+      <c r="L228" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>501</v>
       </c>
@@ -11056,7 +11083,7 @@
       <c r="C229" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D229" s="4" t="s">
+      <c r="D229" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E229" s="1" t="s">
@@ -11069,20 +11096,20 @@
       <c r="H229" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I229" s="2">
+      <c r="I229" s="4">
         <v>400.26</v>
       </c>
-      <c r="J229" s="2">
+      <c r="J229" s="4">
         <v>400.26</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="L229" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>773</v>
+      </c>
+      <c r="L229" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>502</v>
       </c>
@@ -11092,7 +11119,7 @@
       <c r="C230" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D230" s="4" t="s">
+      <c r="D230" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E230" s="1" t="s">
@@ -11105,20 +11132,20 @@
       <c r="H230" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I230" s="2">
+      <c r="I230" s="4">
         <v>1169.93</v>
       </c>
-      <c r="J230" s="2">
+      <c r="J230" s="4">
         <v>1169.93</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="L230" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+      <c r="L230" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>505</v>
       </c>
@@ -11128,7 +11155,7 @@
       <c r="C231" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D231" s="4" t="s">
+      <c r="D231" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E231" s="1" t="s">
@@ -11141,20 +11168,20 @@
       <c r="H231" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I231" s="2">
+      <c r="I231" s="4">
         <v>8032.21</v>
       </c>
-      <c r="J231" s="2">
+      <c r="J231" s="4">
         <v>8032.21</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="L231" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+      <c r="L231" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>506</v>
       </c>
@@ -11164,7 +11191,7 @@
       <c r="C232" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D232" s="4" t="s">
+      <c r="D232" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E232" s="1"/>
@@ -11177,20 +11204,20 @@
       <c r="H232" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I232" s="2">
+      <c r="I232" s="4">
         <v>577.20000000000005</v>
       </c>
-      <c r="J232" s="2">
+      <c r="J232" s="4">
         <v>577.20000000000005</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="L232" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="28" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+      <c r="L232" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>507</v>
       </c>
@@ -11200,7 +11227,7 @@
       <c r="C233" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D233" s="4" t="s">
+      <c r="D233" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E233" s="1" t="s">
@@ -11213,18 +11240,118 @@
       <c r="H233" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I233" s="2">
+      <c r="I233" s="4">
         <v>399</v>
       </c>
-      <c r="J233" s="2">
+      <c r="J233" s="4">
         <v>399</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="L233" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="L233" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="K238" s="3"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="K239" s="3"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="K240" s="3"/>
+    </row>
+    <row r="241" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="K241" s="3"/>
+    </row>
+    <row r="242" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="K242" s="3"/>
+    </row>
+    <row r="243" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="K243" s="3"/>
+    </row>
+    <row r="244" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="K244" s="3"/>
+    </row>
+    <row r="245" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/cips_data.xlsx
+++ b/cips_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhubb/Documents/ar_excel_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4081FDE8-DD8D-1E45-9969-8F9ADC78B64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C283DB32-2365-BB49-A402-1529D2EACB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16160" yWindow="500" windowWidth="12640" windowHeight="16540" xr2:uid="{11FC0157-601E-C148-A29B-2D6A01395A3D}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="12640" windowHeight="16540" xr2:uid="{11FC0157-601E-C148-A29B-2D6A01395A3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2843,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82F5A9E-41A9-824A-9FC6-90FD0613E4B7}">
   <dimension ref="A1:L245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H239" sqref="H239"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
